--- a/Human_anno/humananno_res/lsy_oc.xlsx
+++ b/Human_anno/humananno_res/lsy_oc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Astudying\VideoEval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Astudying\VideoEval\HighlyHumanLikeVEB\Human_anno\humananno_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D01F58F-799D-479C-92E9-CE89B1F970A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE007F-D1C3-4403-8411-677581B7BCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="107">
   <si>
     <t>Prompt</t>
   </si>
@@ -376,6 +376,10 @@
     <t>lavie</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -456,6 +460,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -476,7 +491,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -779,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1381"/>
+  <dimension ref="A1:H1381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1366" workbookViewId="0">
-      <selection activeCell="D1378" sqref="D1378"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -793,7 +810,7 @@
     <col min="4" max="7" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,8 +832,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -829,8 +849,11 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -843,8 +866,11 @@
       <c r="D3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -858,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -872,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -889,7 +915,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -903,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -917,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -931,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -945,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -962,7 +988,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -976,7 +1002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -990,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -1018,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -8056,7 +8082,7 @@
       <c r="C497" t="s">
         <v>7</v>
       </c>
-      <c r="D497" s="7">
+      <c r="D497">
         <v>2</v>
       </c>
     </row>
@@ -8070,7 +8096,7 @@
       <c r="C498" t="s">
         <v>8</v>
       </c>
-      <c r="D498" s="7">
+      <c r="D498">
         <v>2</v>
       </c>
     </row>
@@ -8084,7 +8110,7 @@
       <c r="C499" t="s">
         <v>9</v>
       </c>
-      <c r="D499" s="7">
+      <c r="D499">
         <v>2</v>
       </c>
     </row>
@@ -8098,7 +8124,7 @@
       <c r="C500" t="s">
         <v>10</v>
       </c>
-      <c r="D500" s="7">
+      <c r="D500">
         <v>4</v>
       </c>
     </row>
@@ -8129,7 +8155,7 @@
       <c r="C502" t="s">
         <v>7</v>
       </c>
-      <c r="D502" s="7">
+      <c r="D502">
         <v>2</v>
       </c>
     </row>
@@ -8143,7 +8169,7 @@
       <c r="C503" t="s">
         <v>8</v>
       </c>
-      <c r="D503" s="7">
+      <c r="D503">
         <v>2</v>
       </c>
     </row>
@@ -8157,7 +8183,7 @@
       <c r="C504" t="s">
         <v>9</v>
       </c>
-      <c r="D504" s="7">
+      <c r="D504">
         <v>3</v>
       </c>
     </row>
@@ -8171,7 +8197,7 @@
       <c r="C505" t="s">
         <v>10</v>
       </c>
-      <c r="D505" s="7">
+      <c r="D505">
         <v>3</v>
       </c>
     </row>
@@ -8202,7 +8228,7 @@
       <c r="C507" t="s">
         <v>7</v>
       </c>
-      <c r="D507" s="7">
+      <c r="D507">
         <v>2</v>
       </c>
     </row>
@@ -8216,7 +8242,7 @@
       <c r="C508" t="s">
         <v>8</v>
       </c>
-      <c r="D508" s="7">
+      <c r="D508">
         <v>2</v>
       </c>
     </row>
@@ -8230,7 +8256,7 @@
       <c r="C509" t="s">
         <v>9</v>
       </c>
-      <c r="D509" s="7">
+      <c r="D509">
         <v>2</v>
       </c>
     </row>
@@ -8244,7 +8270,7 @@
       <c r="C510" t="s">
         <v>10</v>
       </c>
-      <c r="D510" s="7">
+      <c r="D510">
         <v>1</v>
       </c>
     </row>
@@ -8275,7 +8301,7 @@
       <c r="C512" t="s">
         <v>7</v>
       </c>
-      <c r="D512" s="7">
+      <c r="D512">
         <v>3</v>
       </c>
     </row>
@@ -8289,7 +8315,7 @@
       <c r="C513" t="s">
         <v>8</v>
       </c>
-      <c r="D513" s="7">
+      <c r="D513">
         <v>4</v>
       </c>
     </row>
@@ -8303,7 +8329,7 @@
       <c r="C514" t="s">
         <v>9</v>
       </c>
-      <c r="D514" s="7">
+      <c r="D514">
         <v>4</v>
       </c>
     </row>
@@ -8317,7 +8343,7 @@
       <c r="C515" t="s">
         <v>10</v>
       </c>
-      <c r="D515" s="7">
+      <c r="D515">
         <v>4</v>
       </c>
     </row>
@@ -8348,7 +8374,7 @@
       <c r="C517" t="s">
         <v>7</v>
       </c>
-      <c r="D517" s="7">
+      <c r="D517">
         <v>3</v>
       </c>
     </row>
@@ -8362,7 +8388,7 @@
       <c r="C518" t="s">
         <v>8</v>
       </c>
-      <c r="D518" s="7">
+      <c r="D518">
         <v>3</v>
       </c>
     </row>
@@ -8376,7 +8402,7 @@
       <c r="C519" t="s">
         <v>9</v>
       </c>
-      <c r="D519" s="7">
+      <c r="D519">
         <v>4</v>
       </c>
     </row>
@@ -8390,7 +8416,7 @@
       <c r="C520" t="s">
         <v>10</v>
       </c>
-      <c r="D520" s="7">
+      <c r="D520">
         <v>4</v>
       </c>
     </row>
@@ -8421,7 +8447,7 @@
       <c r="C522" t="s">
         <v>7</v>
       </c>
-      <c r="D522" s="7">
+      <c r="D522">
         <v>3</v>
       </c>
     </row>
@@ -8435,7 +8461,7 @@
       <c r="C523" t="s">
         <v>8</v>
       </c>
-      <c r="D523" s="7">
+      <c r="D523">
         <v>4</v>
       </c>
     </row>
@@ -8449,7 +8475,7 @@
       <c r="C524" t="s">
         <v>9</v>
       </c>
-      <c r="D524" s="7">
+      <c r="D524">
         <v>2</v>
       </c>
     </row>
@@ -8463,7 +8489,7 @@
       <c r="C525" t="s">
         <v>10</v>
       </c>
-      <c r="D525" s="7">
+      <c r="D525">
         <v>5</v>
       </c>
     </row>
@@ -8494,7 +8520,7 @@
       <c r="C527" t="s">
         <v>7</v>
       </c>
-      <c r="D527" s="7">
+      <c r="D527">
         <v>5</v>
       </c>
     </row>
@@ -8508,7 +8534,7 @@
       <c r="C528" t="s">
         <v>8</v>
       </c>
-      <c r="D528" s="7">
+      <c r="D528">
         <v>5</v>
       </c>
     </row>
@@ -8522,7 +8548,7 @@
       <c r="C529" t="s">
         <v>9</v>
       </c>
-      <c r="D529" s="7">
+      <c r="D529">
         <v>5</v>
       </c>
     </row>
@@ -8536,7 +8562,7 @@
       <c r="C530" t="s">
         <v>10</v>
       </c>
-      <c r="D530" s="7">
+      <c r="D530">
         <v>5</v>
       </c>
     </row>
@@ -8567,7 +8593,7 @@
       <c r="C532" t="s">
         <v>7</v>
       </c>
-      <c r="D532" s="7">
+      <c r="D532">
         <v>4</v>
       </c>
     </row>
@@ -8581,7 +8607,7 @@
       <c r="C533" t="s">
         <v>8</v>
       </c>
-      <c r="D533" s="7">
+      <c r="D533">
         <v>4</v>
       </c>
     </row>
@@ -8595,7 +8621,7 @@
       <c r="C534" t="s">
         <v>9</v>
       </c>
-      <c r="D534" s="7">
+      <c r="D534">
         <v>5</v>
       </c>
     </row>
@@ -8609,7 +8635,7 @@
       <c r="C535" t="s">
         <v>10</v>
       </c>
-      <c r="D535" s="7">
+      <c r="D535">
         <v>4</v>
       </c>
     </row>
@@ -8640,7 +8666,7 @@
       <c r="C537" t="s">
         <v>7</v>
       </c>
-      <c r="D537" s="7">
+      <c r="D537">
         <v>5</v>
       </c>
     </row>
@@ -8654,7 +8680,7 @@
       <c r="C538" t="s">
         <v>8</v>
       </c>
-      <c r="D538" s="7">
+      <c r="D538">
         <v>4</v>
       </c>
     </row>
@@ -8668,7 +8694,7 @@
       <c r="C539" t="s">
         <v>9</v>
       </c>
-      <c r="D539" s="7">
+      <c r="D539">
         <v>3</v>
       </c>
     </row>
@@ -8682,7 +8708,7 @@
       <c r="C540" t="s">
         <v>10</v>
       </c>
-      <c r="D540" s="7">
+      <c r="D540">
         <v>3</v>
       </c>
     </row>
@@ -8713,7 +8739,7 @@
       <c r="C542" t="s">
         <v>7</v>
       </c>
-      <c r="D542" s="7">
+      <c r="D542">
         <v>2</v>
       </c>
     </row>
@@ -8727,7 +8753,7 @@
       <c r="C543" t="s">
         <v>8</v>
       </c>
-      <c r="D543" s="7">
+      <c r="D543">
         <v>2</v>
       </c>
     </row>
@@ -8741,7 +8767,7 @@
       <c r="C544" t="s">
         <v>9</v>
       </c>
-      <c r="D544" s="7">
+      <c r="D544">
         <v>2</v>
       </c>
     </row>
@@ -8755,7 +8781,7 @@
       <c r="C545" t="s">
         <v>10</v>
       </c>
-      <c r="D545" s="7">
+      <c r="D545">
         <v>3</v>
       </c>
     </row>
@@ -8786,7 +8812,7 @@
       <c r="C547" t="s">
         <v>7</v>
       </c>
-      <c r="D547" s="7">
+      <c r="D547">
         <v>1</v>
       </c>
     </row>
@@ -8800,7 +8826,7 @@
       <c r="C548" t="s">
         <v>8</v>
       </c>
-      <c r="D548" s="7">
+      <c r="D548">
         <v>2</v>
       </c>
     </row>
@@ -8814,7 +8840,7 @@
       <c r="C549" t="s">
         <v>9</v>
       </c>
-      <c r="D549" s="7">
+      <c r="D549">
         <v>4</v>
       </c>
     </row>
@@ -8828,7 +8854,7 @@
       <c r="C550" t="s">
         <v>10</v>
       </c>
-      <c r="D550" s="7">
+      <c r="D550">
         <v>3</v>
       </c>
     </row>
@@ -8859,7 +8885,7 @@
       <c r="C552" t="s">
         <v>7</v>
       </c>
-      <c r="D552" s="7">
+      <c r="D552">
         <v>2</v>
       </c>
     </row>
@@ -8873,7 +8899,7 @@
       <c r="C553" t="s">
         <v>8</v>
       </c>
-      <c r="D553" s="7">
+      <c r="D553">
         <v>3</v>
       </c>
     </row>
@@ -8887,7 +8913,7 @@
       <c r="C554" t="s">
         <v>9</v>
       </c>
-      <c r="D554" s="7">
+      <c r="D554">
         <v>3</v>
       </c>
     </row>
@@ -8901,7 +8927,7 @@
       <c r="C555" t="s">
         <v>10</v>
       </c>
-      <c r="D555" s="7">
+      <c r="D555">
         <v>2</v>
       </c>
     </row>
@@ -8932,7 +8958,7 @@
       <c r="C557" t="s">
         <v>7</v>
       </c>
-      <c r="D557" s="7">
+      <c r="D557">
         <v>2</v>
       </c>
     </row>
@@ -8946,7 +8972,7 @@
       <c r="C558" t="s">
         <v>8</v>
       </c>
-      <c r="D558" s="7">
+      <c r="D558">
         <v>3</v>
       </c>
     </row>
@@ -8960,7 +8986,7 @@
       <c r="C559" t="s">
         <v>9</v>
       </c>
-      <c r="D559" s="7">
+      <c r="D559">
         <v>4</v>
       </c>
     </row>
@@ -8974,7 +9000,7 @@
       <c r="C560" t="s">
         <v>10</v>
       </c>
-      <c r="D560" s="7">
+      <c r="D560">
         <v>3</v>
       </c>
     </row>
@@ -9005,7 +9031,7 @@
       <c r="C562" t="s">
         <v>7</v>
       </c>
-      <c r="D562" s="7">
+      <c r="D562">
         <v>5</v>
       </c>
     </row>
@@ -9019,7 +9045,7 @@
       <c r="C563" t="s">
         <v>8</v>
       </c>
-      <c r="D563" s="7">
+      <c r="D563">
         <v>4</v>
       </c>
     </row>
@@ -9033,7 +9059,7 @@
       <c r="C564" t="s">
         <v>9</v>
       </c>
-      <c r="D564" s="7">
+      <c r="D564">
         <v>2</v>
       </c>
     </row>
@@ -9047,7 +9073,7 @@
       <c r="C565" t="s">
         <v>10</v>
       </c>
-      <c r="D565" s="7">
+      <c r="D565">
         <v>3</v>
       </c>
     </row>
@@ -9078,7 +9104,7 @@
       <c r="C567" t="s">
         <v>7</v>
       </c>
-      <c r="D567" s="7">
+      <c r="D567">
         <v>2</v>
       </c>
     </row>
@@ -9092,7 +9118,7 @@
       <c r="C568" t="s">
         <v>8</v>
       </c>
-      <c r="D568" s="7">
+      <c r="D568">
         <v>2</v>
       </c>
     </row>
@@ -9106,7 +9132,7 @@
       <c r="C569" t="s">
         <v>9</v>
       </c>
-      <c r="D569" s="7">
+      <c r="D569">
         <v>2</v>
       </c>
     </row>
@@ -9120,7 +9146,7 @@
       <c r="C570" t="s">
         <v>10</v>
       </c>
-      <c r="D570" s="7">
+      <c r="D570">
         <v>3</v>
       </c>
     </row>
@@ -9151,7 +9177,7 @@
       <c r="C572" t="s">
         <v>7</v>
       </c>
-      <c r="D572" s="7">
+      <c r="D572">
         <v>2</v>
       </c>
     </row>
@@ -9165,7 +9191,7 @@
       <c r="C573" t="s">
         <v>8</v>
       </c>
-      <c r="D573" s="7">
+      <c r="D573">
         <v>3</v>
       </c>
     </row>
@@ -9179,7 +9205,7 @@
       <c r="C574" t="s">
         <v>9</v>
       </c>
-      <c r="D574" s="7">
+      <c r="D574">
         <v>3</v>
       </c>
     </row>
@@ -9193,7 +9219,7 @@
       <c r="C575" t="s">
         <v>10</v>
       </c>
-      <c r="D575" s="7">
+      <c r="D575">
         <v>2</v>
       </c>
     </row>
@@ -9224,7 +9250,7 @@
       <c r="C577" t="s">
         <v>7</v>
       </c>
-      <c r="D577" s="7">
+      <c r="D577">
         <v>2</v>
       </c>
     </row>
@@ -9238,7 +9264,7 @@
       <c r="C578" t="s">
         <v>8</v>
       </c>
-      <c r="D578" s="7">
+      <c r="D578">
         <v>3</v>
       </c>
     </row>
@@ -9252,7 +9278,7 @@
       <c r="C579" t="s">
         <v>9</v>
       </c>
-      <c r="D579" s="7">
+      <c r="D579">
         <v>1</v>
       </c>
     </row>
@@ -9266,7 +9292,7 @@
       <c r="C580" t="s">
         <v>10</v>
       </c>
-      <c r="D580" s="7">
+      <c r="D580">
         <v>3</v>
       </c>
     </row>
@@ -9297,7 +9323,7 @@
       <c r="C582" t="s">
         <v>7</v>
       </c>
-      <c r="D582" s="7">
+      <c r="D582">
         <v>3</v>
       </c>
     </row>
@@ -9311,7 +9337,7 @@
       <c r="C583" t="s">
         <v>8</v>
       </c>
-      <c r="D583" s="7">
+      <c r="D583">
         <v>3</v>
       </c>
     </row>
@@ -9325,7 +9351,7 @@
       <c r="C584" t="s">
         <v>9</v>
       </c>
-      <c r="D584" s="7">
+      <c r="D584">
         <v>2</v>
       </c>
     </row>
@@ -9339,7 +9365,7 @@
       <c r="C585" t="s">
         <v>10</v>
       </c>
-      <c r="D585" s="7">
+      <c r="D585">
         <v>2</v>
       </c>
     </row>
@@ -9370,7 +9396,7 @@
       <c r="C587" t="s">
         <v>7</v>
       </c>
-      <c r="D587" s="7">
+      <c r="D587">
         <v>4</v>
       </c>
     </row>
@@ -9384,7 +9410,7 @@
       <c r="C588" t="s">
         <v>8</v>
       </c>
-      <c r="D588" s="7">
+      <c r="D588">
         <v>5</v>
       </c>
     </row>
@@ -9398,7 +9424,7 @@
       <c r="C589" t="s">
         <v>9</v>
       </c>
-      <c r="D589" s="7">
+      <c r="D589">
         <v>4</v>
       </c>
     </row>
@@ -9412,7 +9438,7 @@
       <c r="C590" t="s">
         <v>10</v>
       </c>
-      <c r="D590" s="7">
+      <c r="D590">
         <v>5</v>
       </c>
     </row>
@@ -9443,7 +9469,7 @@
       <c r="C592" t="s">
         <v>7</v>
       </c>
-      <c r="D592" s="7">
+      <c r="D592">
         <v>4</v>
       </c>
     </row>
@@ -9457,7 +9483,7 @@
       <c r="C593" t="s">
         <v>8</v>
       </c>
-      <c r="D593" s="7">
+      <c r="D593">
         <v>5</v>
       </c>
     </row>
@@ -9471,7 +9497,7 @@
       <c r="C594" t="s">
         <v>9</v>
       </c>
-      <c r="D594" s="7">
+      <c r="D594">
         <v>2</v>
       </c>
     </row>
@@ -9485,7 +9511,7 @@
       <c r="C595" t="s">
         <v>10</v>
       </c>
-      <c r="D595" s="7">
+      <c r="D595">
         <v>4</v>
       </c>
     </row>
@@ -9516,7 +9542,7 @@
       <c r="C597" t="s">
         <v>7</v>
       </c>
-      <c r="D597" s="7">
+      <c r="D597">
         <v>2</v>
       </c>
     </row>
@@ -9530,7 +9556,7 @@
       <c r="C598" t="s">
         <v>8</v>
       </c>
-      <c r="D598" s="7">
+      <c r="D598">
         <v>4</v>
       </c>
     </row>
@@ -9544,7 +9570,7 @@
       <c r="C599" t="s">
         <v>9</v>
       </c>
-      <c r="D599" s="7">
+      <c r="D599">
         <v>3</v>
       </c>
     </row>
@@ -9558,7 +9584,7 @@
       <c r="C600" t="s">
         <v>10</v>
       </c>
-      <c r="D600" s="7">
+      <c r="D600">
         <v>3</v>
       </c>
     </row>
@@ -9589,7 +9615,7 @@
       <c r="C602" t="s">
         <v>7</v>
       </c>
-      <c r="D602" s="7">
+      <c r="D602">
         <v>5</v>
       </c>
     </row>
@@ -9603,7 +9629,7 @@
       <c r="C603" t="s">
         <v>8</v>
       </c>
-      <c r="D603" s="7">
+      <c r="D603">
         <v>4</v>
       </c>
     </row>
@@ -9617,7 +9643,7 @@
       <c r="C604" t="s">
         <v>9</v>
       </c>
-      <c r="D604" s="7">
+      <c r="D604">
         <v>2</v>
       </c>
     </row>
@@ -9631,7 +9657,7 @@
       <c r="C605" t="s">
         <v>10</v>
       </c>
-      <c r="D605" s="7">
+      <c r="D605">
         <v>2</v>
       </c>
     </row>
@@ -9662,7 +9688,7 @@
       <c r="C607" t="s">
         <v>7</v>
       </c>
-      <c r="D607" s="7">
+      <c r="D607">
         <v>3</v>
       </c>
     </row>
@@ -9676,7 +9702,7 @@
       <c r="C608" t="s">
         <v>8</v>
       </c>
-      <c r="D608" s="7">
+      <c r="D608">
         <v>4</v>
       </c>
     </row>
@@ -9690,7 +9716,7 @@
       <c r="C609" t="s">
         <v>9</v>
       </c>
-      <c r="D609" s="7">
+      <c r="D609">
         <v>4</v>
       </c>
     </row>
@@ -9704,7 +9730,7 @@
       <c r="C610" t="s">
         <v>10</v>
       </c>
-      <c r="D610" s="7">
+      <c r="D610">
         <v>3</v>
       </c>
     </row>
@@ -9735,7 +9761,7 @@
       <c r="C612" t="s">
         <v>7</v>
       </c>
-      <c r="D612" s="7">
+      <c r="D612">
         <v>2</v>
       </c>
     </row>
@@ -9749,7 +9775,7 @@
       <c r="C613" t="s">
         <v>8</v>
       </c>
-      <c r="D613" s="7">
+      <c r="D613">
         <v>5</v>
       </c>
     </row>
@@ -9763,7 +9789,7 @@
       <c r="C614" t="s">
         <v>9</v>
       </c>
-      <c r="D614" s="7">
+      <c r="D614">
         <v>3</v>
       </c>
     </row>
@@ -9777,7 +9803,7 @@
       <c r="C615" t="s">
         <v>10</v>
       </c>
-      <c r="D615" s="7">
+      <c r="D615">
         <v>3</v>
       </c>
     </row>
@@ -9808,7 +9834,7 @@
       <c r="C617" t="s">
         <v>7</v>
       </c>
-      <c r="D617" s="7">
+      <c r="D617">
         <v>3</v>
       </c>
     </row>
@@ -9822,7 +9848,7 @@
       <c r="C618" t="s">
         <v>8</v>
       </c>
-      <c r="D618" s="7">
+      <c r="D618">
         <v>4</v>
       </c>
     </row>
@@ -9836,7 +9862,7 @@
       <c r="C619" t="s">
         <v>9</v>
       </c>
-      <c r="D619" s="7">
+      <c r="D619">
         <v>3</v>
       </c>
     </row>
@@ -9850,7 +9876,7 @@
       <c r="C620" t="s">
         <v>10</v>
       </c>
-      <c r="D620" s="7">
+      <c r="D620">
         <v>3</v>
       </c>
     </row>
@@ -9881,7 +9907,7 @@
       <c r="C622" t="s">
         <v>7</v>
       </c>
-      <c r="D622" s="7">
+      <c r="D622">
         <v>2</v>
       </c>
     </row>
@@ -9895,7 +9921,7 @@
       <c r="C623" t="s">
         <v>8</v>
       </c>
-      <c r="D623" s="7">
+      <c r="D623">
         <v>2</v>
       </c>
     </row>
@@ -9909,7 +9935,7 @@
       <c r="C624" t="s">
         <v>9</v>
       </c>
-      <c r="D624" s="7">
+      <c r="D624">
         <v>2</v>
       </c>
     </row>
@@ -9923,7 +9949,7 @@
       <c r="C625" t="s">
         <v>10</v>
       </c>
-      <c r="D625" s="7">
+      <c r="D625">
         <v>4</v>
       </c>
     </row>
@@ -9954,7 +9980,7 @@
       <c r="C627" t="s">
         <v>7</v>
       </c>
-      <c r="D627" s="7">
+      <c r="D627">
         <v>3</v>
       </c>
     </row>
@@ -9968,7 +9994,7 @@
       <c r="C628" t="s">
         <v>8</v>
       </c>
-      <c r="D628" s="7">
+      <c r="D628">
         <v>3</v>
       </c>
     </row>
@@ -9982,7 +10008,7 @@
       <c r="C629" t="s">
         <v>9</v>
       </c>
-      <c r="D629" s="7">
+      <c r="D629">
         <v>2</v>
       </c>
     </row>
@@ -9996,7 +10022,7 @@
       <c r="C630" t="s">
         <v>10</v>
       </c>
-      <c r="D630" s="7">
+      <c r="D630">
         <v>3</v>
       </c>
     </row>
@@ -10027,7 +10053,7 @@
       <c r="C632" t="s">
         <v>7</v>
       </c>
-      <c r="D632" s="7">
+      <c r="D632">
         <v>3</v>
       </c>
     </row>
@@ -10041,7 +10067,7 @@
       <c r="C633" t="s">
         <v>8</v>
       </c>
-      <c r="D633" s="7">
+      <c r="D633">
         <v>5</v>
       </c>
     </row>
@@ -10055,7 +10081,7 @@
       <c r="C634" t="s">
         <v>9</v>
       </c>
-      <c r="D634" s="7">
+      <c r="D634">
         <v>3</v>
       </c>
     </row>
@@ -10069,7 +10095,7 @@
       <c r="C635" t="s">
         <v>10</v>
       </c>
-      <c r="D635" s="7">
+      <c r="D635">
         <v>4</v>
       </c>
     </row>
@@ -10100,7 +10126,7 @@
       <c r="C637" t="s">
         <v>7</v>
       </c>
-      <c r="D637" s="7">
+      <c r="D637">
         <v>5</v>
       </c>
     </row>
@@ -10114,7 +10140,7 @@
       <c r="C638" t="s">
         <v>8</v>
       </c>
-      <c r="D638" s="7">
+      <c r="D638">
         <v>4</v>
       </c>
     </row>
@@ -10128,7 +10154,7 @@
       <c r="C639" t="s">
         <v>9</v>
       </c>
-      <c r="D639" s="7">
+      <c r="D639">
         <v>4</v>
       </c>
     </row>
@@ -10142,7 +10168,7 @@
       <c r="C640" t="s">
         <v>10</v>
       </c>
-      <c r="D640" s="7">
+      <c r="D640">
         <v>4</v>
       </c>
     </row>
@@ -10173,7 +10199,7 @@
       <c r="C642" t="s">
         <v>7</v>
       </c>
-      <c r="D642" s="7">
+      <c r="D642">
         <v>3</v>
       </c>
     </row>
@@ -10187,7 +10213,7 @@
       <c r="C643" t="s">
         <v>8</v>
       </c>
-      <c r="D643" s="7">
+      <c r="D643">
         <v>4</v>
       </c>
     </row>
@@ -10201,7 +10227,7 @@
       <c r="C644" t="s">
         <v>9</v>
       </c>
-      <c r="D644" s="7">
+      <c r="D644">
         <v>4</v>
       </c>
     </row>
@@ -10215,7 +10241,7 @@
       <c r="C645" t="s">
         <v>10</v>
       </c>
-      <c r="D645" s="7">
+      <c r="D645">
         <v>2</v>
       </c>
     </row>
@@ -10246,7 +10272,7 @@
       <c r="C647" t="s">
         <v>7</v>
       </c>
-      <c r="D647" s="7">
+      <c r="D647">
         <v>5</v>
       </c>
     </row>
@@ -10260,7 +10286,7 @@
       <c r="C648" t="s">
         <v>8</v>
       </c>
-      <c r="D648" s="7">
+      <c r="D648">
         <v>5</v>
       </c>
     </row>
@@ -10274,7 +10300,7 @@
       <c r="C649" t="s">
         <v>9</v>
       </c>
-      <c r="D649" s="7">
+      <c r="D649">
         <v>2</v>
       </c>
     </row>
@@ -10288,7 +10314,7 @@
       <c r="C650" t="s">
         <v>10</v>
       </c>
-      <c r="D650" s="7">
+      <c r="D650">
         <v>5</v>
       </c>
     </row>
@@ -10319,7 +10345,7 @@
       <c r="C652" t="s">
         <v>7</v>
       </c>
-      <c r="D652" s="7">
+      <c r="D652">
         <v>5</v>
       </c>
     </row>
@@ -10333,7 +10359,7 @@
       <c r="C653" t="s">
         <v>8</v>
       </c>
-      <c r="D653" s="7">
+      <c r="D653">
         <v>3</v>
       </c>
     </row>
@@ -10347,7 +10373,7 @@
       <c r="C654" t="s">
         <v>9</v>
       </c>
-      <c r="D654" s="7">
+      <c r="D654">
         <v>4</v>
       </c>
     </row>
@@ -10361,7 +10387,7 @@
       <c r="C655" t="s">
         <v>10</v>
       </c>
-      <c r="D655" s="7">
+      <c r="D655">
         <v>4</v>
       </c>
     </row>
@@ -10392,7 +10418,7 @@
       <c r="C657" t="s">
         <v>7</v>
       </c>
-      <c r="D657" s="7">
+      <c r="D657">
         <v>5</v>
       </c>
     </row>
@@ -10406,7 +10432,7 @@
       <c r="C658" t="s">
         <v>8</v>
       </c>
-      <c r="D658" s="7">
+      <c r="D658">
         <v>4</v>
       </c>
     </row>
@@ -10420,7 +10446,7 @@
       <c r="C659" t="s">
         <v>9</v>
       </c>
-      <c r="D659" s="7">
+      <c r="D659">
         <v>4</v>
       </c>
     </row>
@@ -10434,7 +10460,7 @@
       <c r="C660" t="s">
         <v>10</v>
       </c>
-      <c r="D660" s="7">
+      <c r="D660">
         <v>3</v>
       </c>
     </row>
@@ -10465,7 +10491,7 @@
       <c r="C662" t="s">
         <v>7</v>
       </c>
-      <c r="D662" s="7">
+      <c r="D662">
         <v>4</v>
       </c>
     </row>
@@ -10479,7 +10505,7 @@
       <c r="C663" t="s">
         <v>8</v>
       </c>
-      <c r="D663" s="7">
+      <c r="D663">
         <v>5</v>
       </c>
     </row>
@@ -10493,7 +10519,7 @@
       <c r="C664" t="s">
         <v>9</v>
       </c>
-      <c r="D664" s="7">
+      <c r="D664">
         <v>5</v>
       </c>
     </row>
@@ -10507,7 +10533,7 @@
       <c r="C665" t="s">
         <v>10</v>
       </c>
-      <c r="D665" s="7">
+      <c r="D665">
         <v>5</v>
       </c>
     </row>
@@ -10538,7 +10564,7 @@
       <c r="C667" t="s">
         <v>7</v>
       </c>
-      <c r="D667" s="7">
+      <c r="D667">
         <v>4</v>
       </c>
     </row>
@@ -10552,7 +10578,7 @@
       <c r="C668" t="s">
         <v>8</v>
       </c>
-      <c r="D668" s="7">
+      <c r="D668">
         <v>3</v>
       </c>
     </row>
@@ -10566,7 +10592,7 @@
       <c r="C669" t="s">
         <v>9</v>
       </c>
-      <c r="D669" s="7">
+      <c r="D669">
         <v>2</v>
       </c>
     </row>
@@ -10580,7 +10606,7 @@
       <c r="C670" t="s">
         <v>10</v>
       </c>
-      <c r="D670" s="7">
+      <c r="D670">
         <v>3</v>
       </c>
     </row>
@@ -10611,7 +10637,7 @@
       <c r="C672" t="s">
         <v>7</v>
       </c>
-      <c r="D672" s="7">
+      <c r="D672">
         <v>5</v>
       </c>
     </row>
@@ -10625,7 +10651,7 @@
       <c r="C673" t="s">
         <v>8</v>
       </c>
-      <c r="D673" s="7">
+      <c r="D673">
         <v>4</v>
       </c>
     </row>
@@ -10639,7 +10665,7 @@
       <c r="C674" t="s">
         <v>9</v>
       </c>
-      <c r="D674" s="7">
+      <c r="D674">
         <v>2</v>
       </c>
     </row>
@@ -10653,7 +10679,7 @@
       <c r="C675" t="s">
         <v>10</v>
       </c>
-      <c r="D675" s="7">
+      <c r="D675">
         <v>3</v>
       </c>
     </row>
@@ -10684,7 +10710,7 @@
       <c r="C677" t="s">
         <v>7</v>
       </c>
-      <c r="D677" s="7">
+      <c r="D677">
         <v>5</v>
       </c>
     </row>
@@ -10698,7 +10724,7 @@
       <c r="C678" t="s">
         <v>8</v>
       </c>
-      <c r="D678" s="7">
+      <c r="D678">
         <v>3</v>
       </c>
     </row>
@@ -10712,7 +10738,7 @@
       <c r="C679" t="s">
         <v>9</v>
       </c>
-      <c r="D679" s="7">
+      <c r="D679">
         <v>4</v>
       </c>
     </row>
@@ -10726,7 +10752,7 @@
       <c r="C680" t="s">
         <v>10</v>
       </c>
-      <c r="D680" s="7">
+      <c r="D680">
         <v>4</v>
       </c>
     </row>
@@ -10757,7 +10783,7 @@
       <c r="C682" t="s">
         <v>7</v>
       </c>
-      <c r="D682" s="7">
+      <c r="D682">
         <v>4</v>
       </c>
     </row>
@@ -10771,7 +10797,7 @@
       <c r="C683" t="s">
         <v>8</v>
       </c>
-      <c r="D683" s="7">
+      <c r="D683">
         <v>3</v>
       </c>
     </row>
@@ -10785,7 +10811,7 @@
       <c r="C684" t="s">
         <v>9</v>
       </c>
-      <c r="D684" s="7">
+      <c r="D684">
         <v>2</v>
       </c>
     </row>
@@ -10799,7 +10825,7 @@
       <c r="C685" t="s">
         <v>10</v>
       </c>
-      <c r="D685" s="7">
+      <c r="D685">
         <v>5</v>
       </c>
     </row>
@@ -10830,7 +10856,7 @@
       <c r="C687" t="s">
         <v>7</v>
       </c>
-      <c r="D687" s="7">
+      <c r="D687">
         <v>4</v>
       </c>
     </row>
@@ -10844,7 +10870,7 @@
       <c r="C688" t="s">
         <v>8</v>
       </c>
-      <c r="D688" s="7">
+      <c r="D688">
         <v>3</v>
       </c>
     </row>
@@ -10858,7 +10884,7 @@
       <c r="C689" t="s">
         <v>9</v>
       </c>
-      <c r="D689" s="7">
+      <c r="D689">
         <v>1</v>
       </c>
     </row>
@@ -10872,7 +10898,7 @@
       <c r="C690" t="s">
         <v>10</v>
       </c>
-      <c r="D690" s="7">
+      <c r="D690">
         <v>4</v>
       </c>
     </row>
@@ -10903,7 +10929,7 @@
       <c r="C692" t="s">
         <v>7</v>
       </c>
-      <c r="D692" s="7">
+      <c r="D692">
         <v>3</v>
       </c>
     </row>
@@ -10917,7 +10943,7 @@
       <c r="C693" t="s">
         <v>8</v>
       </c>
-      <c r="D693" s="7">
+      <c r="D693">
         <v>4</v>
       </c>
     </row>
@@ -10931,7 +10957,7 @@
       <c r="C694" t="s">
         <v>9</v>
       </c>
-      <c r="D694" s="7">
+      <c r="D694">
         <v>3</v>
       </c>
     </row>
@@ -10945,7 +10971,7 @@
       <c r="C695" t="s">
         <v>10</v>
       </c>
-      <c r="D695" s="7">
+      <c r="D695">
         <v>4</v>
       </c>
     </row>
@@ -10976,7 +11002,7 @@
       <c r="C697" t="s">
         <v>7</v>
       </c>
-      <c r="D697" s="7">
+      <c r="D697">
         <v>2</v>
       </c>
     </row>
@@ -10990,7 +11016,7 @@
       <c r="C698" t="s">
         <v>8</v>
       </c>
-      <c r="D698" s="7">
+      <c r="D698">
         <v>4</v>
       </c>
     </row>
@@ -11004,7 +11030,7 @@
       <c r="C699" t="s">
         <v>9</v>
       </c>
-      <c r="D699" s="7">
+      <c r="D699">
         <v>2</v>
       </c>
     </row>
@@ -11018,7 +11044,7 @@
       <c r="C700" t="s">
         <v>10</v>
       </c>
-      <c r="D700" s="7">
+      <c r="D700">
         <v>4</v>
       </c>
     </row>
@@ -11049,7 +11075,7 @@
       <c r="C702" t="s">
         <v>7</v>
       </c>
-      <c r="D702" s="7">
+      <c r="D702">
         <v>5</v>
       </c>
     </row>
@@ -11063,7 +11089,7 @@
       <c r="C703" t="s">
         <v>8</v>
       </c>
-      <c r="D703" s="7">
+      <c r="D703">
         <v>2</v>
       </c>
     </row>
@@ -11077,7 +11103,7 @@
       <c r="C704" t="s">
         <v>9</v>
       </c>
-      <c r="D704" s="7">
+      <c r="D704">
         <v>3</v>
       </c>
     </row>
@@ -11091,7 +11117,7 @@
       <c r="C705" t="s">
         <v>10</v>
       </c>
-      <c r="D705" s="7">
+      <c r="D705">
         <v>3</v>
       </c>
     </row>
@@ -11122,7 +11148,7 @@
       <c r="C707" t="s">
         <v>7</v>
       </c>
-      <c r="D707" s="7">
+      <c r="D707">
         <v>5</v>
       </c>
     </row>
@@ -11136,7 +11162,7 @@
       <c r="C708" t="s">
         <v>8</v>
       </c>
-      <c r="D708" s="7">
+      <c r="D708">
         <v>4</v>
       </c>
     </row>
@@ -11150,7 +11176,7 @@
       <c r="C709" t="s">
         <v>9</v>
       </c>
-      <c r="D709" s="7">
+      <c r="D709">
         <v>3</v>
       </c>
     </row>
@@ -11164,7 +11190,7 @@
       <c r="C710" t="s">
         <v>10</v>
       </c>
-      <c r="D710" s="7">
+      <c r="D710">
         <v>5</v>
       </c>
     </row>
@@ -11195,7 +11221,7 @@
       <c r="C712" t="s">
         <v>7</v>
       </c>
-      <c r="D712" s="7">
+      <c r="D712">
         <v>5</v>
       </c>
     </row>
@@ -11209,7 +11235,7 @@
       <c r="C713" t="s">
         <v>8</v>
       </c>
-      <c r="D713" s="7">
+      <c r="D713">
         <v>4</v>
       </c>
     </row>
@@ -11223,7 +11249,7 @@
       <c r="C714" t="s">
         <v>9</v>
       </c>
-      <c r="D714" s="7">
+      <c r="D714">
         <v>2</v>
       </c>
     </row>
@@ -11237,7 +11263,7 @@
       <c r="C715" t="s">
         <v>10</v>
       </c>
-      <c r="D715" s="7">
+      <c r="D715">
         <v>4</v>
       </c>
     </row>
@@ -11268,7 +11294,7 @@
       <c r="C717" t="s">
         <v>7</v>
       </c>
-      <c r="D717" s="7">
+      <c r="D717">
         <v>5</v>
       </c>
     </row>
@@ -11282,7 +11308,7 @@
       <c r="C718" t="s">
         <v>8</v>
       </c>
-      <c r="D718" s="7">
+      <c r="D718">
         <v>4</v>
       </c>
     </row>
@@ -11296,7 +11322,7 @@
       <c r="C719" t="s">
         <v>9</v>
       </c>
-      <c r="D719" s="7">
+      <c r="D719">
         <v>3</v>
       </c>
     </row>
@@ -11310,7 +11336,7 @@
       <c r="C720" t="s">
         <v>10</v>
       </c>
-      <c r="D720" s="7">
+      <c r="D720">
         <v>1</v>
       </c>
     </row>
@@ -11341,7 +11367,7 @@
       <c r="C722" t="s">
         <v>7</v>
       </c>
-      <c r="D722" s="7">
+      <c r="D722">
         <v>3</v>
       </c>
     </row>
@@ -11355,7 +11381,7 @@
       <c r="C723" t="s">
         <v>8</v>
       </c>
-      <c r="D723" s="7">
+      <c r="D723">
         <v>5</v>
       </c>
     </row>
@@ -11369,7 +11395,7 @@
       <c r="C724" t="s">
         <v>9</v>
       </c>
-      <c r="D724" s="7">
+      <c r="D724">
         <v>4</v>
       </c>
     </row>
@@ -11383,7 +11409,7 @@
       <c r="C725" t="s">
         <v>10</v>
       </c>
-      <c r="D725" s="7">
+      <c r="D725">
         <v>3</v>
       </c>
     </row>
@@ -11414,7 +11440,7 @@
       <c r="C727" t="s">
         <v>7</v>
       </c>
-      <c r="D727" s="7">
+      <c r="D727">
         <v>3</v>
       </c>
     </row>
@@ -11428,7 +11454,7 @@
       <c r="C728" t="s">
         <v>8</v>
       </c>
-      <c r="D728" s="7">
+      <c r="D728">
         <v>5</v>
       </c>
     </row>
@@ -11442,7 +11468,7 @@
       <c r="C729" t="s">
         <v>9</v>
       </c>
-      <c r="D729" s="7">
+      <c r="D729">
         <v>4</v>
       </c>
     </row>
@@ -11456,7 +11482,7 @@
       <c r="C730" t="s">
         <v>10</v>
       </c>
-      <c r="D730" s="7">
+      <c r="D730">
         <v>3</v>
       </c>
     </row>
@@ -11487,7 +11513,7 @@
       <c r="C732" t="s">
         <v>7</v>
       </c>
-      <c r="D732" s="7">
+      <c r="D732">
         <v>3</v>
       </c>
     </row>
@@ -11501,7 +11527,7 @@
       <c r="C733" t="s">
         <v>8</v>
       </c>
-      <c r="D733" s="7">
+      <c r="D733">
         <v>5</v>
       </c>
     </row>
@@ -11515,7 +11541,7 @@
       <c r="C734" t="s">
         <v>9</v>
       </c>
-      <c r="D734" s="7">
+      <c r="D734">
         <v>3</v>
       </c>
     </row>
@@ -11529,7 +11555,7 @@
       <c r="C735" t="s">
         <v>10</v>
       </c>
-      <c r="D735" s="7">
+      <c r="D735">
         <v>3</v>
       </c>
     </row>
@@ -11560,7 +11586,7 @@
       <c r="C737" t="s">
         <v>7</v>
       </c>
-      <c r="D737" s="7">
+      <c r="D737">
         <v>3</v>
       </c>
     </row>
@@ -11574,7 +11600,7 @@
       <c r="C738" t="s">
         <v>8</v>
       </c>
-      <c r="D738" s="7">
+      <c r="D738">
         <v>3</v>
       </c>
     </row>
@@ -11588,7 +11614,7 @@
       <c r="C739" t="s">
         <v>9</v>
       </c>
-      <c r="D739" s="7">
+      <c r="D739">
         <v>3</v>
       </c>
     </row>
@@ -11602,7 +11628,7 @@
       <c r="C740" t="s">
         <v>10</v>
       </c>
-      <c r="D740" s="7">
+      <c r="D740">
         <v>3</v>
       </c>
     </row>
@@ -11633,7 +11659,7 @@
       <c r="C742" t="s">
         <v>7</v>
       </c>
-      <c r="D742" s="7">
+      <c r="D742">
         <v>3</v>
       </c>
     </row>
@@ -11647,7 +11673,7 @@
       <c r="C743" t="s">
         <v>8</v>
       </c>
-      <c r="D743" s="7">
+      <c r="D743">
         <v>3</v>
       </c>
     </row>
@@ -11661,7 +11687,7 @@
       <c r="C744" t="s">
         <v>9</v>
       </c>
-      <c r="D744" s="7">
+      <c r="D744">
         <v>4</v>
       </c>
     </row>
@@ -11675,7 +11701,7 @@
       <c r="C745" t="s">
         <v>10</v>
       </c>
-      <c r="D745" s="7">
+      <c r="D745">
         <v>3</v>
       </c>
     </row>
@@ -11706,7 +11732,7 @@
       <c r="C747" t="s">
         <v>7</v>
       </c>
-      <c r="D747" s="7">
+      <c r="D747">
         <v>3</v>
       </c>
     </row>
@@ -11720,7 +11746,7 @@
       <c r="C748" t="s">
         <v>8</v>
       </c>
-      <c r="D748" s="7">
+      <c r="D748">
         <v>4</v>
       </c>
     </row>
@@ -11734,7 +11760,7 @@
       <c r="C749" t="s">
         <v>9</v>
       </c>
-      <c r="D749" s="7">
+      <c r="D749">
         <v>3</v>
       </c>
     </row>
@@ -11748,7 +11774,7 @@
       <c r="C750" t="s">
         <v>10</v>
       </c>
-      <c r="D750" s="7">
+      <c r="D750">
         <v>3</v>
       </c>
     </row>
@@ -11779,7 +11805,7 @@
       <c r="C752" t="s">
         <v>7</v>
       </c>
-      <c r="D752" s="7">
+      <c r="D752">
         <v>2</v>
       </c>
     </row>
@@ -11793,7 +11819,7 @@
       <c r="C753" t="s">
         <v>8</v>
       </c>
-      <c r="D753" s="7">
+      <c r="D753">
         <v>5</v>
       </c>
     </row>
@@ -11807,7 +11833,7 @@
       <c r="C754" t="s">
         <v>9</v>
       </c>
-      <c r="D754" s="7">
+      <c r="D754">
         <v>5</v>
       </c>
     </row>
@@ -11821,7 +11847,7 @@
       <c r="C755" t="s">
         <v>10</v>
       </c>
-      <c r="D755" s="7">
+      <c r="D755">
         <v>4</v>
       </c>
     </row>
@@ -11852,7 +11878,7 @@
       <c r="C757" t="s">
         <v>7</v>
       </c>
-      <c r="D757" s="7">
+      <c r="D757">
         <v>3</v>
       </c>
     </row>
@@ -11866,7 +11892,7 @@
       <c r="C758" t="s">
         <v>8</v>
       </c>
-      <c r="D758" s="7">
+      <c r="D758">
         <v>5</v>
       </c>
     </row>
@@ -11880,7 +11906,7 @@
       <c r="C759" t="s">
         <v>9</v>
       </c>
-      <c r="D759" s="7">
+      <c r="D759">
         <v>5</v>
       </c>
     </row>
@@ -11894,7 +11920,7 @@
       <c r="C760" t="s">
         <v>10</v>
       </c>
-      <c r="D760" s="7">
+      <c r="D760">
         <v>3</v>
       </c>
     </row>
@@ -11925,7 +11951,7 @@
       <c r="C762" t="s">
         <v>7</v>
       </c>
-      <c r="D762" s="7">
+      <c r="D762">
         <v>3</v>
       </c>
     </row>
@@ -11939,7 +11965,7 @@
       <c r="C763" t="s">
         <v>8</v>
       </c>
-      <c r="D763" s="7">
+      <c r="D763">
         <v>5</v>
       </c>
     </row>
@@ -11953,7 +11979,7 @@
       <c r="C764" t="s">
         <v>9</v>
       </c>
-      <c r="D764" s="7">
+      <c r="D764">
         <v>5</v>
       </c>
     </row>
@@ -11967,7 +11993,7 @@
       <c r="C765" t="s">
         <v>10</v>
       </c>
-      <c r="D765" s="7">
+      <c r="D765">
         <v>3</v>
       </c>
     </row>
@@ -11998,7 +12024,7 @@
       <c r="C767" t="s">
         <v>7</v>
       </c>
-      <c r="D767" s="7">
+      <c r="D767">
         <v>2</v>
       </c>
     </row>
@@ -12012,7 +12038,7 @@
       <c r="C768" t="s">
         <v>8</v>
       </c>
-      <c r="D768" s="7">
+      <c r="D768">
         <v>3</v>
       </c>
     </row>
@@ -12026,7 +12052,7 @@
       <c r="C769" t="s">
         <v>9</v>
       </c>
-      <c r="D769" s="7">
+      <c r="D769">
         <v>2</v>
       </c>
     </row>
@@ -12040,7 +12066,7 @@
       <c r="C770" t="s">
         <v>10</v>
       </c>
-      <c r="D770" s="7">
+      <c r="D770">
         <v>4</v>
       </c>
     </row>
@@ -12071,7 +12097,7 @@
       <c r="C772" t="s">
         <v>7</v>
       </c>
-      <c r="D772" s="7">
+      <c r="D772">
         <v>2</v>
       </c>
     </row>
@@ -12085,7 +12111,7 @@
       <c r="C773" t="s">
         <v>8</v>
       </c>
-      <c r="D773" s="7">
+      <c r="D773">
         <v>2</v>
       </c>
     </row>
@@ -12099,7 +12125,7 @@
       <c r="C774" t="s">
         <v>9</v>
       </c>
-      <c r="D774" s="7">
+      <c r="D774">
         <v>1</v>
       </c>
     </row>
@@ -12113,7 +12139,7 @@
       <c r="C775" t="s">
         <v>10</v>
       </c>
-      <c r="D775" s="7">
+      <c r="D775">
         <v>2</v>
       </c>
     </row>
@@ -12144,7 +12170,7 @@
       <c r="C777" t="s">
         <v>7</v>
       </c>
-      <c r="D777" s="7">
+      <c r="D777">
         <v>3</v>
       </c>
     </row>
@@ -12158,7 +12184,7 @@
       <c r="C778" t="s">
         <v>8</v>
       </c>
-      <c r="D778" s="7">
+      <c r="D778">
         <v>4</v>
       </c>
     </row>
@@ -12172,7 +12198,7 @@
       <c r="C779" t="s">
         <v>9</v>
       </c>
-      <c r="D779" s="7">
+      <c r="D779">
         <v>1</v>
       </c>
     </row>
@@ -12186,7 +12212,7 @@
       <c r="C780" t="s">
         <v>10</v>
       </c>
-      <c r="D780" s="7">
+      <c r="D780">
         <v>3</v>
       </c>
     </row>
@@ -12217,7 +12243,7 @@
       <c r="C782" t="s">
         <v>7</v>
       </c>
-      <c r="D782" s="7">
+      <c r="D782">
         <v>4</v>
       </c>
     </row>
@@ -12231,7 +12257,7 @@
       <c r="C783" t="s">
         <v>8</v>
       </c>
-      <c r="D783" s="7">
+      <c r="D783">
         <v>5</v>
       </c>
     </row>
@@ -12290,7 +12316,7 @@
       <c r="C787" t="s">
         <v>7</v>
       </c>
-      <c r="D787" s="7">
+      <c r="D787">
         <v>3</v>
       </c>
     </row>
@@ -12304,7 +12330,7 @@
       <c r="C788" t="s">
         <v>8</v>
       </c>
-      <c r="D788" s="7">
+      <c r="D788">
         <v>4</v>
       </c>
     </row>
@@ -12318,7 +12344,7 @@
       <c r="C789" t="s">
         <v>9</v>
       </c>
-      <c r="D789" s="7">
+      <c r="D789">
         <v>3</v>
       </c>
     </row>
@@ -12332,7 +12358,7 @@
       <c r="C790" t="s">
         <v>10</v>
       </c>
-      <c r="D790" s="7">
+      <c r="D790">
         <v>4</v>
       </c>
     </row>
@@ -12363,7 +12389,7 @@
       <c r="C792" t="s">
         <v>7</v>
       </c>
-      <c r="D792" s="7">
+      <c r="D792">
         <v>3</v>
       </c>
     </row>
@@ -12377,7 +12403,7 @@
       <c r="C793" t="s">
         <v>8</v>
       </c>
-      <c r="D793" s="7">
+      <c r="D793">
         <v>3</v>
       </c>
     </row>
@@ -12391,7 +12417,7 @@
       <c r="C794" t="s">
         <v>9</v>
       </c>
-      <c r="D794" s="7">
+      <c r="D794">
         <v>4</v>
       </c>
     </row>
@@ -12405,7 +12431,7 @@
       <c r="C795" t="s">
         <v>10</v>
       </c>
-      <c r="D795" s="7">
+      <c r="D795">
         <v>2</v>
       </c>
     </row>
@@ -12436,7 +12462,7 @@
       <c r="C797" t="s">
         <v>7</v>
       </c>
-      <c r="D797" s="7">
+      <c r="D797">
         <v>5</v>
       </c>
     </row>
@@ -12450,7 +12476,7 @@
       <c r="C798" t="s">
         <v>8</v>
       </c>
-      <c r="D798" s="7">
+      <c r="D798">
         <v>3</v>
       </c>
     </row>
@@ -12464,7 +12490,7 @@
       <c r="C799" t="s">
         <v>9</v>
       </c>
-      <c r="D799" s="7">
+      <c r="D799">
         <v>3</v>
       </c>
     </row>
@@ -12478,7 +12504,7 @@
       <c r="C800" t="s">
         <v>10</v>
       </c>
-      <c r="D800" s="7">
+      <c r="D800">
         <v>3</v>
       </c>
     </row>
@@ -12509,7 +12535,7 @@
       <c r="C802" t="s">
         <v>7</v>
       </c>
-      <c r="D802" s="7">
+      <c r="D802">
         <v>5</v>
       </c>
     </row>
@@ -12523,7 +12549,7 @@
       <c r="C803" t="s">
         <v>8</v>
       </c>
-      <c r="D803" s="7">
+      <c r="D803">
         <v>4</v>
       </c>
     </row>
@@ -12537,7 +12563,7 @@
       <c r="C804" t="s">
         <v>9</v>
       </c>
-      <c r="D804" s="7">
+      <c r="D804">
         <v>3</v>
       </c>
     </row>
@@ -12551,7 +12577,7 @@
       <c r="C805" t="s">
         <v>10</v>
       </c>
-      <c r="D805" s="7">
+      <c r="D805">
         <v>3</v>
       </c>
     </row>
@@ -12582,7 +12608,7 @@
       <c r="C807" t="s">
         <v>7</v>
       </c>
-      <c r="D807" s="7">
+      <c r="D807">
         <v>5</v>
       </c>
     </row>
@@ -12596,7 +12622,7 @@
       <c r="C808" t="s">
         <v>8</v>
       </c>
-      <c r="D808" s="7">
+      <c r="D808">
         <v>5</v>
       </c>
     </row>
@@ -12610,7 +12636,7 @@
       <c r="C809" t="s">
         <v>9</v>
       </c>
-      <c r="D809" s="7">
+      <c r="D809">
         <v>3</v>
       </c>
     </row>
@@ -12624,7 +12650,7 @@
       <c r="C810" t="s">
         <v>10</v>
       </c>
-      <c r="D810" s="7">
+      <c r="D810">
         <v>2</v>
       </c>
     </row>
@@ -12655,7 +12681,7 @@
       <c r="C812" t="s">
         <v>7</v>
       </c>
-      <c r="D812" s="7">
+      <c r="D812">
         <v>5</v>
       </c>
     </row>
@@ -12669,7 +12695,7 @@
       <c r="C813" t="s">
         <v>8</v>
       </c>
-      <c r="D813" s="7">
+      <c r="D813">
         <v>4</v>
       </c>
     </row>
@@ -12683,7 +12709,7 @@
       <c r="C814" t="s">
         <v>9</v>
       </c>
-      <c r="D814" s="7">
+      <c r="D814">
         <v>5</v>
       </c>
     </row>
@@ -12697,7 +12723,7 @@
       <c r="C815" t="s">
         <v>10</v>
       </c>
-      <c r="D815" s="7">
+      <c r="D815">
         <v>3</v>
       </c>
     </row>
@@ -12728,7 +12754,7 @@
       <c r="C817" t="s">
         <v>7</v>
       </c>
-      <c r="D817" s="7">
+      <c r="D817">
         <v>5</v>
       </c>
     </row>
@@ -12742,7 +12768,7 @@
       <c r="C818" t="s">
         <v>8</v>
       </c>
-      <c r="D818" s="7">
+      <c r="D818">
         <v>4</v>
       </c>
     </row>
@@ -12756,7 +12782,7 @@
       <c r="C819" t="s">
         <v>9</v>
       </c>
-      <c r="D819" s="7">
+      <c r="D819">
         <v>3</v>
       </c>
     </row>
@@ -12770,7 +12796,7 @@
       <c r="C820" t="s">
         <v>10</v>
       </c>
-      <c r="D820" s="7">
+      <c r="D820">
         <v>3</v>
       </c>
     </row>
@@ -12801,7 +12827,7 @@
       <c r="C822" t="s">
         <v>7</v>
       </c>
-      <c r="D822" s="7">
+      <c r="D822">
         <v>3</v>
       </c>
     </row>
@@ -12815,7 +12841,7 @@
       <c r="C823" t="s">
         <v>8</v>
       </c>
-      <c r="D823" s="7">
+      <c r="D823">
         <v>3</v>
       </c>
     </row>
@@ -12829,7 +12855,7 @@
       <c r="C824" t="s">
         <v>9</v>
       </c>
-      <c r="D824" s="7">
+      <c r="D824">
         <v>3</v>
       </c>
     </row>
@@ -12843,7 +12869,7 @@
       <c r="C825" t="s">
         <v>10</v>
       </c>
-      <c r="D825" s="7">
+      <c r="D825">
         <v>3</v>
       </c>
     </row>
@@ -12874,7 +12900,7 @@
       <c r="C827" t="s">
         <v>7</v>
       </c>
-      <c r="D827" s="7">
+      <c r="D827">
         <v>5</v>
       </c>
     </row>
@@ -12888,7 +12914,7 @@
       <c r="C828" t="s">
         <v>8</v>
       </c>
-      <c r="D828" s="7">
+      <c r="D828">
         <v>5</v>
       </c>
     </row>
@@ -12902,7 +12928,7 @@
       <c r="C829" t="s">
         <v>9</v>
       </c>
-      <c r="D829" s="7">
+      <c r="D829">
         <v>3</v>
       </c>
     </row>
@@ -12916,7 +12942,7 @@
       <c r="C830" t="s">
         <v>10</v>
       </c>
-      <c r="D830" s="7">
+      <c r="D830">
         <v>4</v>
       </c>
     </row>
@@ -12947,7 +12973,7 @@
       <c r="C832" t="s">
         <v>7</v>
       </c>
-      <c r="D832" s="7">
+      <c r="D832">
         <v>5</v>
       </c>
     </row>
@@ -12961,7 +12987,7 @@
       <c r="C833" t="s">
         <v>8</v>
       </c>
-      <c r="D833" s="7">
+      <c r="D833">
         <v>3</v>
       </c>
     </row>
@@ -12975,7 +13001,7 @@
       <c r="C834" t="s">
         <v>9</v>
       </c>
-      <c r="D834" s="7">
+      <c r="D834">
         <v>4</v>
       </c>
     </row>
@@ -12989,7 +13015,7 @@
       <c r="C835" t="s">
         <v>10</v>
       </c>
-      <c r="D835" s="7">
+      <c r="D835">
         <v>3</v>
       </c>
     </row>
@@ -13020,7 +13046,7 @@
       <c r="C837" t="s">
         <v>7</v>
       </c>
-      <c r="D837" s="7">
+      <c r="D837">
         <v>4</v>
       </c>
     </row>
@@ -13034,7 +13060,7 @@
       <c r="C838" t="s">
         <v>8</v>
       </c>
-      <c r="D838" s="7">
+      <c r="D838">
         <v>4</v>
       </c>
     </row>
@@ -13048,7 +13074,7 @@
       <c r="C839" t="s">
         <v>9</v>
       </c>
-      <c r="D839" s="7">
+      <c r="D839">
         <v>2</v>
       </c>
     </row>
@@ -13062,7 +13088,7 @@
       <c r="C840" t="s">
         <v>10</v>
       </c>
-      <c r="D840" s="7">
+      <c r="D840">
         <v>4</v>
       </c>
     </row>
@@ -13093,7 +13119,7 @@
       <c r="C842" t="s">
         <v>7</v>
       </c>
-      <c r="D842" s="7">
+      <c r="D842">
         <v>5</v>
       </c>
     </row>
@@ -13107,7 +13133,7 @@
       <c r="C843" t="s">
         <v>8</v>
       </c>
-      <c r="D843" s="7">
+      <c r="D843">
         <v>3</v>
       </c>
     </row>
@@ -13121,7 +13147,7 @@
       <c r="C844" t="s">
         <v>9</v>
       </c>
-      <c r="D844" s="7">
+      <c r="D844">
         <v>3</v>
       </c>
     </row>
@@ -13135,7 +13161,7 @@
       <c r="C845" t="s">
         <v>10</v>
       </c>
-      <c r="D845" s="7">
+      <c r="D845">
         <v>3</v>
       </c>
     </row>
@@ -13166,7 +13192,7 @@
       <c r="C847" t="s">
         <v>7</v>
       </c>
-      <c r="D847" s="7">
+      <c r="D847">
         <v>4</v>
       </c>
     </row>
@@ -13180,7 +13206,7 @@
       <c r="C848" t="s">
         <v>8</v>
       </c>
-      <c r="D848" s="7">
+      <c r="D848">
         <v>4</v>
       </c>
     </row>
@@ -13194,7 +13220,7 @@
       <c r="C849" t="s">
         <v>9</v>
       </c>
-      <c r="D849" s="7">
+      <c r="D849">
         <v>2</v>
       </c>
     </row>
@@ -13208,7 +13234,7 @@
       <c r="C850" t="s">
         <v>10</v>
       </c>
-      <c r="D850" s="7">
+      <c r="D850">
         <v>3</v>
       </c>
     </row>
@@ -13239,7 +13265,7 @@
       <c r="C852" t="s">
         <v>7</v>
       </c>
-      <c r="D852" s="7">
+      <c r="D852">
         <v>5</v>
       </c>
     </row>
@@ -13253,7 +13279,7 @@
       <c r="C853" t="s">
         <v>8</v>
       </c>
-      <c r="D853" s="7">
+      <c r="D853">
         <v>4</v>
       </c>
     </row>
@@ -13267,7 +13293,7 @@
       <c r="C854" t="s">
         <v>9</v>
       </c>
-      <c r="D854" s="7">
+      <c r="D854">
         <v>3</v>
       </c>
     </row>
@@ -13281,7 +13307,7 @@
       <c r="C855" t="s">
         <v>10</v>
       </c>
-      <c r="D855" s="7">
+      <c r="D855">
         <v>3</v>
       </c>
     </row>
@@ -13312,7 +13338,7 @@
       <c r="C857" t="s">
         <v>7</v>
       </c>
-      <c r="D857" s="7">
+      <c r="D857">
         <v>5</v>
       </c>
     </row>
@@ -13326,7 +13352,7 @@
       <c r="C858" t="s">
         <v>8</v>
       </c>
-      <c r="D858" s="7">
+      <c r="D858">
         <v>2</v>
       </c>
     </row>
@@ -13340,7 +13366,7 @@
       <c r="C859" t="s">
         <v>9</v>
       </c>
-      <c r="D859" s="7">
+      <c r="D859">
         <v>2</v>
       </c>
     </row>
@@ -13354,7 +13380,7 @@
       <c r="C860" t="s">
         <v>10</v>
       </c>
-      <c r="D860" s="7">
+      <c r="D860">
         <v>3</v>
       </c>
     </row>
@@ -13385,7 +13411,7 @@
       <c r="C862" t="s">
         <v>7</v>
       </c>
-      <c r="D862" s="7">
+      <c r="D862">
         <v>5</v>
       </c>
     </row>
@@ -13399,7 +13425,7 @@
       <c r="C863" t="s">
         <v>8</v>
       </c>
-      <c r="D863" s="7">
+      <c r="D863">
         <v>4</v>
       </c>
     </row>
@@ -13413,7 +13439,7 @@
       <c r="C864" t="s">
         <v>9</v>
       </c>
-      <c r="D864" s="7">
+      <c r="D864">
         <v>4</v>
       </c>
     </row>
@@ -13427,7 +13453,7 @@
       <c r="C865" t="s">
         <v>10</v>
       </c>
-      <c r="D865" s="7">
+      <c r="D865">
         <v>4</v>
       </c>
     </row>
@@ -13458,7 +13484,7 @@
       <c r="C867" t="s">
         <v>7</v>
       </c>
-      <c r="D867" s="7">
+      <c r="D867">
         <v>5</v>
       </c>
     </row>
@@ -13472,7 +13498,7 @@
       <c r="C868" t="s">
         <v>8</v>
       </c>
-      <c r="D868" s="7">
+      <c r="D868">
         <v>3</v>
       </c>
     </row>
@@ -13486,7 +13512,7 @@
       <c r="C869" t="s">
         <v>9</v>
       </c>
-      <c r="D869" s="7">
+      <c r="D869">
         <v>4</v>
       </c>
     </row>
@@ -13500,7 +13526,7 @@
       <c r="C870" t="s">
         <v>10</v>
       </c>
-      <c r="D870" s="7">
+      <c r="D870">
         <v>3</v>
       </c>
     </row>
@@ -13531,7 +13557,7 @@
       <c r="C872" t="s">
         <v>7</v>
       </c>
-      <c r="D872" s="7">
+      <c r="D872">
         <v>5</v>
       </c>
     </row>
@@ -13545,7 +13571,7 @@
       <c r="C873" t="s">
         <v>8</v>
       </c>
-      <c r="D873" s="7">
+      <c r="D873">
         <v>5</v>
       </c>
     </row>
@@ -13559,7 +13585,7 @@
       <c r="C874" t="s">
         <v>9</v>
       </c>
-      <c r="D874" s="7">
+      <c r="D874">
         <v>3</v>
       </c>
     </row>
@@ -13573,7 +13599,7 @@
       <c r="C875" t="s">
         <v>10</v>
       </c>
-      <c r="D875" s="7">
+      <c r="D875">
         <v>4</v>
       </c>
     </row>
@@ -13604,7 +13630,7 @@
       <c r="C877" t="s">
         <v>7</v>
       </c>
-      <c r="D877" s="7">
+      <c r="D877">
         <v>5</v>
       </c>
     </row>
@@ -13618,7 +13644,7 @@
       <c r="C878" t="s">
         <v>8</v>
       </c>
-      <c r="D878" s="7">
+      <c r="D878">
         <v>5</v>
       </c>
     </row>
@@ -13632,7 +13658,7 @@
       <c r="C879" t="s">
         <v>9</v>
       </c>
-      <c r="D879" s="7">
+      <c r="D879">
         <v>3</v>
       </c>
     </row>
@@ -13646,7 +13672,7 @@
       <c r="C880" t="s">
         <v>10</v>
       </c>
-      <c r="D880" s="7">
+      <c r="D880">
         <v>3</v>
       </c>
     </row>
@@ -13677,7 +13703,7 @@
       <c r="C882" t="s">
         <v>7</v>
       </c>
-      <c r="D882" s="7">
+      <c r="D882">
         <v>5</v>
       </c>
     </row>
@@ -13691,7 +13717,7 @@
       <c r="C883" t="s">
         <v>8</v>
       </c>
-      <c r="D883" s="7">
+      <c r="D883">
         <v>5</v>
       </c>
     </row>
@@ -13705,7 +13731,7 @@
       <c r="C884" t="s">
         <v>9</v>
       </c>
-      <c r="D884" s="7">
+      <c r="D884">
         <v>5</v>
       </c>
     </row>
@@ -13719,7 +13745,7 @@
       <c r="C885" t="s">
         <v>10</v>
       </c>
-      <c r="D885" s="7">
+      <c r="D885">
         <v>3</v>
       </c>
     </row>
@@ -13750,7 +13776,7 @@
       <c r="C887" t="s">
         <v>7</v>
       </c>
-      <c r="D887" s="7">
+      <c r="D887">
         <v>2</v>
       </c>
     </row>
@@ -13764,7 +13790,7 @@
       <c r="C888" t="s">
         <v>8</v>
       </c>
-      <c r="D888" s="7">
+      <c r="D888">
         <v>5</v>
       </c>
     </row>
@@ -13778,7 +13804,7 @@
       <c r="C889" t="s">
         <v>9</v>
       </c>
-      <c r="D889" s="7">
+      <c r="D889">
         <v>3</v>
       </c>
     </row>
@@ -13792,7 +13818,7 @@
       <c r="C890" t="s">
         <v>10</v>
       </c>
-      <c r="D890" s="7">
+      <c r="D890">
         <v>4</v>
       </c>
     </row>
@@ -13823,7 +13849,7 @@
       <c r="C892" t="s">
         <v>7</v>
       </c>
-      <c r="D892" s="7">
+      <c r="D892">
         <v>2</v>
       </c>
     </row>
@@ -13837,7 +13863,7 @@
       <c r="C893" t="s">
         <v>8</v>
       </c>
-      <c r="D893" s="7">
+      <c r="D893">
         <v>5</v>
       </c>
     </row>
@@ -13851,7 +13877,7 @@
       <c r="C894" t="s">
         <v>9</v>
       </c>
-      <c r="D894" s="7">
+      <c r="D894">
         <v>5</v>
       </c>
     </row>
@@ -13865,7 +13891,7 @@
       <c r="C895" t="s">
         <v>10</v>
       </c>
-      <c r="D895" s="7">
+      <c r="D895">
         <v>4</v>
       </c>
     </row>
@@ -13896,7 +13922,7 @@
       <c r="C897" t="s">
         <v>7</v>
       </c>
-      <c r="D897" s="7">
+      <c r="D897">
         <v>4</v>
       </c>
     </row>
@@ -13910,7 +13936,7 @@
       <c r="C898" t="s">
         <v>8</v>
       </c>
-      <c r="D898" s="7">
+      <c r="D898">
         <v>4</v>
       </c>
     </row>
@@ -13924,7 +13950,7 @@
       <c r="C899" t="s">
         <v>9</v>
       </c>
-      <c r="D899" s="7">
+      <c r="D899">
         <v>3</v>
       </c>
     </row>
@@ -13938,7 +13964,7 @@
       <c r="C900" t="s">
         <v>10</v>
       </c>
-      <c r="D900" s="7">
+      <c r="D900">
         <v>2</v>
       </c>
     </row>
@@ -13969,7 +13995,7 @@
       <c r="C902" t="s">
         <v>7</v>
       </c>
-      <c r="D902" s="7">
+      <c r="D902">
         <v>5</v>
       </c>
     </row>
@@ -13983,7 +14009,7 @@
       <c r="C903" t="s">
         <v>8</v>
       </c>
-      <c r="D903" s="7">
+      <c r="D903">
         <v>5</v>
       </c>
     </row>
@@ -13997,7 +14023,7 @@
       <c r="C904" t="s">
         <v>9</v>
       </c>
-      <c r="D904" s="7">
+      <c r="D904">
         <v>3</v>
       </c>
     </row>
@@ -14011,7 +14037,7 @@
       <c r="C905" t="s">
         <v>10</v>
       </c>
-      <c r="D905" s="7">
+      <c r="D905">
         <v>2</v>
       </c>
     </row>
@@ -14042,7 +14068,7 @@
       <c r="C907" t="s">
         <v>7</v>
       </c>
-      <c r="D907" s="7">
+      <c r="D907">
         <v>5</v>
       </c>
     </row>
@@ -14056,7 +14082,7 @@
       <c r="C908" t="s">
         <v>8</v>
       </c>
-      <c r="D908" s="7">
+      <c r="D908">
         <v>4</v>
       </c>
     </row>
@@ -14070,7 +14096,7 @@
       <c r="C909" t="s">
         <v>9</v>
       </c>
-      <c r="D909" s="7">
+      <c r="D909">
         <v>3</v>
       </c>
     </row>
@@ -14084,7 +14110,7 @@
       <c r="C910" t="s">
         <v>10</v>
       </c>
-      <c r="D910" s="7">
+      <c r="D910">
         <v>3</v>
       </c>
     </row>
@@ -14115,7 +14141,7 @@
       <c r="C912" t="s">
         <v>7</v>
       </c>
-      <c r="D912" s="7">
+      <c r="D912">
         <v>4</v>
       </c>
     </row>
@@ -14129,7 +14155,7 @@
       <c r="C913" t="s">
         <v>8</v>
       </c>
-      <c r="D913" s="7">
+      <c r="D913">
         <v>5</v>
       </c>
     </row>
@@ -14143,7 +14169,7 @@
       <c r="C914" t="s">
         <v>9</v>
       </c>
-      <c r="D914" s="7">
+      <c r="D914">
         <v>2</v>
       </c>
     </row>
@@ -14157,7 +14183,7 @@
       <c r="C915" t="s">
         <v>10</v>
       </c>
-      <c r="D915" s="7">
+      <c r="D915">
         <v>2</v>
       </c>
     </row>
@@ -14188,7 +14214,7 @@
       <c r="C917" t="s">
         <v>7</v>
       </c>
-      <c r="D917" s="7">
+      <c r="D917">
         <v>4</v>
       </c>
     </row>
@@ -14202,7 +14228,7 @@
       <c r="C918" t="s">
         <v>8</v>
       </c>
-      <c r="D918" s="7">
+      <c r="D918">
         <v>5</v>
       </c>
     </row>
@@ -14216,7 +14242,7 @@
       <c r="C919" t="s">
         <v>9</v>
       </c>
-      <c r="D919" s="7">
+      <c r="D919">
         <v>4</v>
       </c>
     </row>
@@ -14230,7 +14256,7 @@
       <c r="C920" t="s">
         <v>10</v>
       </c>
-      <c r="D920" s="7">
+      <c r="D920">
         <v>3</v>
       </c>
     </row>
@@ -14261,7 +14287,7 @@
       <c r="C922" t="s">
         <v>7</v>
       </c>
-      <c r="D922" s="7">
+      <c r="D922">
         <v>5</v>
       </c>
     </row>
@@ -14275,7 +14301,7 @@
       <c r="C923" t="s">
         <v>8</v>
       </c>
-      <c r="D923" s="7">
+      <c r="D923">
         <v>4</v>
       </c>
     </row>
@@ -14289,7 +14315,7 @@
       <c r="C924" t="s">
         <v>9</v>
       </c>
-      <c r="D924" s="7">
+      <c r="D924">
         <v>1</v>
       </c>
     </row>
@@ -14303,7 +14329,7 @@
       <c r="C925" t="s">
         <v>10</v>
       </c>
-      <c r="D925" s="7">
+      <c r="D925">
         <v>4</v>
       </c>
     </row>
@@ -14334,7 +14360,7 @@
       <c r="C927" t="s">
         <v>7</v>
       </c>
-      <c r="D927" s="7">
+      <c r="D927">
         <v>4</v>
       </c>
     </row>
@@ -14348,7 +14374,7 @@
       <c r="C928" t="s">
         <v>8</v>
       </c>
-      <c r="D928" s="7">
+      <c r="D928">
         <v>4</v>
       </c>
     </row>
@@ -14362,7 +14388,7 @@
       <c r="C929" t="s">
         <v>9</v>
       </c>
-      <c r="D929" s="7">
+      <c r="D929">
         <v>3</v>
       </c>
     </row>
@@ -14376,7 +14402,7 @@
       <c r="C930" t="s">
         <v>10</v>
       </c>
-      <c r="D930" s="7">
+      <c r="D930">
         <v>3</v>
       </c>
     </row>
@@ -14407,7 +14433,7 @@
       <c r="C932" t="s">
         <v>7</v>
       </c>
-      <c r="D932" s="7">
+      <c r="D932">
         <v>3</v>
       </c>
     </row>
@@ -14421,7 +14447,7 @@
       <c r="C933" t="s">
         <v>8</v>
       </c>
-      <c r="D933" s="7">
+      <c r="D933">
         <v>2</v>
       </c>
     </row>
@@ -14435,7 +14461,7 @@
       <c r="C934" t="s">
         <v>9</v>
       </c>
-      <c r="D934" s="7">
+      <c r="D934">
         <v>3</v>
       </c>
     </row>
@@ -14480,7 +14506,7 @@
       <c r="C937" t="s">
         <v>7</v>
       </c>
-      <c r="D937" s="7">
+      <c r="D937">
         <v>2</v>
       </c>
     </row>
@@ -14494,7 +14520,7 @@
       <c r="C938" t="s">
         <v>8</v>
       </c>
-      <c r="D938" s="7">
+      <c r="D938">
         <v>3</v>
       </c>
     </row>
@@ -14508,7 +14534,7 @@
       <c r="C939" t="s">
         <v>9</v>
       </c>
-      <c r="D939" s="7">
+      <c r="D939">
         <v>3</v>
       </c>
     </row>
@@ -14522,7 +14548,7 @@
       <c r="C940" t="s">
         <v>10</v>
       </c>
-      <c r="D940" s="7">
+      <c r="D940">
         <v>2</v>
       </c>
     </row>
@@ -14553,7 +14579,7 @@
       <c r="C942" t="s">
         <v>7</v>
       </c>
-      <c r="D942" s="7">
+      <c r="D942">
         <v>2</v>
       </c>
     </row>
@@ -14567,7 +14593,7 @@
       <c r="C943" t="s">
         <v>8</v>
       </c>
-      <c r="D943" s="7">
+      <c r="D943">
         <v>4</v>
       </c>
     </row>
@@ -14581,7 +14607,7 @@
       <c r="C944" t="s">
         <v>9</v>
       </c>
-      <c r="D944" s="7">
+      <c r="D944">
         <v>3</v>
       </c>
     </row>
@@ -14595,7 +14621,7 @@
       <c r="C945" t="s">
         <v>10</v>
       </c>
-      <c r="D945" s="7">
+      <c r="D945">
         <v>3</v>
       </c>
     </row>
@@ -14626,7 +14652,7 @@
       <c r="C947" t="s">
         <v>7</v>
       </c>
-      <c r="D947" s="7">
+      <c r="D947">
         <v>3</v>
       </c>
     </row>
@@ -14640,7 +14666,7 @@
       <c r="C948" t="s">
         <v>8</v>
       </c>
-      <c r="D948" s="7">
+      <c r="D948">
         <v>3</v>
       </c>
     </row>
@@ -14654,7 +14680,7 @@
       <c r="C949" t="s">
         <v>9</v>
       </c>
-      <c r="D949" s="7">
+      <c r="D949">
         <v>5</v>
       </c>
     </row>
@@ -14668,7 +14694,7 @@
       <c r="C950" t="s">
         <v>10</v>
       </c>
-      <c r="D950" s="7">
+      <c r="D950">
         <v>4</v>
       </c>
     </row>
@@ -14699,7 +14725,7 @@
       <c r="C952" t="s">
         <v>7</v>
       </c>
-      <c r="D952" s="7">
+      <c r="D952">
         <v>4</v>
       </c>
     </row>
@@ -14713,7 +14739,7 @@
       <c r="C953" t="s">
         <v>8</v>
       </c>
-      <c r="D953" s="7">
+      <c r="D953">
         <v>3</v>
       </c>
     </row>
@@ -14727,7 +14753,7 @@
       <c r="C954" t="s">
         <v>9</v>
       </c>
-      <c r="D954" s="7">
+      <c r="D954">
         <v>3</v>
       </c>
     </row>
@@ -14741,7 +14767,7 @@
       <c r="C955" t="s">
         <v>10</v>
       </c>
-      <c r="D955" s="7">
+      <c r="D955">
         <v>4</v>
       </c>
     </row>
@@ -14772,7 +14798,7 @@
       <c r="C957" t="s">
         <v>7</v>
       </c>
-      <c r="D957" s="7">
+      <c r="D957">
         <v>5</v>
       </c>
     </row>
@@ -14786,7 +14812,7 @@
       <c r="C958" t="s">
         <v>8</v>
       </c>
-      <c r="D958" s="7">
+      <c r="D958">
         <v>3</v>
       </c>
     </row>
@@ -14800,7 +14826,7 @@
       <c r="C959" t="s">
         <v>9</v>
       </c>
-      <c r="D959" s="7">
+      <c r="D959">
         <v>3</v>
       </c>
     </row>
@@ -14814,7 +14840,7 @@
       <c r="C960" t="s">
         <v>10</v>
       </c>
-      <c r="D960" s="7">
+      <c r="D960">
         <v>4</v>
       </c>
     </row>
@@ -14845,7 +14871,7 @@
       <c r="C962" t="s">
         <v>7</v>
       </c>
-      <c r="D962" s="7">
+      <c r="D962">
         <v>2</v>
       </c>
     </row>
@@ -14859,7 +14885,7 @@
       <c r="C963" t="s">
         <v>8</v>
       </c>
-      <c r="D963" s="7">
+      <c r="D963">
         <v>5</v>
       </c>
     </row>
@@ -14873,7 +14899,7 @@
       <c r="C964" t="s">
         <v>9</v>
       </c>
-      <c r="D964" s="7">
+      <c r="D964">
         <v>3</v>
       </c>
     </row>
@@ -14887,7 +14913,7 @@
       <c r="C965" t="s">
         <v>10</v>
       </c>
-      <c r="D965" s="7">
+      <c r="D965">
         <v>5</v>
       </c>
     </row>
@@ -14918,7 +14944,7 @@
       <c r="C967" t="s">
         <v>7</v>
       </c>
-      <c r="D967" s="7">
+      <c r="D967">
         <v>2</v>
       </c>
     </row>
@@ -14932,7 +14958,7 @@
       <c r="C968" t="s">
         <v>8</v>
       </c>
-      <c r="D968" s="7">
+      <c r="D968">
         <v>5</v>
       </c>
     </row>
@@ -14946,7 +14972,7 @@
       <c r="C969" t="s">
         <v>9</v>
       </c>
-      <c r="D969" s="7">
+      <c r="D969">
         <v>3</v>
       </c>
     </row>
@@ -14960,7 +14986,7 @@
       <c r="C970" t="s">
         <v>10</v>
       </c>
-      <c r="D970" s="7">
+      <c r="D970">
         <v>4</v>
       </c>
     </row>
@@ -14991,7 +15017,7 @@
       <c r="C972" t="s">
         <v>7</v>
       </c>
-      <c r="D972" s="7">
+      <c r="D972">
         <v>2</v>
       </c>
     </row>
@@ -15005,7 +15031,7 @@
       <c r="C973" t="s">
         <v>8</v>
       </c>
-      <c r="D973" s="7">
+      <c r="D973">
         <v>5</v>
       </c>
     </row>
@@ -15019,7 +15045,7 @@
       <c r="C974" t="s">
         <v>9</v>
       </c>
-      <c r="D974" s="7">
+      <c r="D974">
         <v>3</v>
       </c>
     </row>
@@ -15033,7 +15059,7 @@
       <c r="C975" t="s">
         <v>10</v>
       </c>
-      <c r="D975" s="7">
+      <c r="D975">
         <v>3</v>
       </c>
     </row>
@@ -15064,7 +15090,7 @@
       <c r="C977" t="s">
         <v>7</v>
       </c>
-      <c r="D977" s="7">
+      <c r="D977">
         <v>2</v>
       </c>
     </row>
@@ -15078,7 +15104,7 @@
       <c r="C978" t="s">
         <v>8</v>
       </c>
-      <c r="D978" s="7">
+      <c r="D978">
         <v>5</v>
       </c>
     </row>
@@ -15092,7 +15118,7 @@
       <c r="C979" t="s">
         <v>9</v>
       </c>
-      <c r="D979" s="7">
+      <c r="D979">
         <v>4</v>
       </c>
     </row>
@@ -15106,7 +15132,7 @@
       <c r="C980" t="s">
         <v>10</v>
       </c>
-      <c r="D980" s="7">
+      <c r="D980">
         <v>4</v>
       </c>
     </row>
@@ -15137,7 +15163,7 @@
       <c r="C982" t="s">
         <v>7</v>
       </c>
-      <c r="D982" s="7">
+      <c r="D982">
         <v>2</v>
       </c>
     </row>
@@ -15151,7 +15177,7 @@
       <c r="C983" t="s">
         <v>8</v>
       </c>
-      <c r="D983" s="7">
+      <c r="D983">
         <v>4</v>
       </c>
     </row>
@@ -15165,7 +15191,7 @@
       <c r="C984" t="s">
         <v>9</v>
       </c>
-      <c r="D984" s="7">
+      <c r="D984">
         <v>5</v>
       </c>
     </row>
@@ -15179,7 +15205,7 @@
       <c r="C985" t="s">
         <v>10</v>
       </c>
-      <c r="D985" s="7">
+      <c r="D985">
         <v>5</v>
       </c>
     </row>
@@ -15210,7 +15236,7 @@
       <c r="C987" t="s">
         <v>7</v>
       </c>
-      <c r="D987" s="7">
+      <c r="D987">
         <v>2</v>
       </c>
     </row>
@@ -15224,7 +15250,7 @@
       <c r="C988" t="s">
         <v>8</v>
       </c>
-      <c r="D988" s="7">
+      <c r="D988">
         <v>5</v>
       </c>
     </row>
@@ -15238,7 +15264,7 @@
       <c r="C989" t="s">
         <v>9</v>
       </c>
-      <c r="D989" s="7">
+      <c r="D989">
         <v>2</v>
       </c>
     </row>
@@ -15252,7 +15278,7 @@
       <c r="C990" t="s">
         <v>10</v>
       </c>
-      <c r="D990" s="7">
+      <c r="D990">
         <v>4</v>
       </c>
     </row>
@@ -15283,7 +15309,7 @@
       <c r="C992" t="s">
         <v>7</v>
       </c>
-      <c r="D992" s="7">
+      <c r="D992">
         <v>5</v>
       </c>
     </row>
@@ -15297,7 +15323,7 @@
       <c r="C993" t="s">
         <v>8</v>
       </c>
-      <c r="D993" s="7">
+      <c r="D993">
         <v>3</v>
       </c>
     </row>
@@ -15311,7 +15337,7 @@
       <c r="C994" t="s">
         <v>9</v>
       </c>
-      <c r="D994" s="7">
+      <c r="D994">
         <v>4</v>
       </c>
     </row>
@@ -15325,7 +15351,7 @@
       <c r="C995" t="s">
         <v>10</v>
       </c>
-      <c r="D995" s="7">
+      <c r="D995">
         <v>3</v>
       </c>
     </row>
@@ -15356,7 +15382,7 @@
       <c r="C997" t="s">
         <v>7</v>
       </c>
-      <c r="D997" s="7">
+      <c r="D997">
         <v>5</v>
       </c>
     </row>
@@ -15370,7 +15396,7 @@
       <c r="C998" t="s">
         <v>8</v>
       </c>
-      <c r="D998" s="7">
+      <c r="D998">
         <v>3</v>
       </c>
     </row>
@@ -15384,7 +15410,7 @@
       <c r="C999" t="s">
         <v>9</v>
       </c>
-      <c r="D999" s="7">
+      <c r="D999">
         <v>4</v>
       </c>
     </row>
@@ -15398,7 +15424,7 @@
       <c r="C1000" t="s">
         <v>10</v>
       </c>
-      <c r="D1000" s="7">
+      <c r="D1000">
         <v>3</v>
       </c>
     </row>
@@ -15429,7 +15455,7 @@
       <c r="C1002" t="s">
         <v>7</v>
       </c>
-      <c r="D1002" s="7">
+      <c r="D1002">
         <v>5</v>
       </c>
     </row>
@@ -15443,7 +15469,7 @@
       <c r="C1003" t="s">
         <v>8</v>
       </c>
-      <c r="D1003" s="7">
+      <c r="D1003">
         <v>3</v>
       </c>
     </row>
@@ -15457,7 +15483,7 @@
       <c r="C1004" t="s">
         <v>9</v>
       </c>
-      <c r="D1004" s="7">
+      <c r="D1004">
         <v>4</v>
       </c>
     </row>
@@ -15471,7 +15497,7 @@
       <c r="C1005" t="s">
         <v>10</v>
       </c>
-      <c r="D1005" s="7">
+      <c r="D1005">
         <v>3</v>
       </c>
     </row>
@@ -15502,7 +15528,7 @@
       <c r="C1007" t="s">
         <v>7</v>
       </c>
-      <c r="D1007" s="7">
+      <c r="D1007">
         <v>4</v>
       </c>
     </row>
@@ -15516,7 +15542,7 @@
       <c r="C1008" t="s">
         <v>8</v>
       </c>
-      <c r="D1008" s="7">
+      <c r="D1008">
         <v>3</v>
       </c>
     </row>
@@ -15530,7 +15556,7 @@
       <c r="C1009" t="s">
         <v>9</v>
       </c>
-      <c r="D1009" s="7">
+      <c r="D1009">
         <v>2</v>
       </c>
     </row>
@@ -15544,7 +15570,7 @@
       <c r="C1010" t="s">
         <v>10</v>
       </c>
-      <c r="D1010" s="7">
+      <c r="D1010">
         <v>4</v>
       </c>
     </row>
@@ -15575,7 +15601,7 @@
       <c r="C1012" t="s">
         <v>7</v>
       </c>
-      <c r="D1012" s="7">
+      <c r="D1012">
         <v>4</v>
       </c>
     </row>
@@ -15589,7 +15615,7 @@
       <c r="C1013" t="s">
         <v>8</v>
       </c>
-      <c r="D1013" s="7">
+      <c r="D1013">
         <v>4</v>
       </c>
     </row>
@@ -15603,7 +15629,7 @@
       <c r="C1014" t="s">
         <v>9</v>
       </c>
-      <c r="D1014" s="7">
+      <c r="D1014">
         <v>3</v>
       </c>
     </row>
@@ -15617,7 +15643,7 @@
       <c r="C1015" t="s">
         <v>10</v>
       </c>
-      <c r="D1015" s="7">
+      <c r="D1015">
         <v>4</v>
       </c>
     </row>
@@ -15648,7 +15674,7 @@
       <c r="C1017" t="s">
         <v>7</v>
       </c>
-      <c r="D1017" s="7">
+      <c r="D1017">
         <v>3</v>
       </c>
     </row>
@@ -15662,7 +15688,7 @@
       <c r="C1018" t="s">
         <v>8</v>
       </c>
-      <c r="D1018" s="7">
+      <c r="D1018">
         <v>3</v>
       </c>
     </row>
@@ -15676,7 +15702,7 @@
       <c r="C1019" t="s">
         <v>9</v>
       </c>
-      <c r="D1019" s="7">
+      <c r="D1019">
         <v>5</v>
       </c>
     </row>
@@ -15690,7 +15716,7 @@
       <c r="C1020" t="s">
         <v>10</v>
       </c>
-      <c r="D1020" s="7">
+      <c r="D1020">
         <v>1</v>
       </c>
     </row>
@@ -15721,7 +15747,7 @@
       <c r="C1022" t="s">
         <v>7</v>
       </c>
-      <c r="D1022" s="7">
+      <c r="D1022">
         <v>5</v>
       </c>
     </row>
@@ -15735,7 +15761,7 @@
       <c r="C1023" t="s">
         <v>8</v>
       </c>
-      <c r="D1023" s="7">
+      <c r="D1023">
         <v>3</v>
       </c>
     </row>
@@ -15749,7 +15775,7 @@
       <c r="C1024" t="s">
         <v>9</v>
       </c>
-      <c r="D1024" s="7">
+      <c r="D1024">
         <v>4</v>
       </c>
     </row>
@@ -15763,7 +15789,7 @@
       <c r="C1025" t="s">
         <v>10</v>
       </c>
-      <c r="D1025" s="7">
+      <c r="D1025">
         <v>3</v>
       </c>
     </row>
@@ -15794,7 +15820,7 @@
       <c r="C1027" t="s">
         <v>7</v>
       </c>
-      <c r="D1027" s="7">
+      <c r="D1027">
         <v>5</v>
       </c>
     </row>
@@ -15808,7 +15834,7 @@
       <c r="C1028" t="s">
         <v>8</v>
       </c>
-      <c r="D1028" s="7">
+      <c r="D1028">
         <v>4</v>
       </c>
     </row>
@@ -15822,7 +15848,7 @@
       <c r="C1029" t="s">
         <v>9</v>
       </c>
-      <c r="D1029" s="7">
+      <c r="D1029">
         <v>4</v>
       </c>
     </row>
@@ -15836,7 +15862,7 @@
       <c r="C1030" t="s">
         <v>10</v>
       </c>
-      <c r="D1030" s="7">
+      <c r="D1030">
         <v>3</v>
       </c>
     </row>
@@ -15867,7 +15893,7 @@
       <c r="C1032" t="s">
         <v>7</v>
       </c>
-      <c r="D1032" s="7">
+      <c r="D1032">
         <v>5</v>
       </c>
     </row>
@@ -15881,7 +15907,7 @@
       <c r="C1033" t="s">
         <v>8</v>
       </c>
-      <c r="D1033" s="7">
+      <c r="D1033">
         <v>3</v>
       </c>
     </row>
@@ -15895,7 +15921,7 @@
       <c r="C1034" t="s">
         <v>9</v>
       </c>
-      <c r="D1034" s="7">
+      <c r="D1034">
         <v>3</v>
       </c>
     </row>
@@ -15909,7 +15935,7 @@
       <c r="C1035" t="s">
         <v>10</v>
       </c>
-      <c r="D1035" s="7">
+      <c r="D1035">
         <v>3</v>
       </c>
     </row>
@@ -15940,7 +15966,7 @@
       <c r="C1037" t="s">
         <v>7</v>
       </c>
-      <c r="D1037" s="7">
+      <c r="D1037">
         <v>5</v>
       </c>
     </row>
@@ -15954,7 +15980,7 @@
       <c r="C1038" t="s">
         <v>8</v>
       </c>
-      <c r="D1038" s="7">
+      <c r="D1038">
         <v>4</v>
       </c>
     </row>
@@ -15968,7 +15994,7 @@
       <c r="C1039" t="s">
         <v>9</v>
       </c>
-      <c r="D1039" s="7">
+      <c r="D1039">
         <v>5</v>
       </c>
     </row>
@@ -15982,7 +16008,7 @@
       <c r="C1040" t="s">
         <v>10</v>
       </c>
-      <c r="D1040" s="7">
+      <c r="D1040">
         <v>5</v>
       </c>
     </row>
@@ -16013,7 +16039,7 @@
       <c r="C1042" t="s">
         <v>7</v>
       </c>
-      <c r="D1042" s="7">
+      <c r="D1042">
         <v>5</v>
       </c>
     </row>
@@ -16027,7 +16053,7 @@
       <c r="C1043" t="s">
         <v>8</v>
       </c>
-      <c r="D1043" s="7">
+      <c r="D1043">
         <v>3</v>
       </c>
     </row>
@@ -16041,7 +16067,7 @@
       <c r="C1044" t="s">
         <v>9</v>
       </c>
-      <c r="D1044" s="7">
+      <c r="D1044">
         <v>4</v>
       </c>
     </row>
@@ -16055,7 +16081,7 @@
       <c r="C1045" t="s">
         <v>10</v>
       </c>
-      <c r="D1045" s="7">
+      <c r="D1045">
         <v>3</v>
       </c>
     </row>
@@ -16086,7 +16112,7 @@
       <c r="C1047" t="s">
         <v>7</v>
       </c>
-      <c r="D1047" s="7">
+      <c r="D1047">
         <v>5</v>
       </c>
     </row>
@@ -16100,7 +16126,7 @@
       <c r="C1048" t="s">
         <v>8</v>
       </c>
-      <c r="D1048" s="7">
+      <c r="D1048">
         <v>4</v>
       </c>
     </row>
@@ -16114,7 +16140,7 @@
       <c r="C1049" t="s">
         <v>9</v>
       </c>
-      <c r="D1049" s="7">
+      <c r="D1049">
         <v>3</v>
       </c>
     </row>
@@ -16128,7 +16154,7 @@
       <c r="C1050" t="s">
         <v>10</v>
       </c>
-      <c r="D1050" s="7">
+      <c r="D1050">
         <v>4</v>
       </c>
     </row>
@@ -16159,7 +16185,7 @@
       <c r="C1052" t="s">
         <v>7</v>
       </c>
-      <c r="D1052" s="7">
+      <c r="D1052">
         <v>4</v>
       </c>
     </row>
@@ -16173,7 +16199,7 @@
       <c r="C1053" t="s">
         <v>8</v>
       </c>
-      <c r="D1053" s="7">
+      <c r="D1053">
         <v>3</v>
       </c>
     </row>
@@ -16187,7 +16213,7 @@
       <c r="C1054" t="s">
         <v>9</v>
       </c>
-      <c r="D1054" s="7">
+      <c r="D1054">
         <v>3</v>
       </c>
     </row>
@@ -16201,7 +16227,7 @@
       <c r="C1055" t="s">
         <v>10</v>
       </c>
-      <c r="D1055" s="7">
+      <c r="D1055">
         <v>5</v>
       </c>
     </row>
@@ -16232,7 +16258,7 @@
       <c r="C1057" t="s">
         <v>7</v>
       </c>
-      <c r="D1057" s="7">
+      <c r="D1057">
         <v>3</v>
       </c>
     </row>
@@ -16246,7 +16272,7 @@
       <c r="C1058" t="s">
         <v>8</v>
       </c>
-      <c r="D1058" s="7">
+      <c r="D1058">
         <v>3</v>
       </c>
     </row>
@@ -16260,7 +16286,7 @@
       <c r="C1059" t="s">
         <v>9</v>
       </c>
-      <c r="D1059" s="7">
+      <c r="D1059">
         <v>3</v>
       </c>
     </row>
@@ -16274,7 +16300,7 @@
       <c r="C1060" t="s">
         <v>10</v>
       </c>
-      <c r="D1060" s="7">
+      <c r="D1060">
         <v>3</v>
       </c>
     </row>
@@ -16305,7 +16331,7 @@
       <c r="C1062" t="s">
         <v>7</v>
       </c>
-      <c r="D1062" s="7">
+      <c r="D1062">
         <v>3</v>
       </c>
     </row>
@@ -16319,7 +16345,7 @@
       <c r="C1063" t="s">
         <v>8</v>
       </c>
-      <c r="D1063" s="7">
+      <c r="D1063">
         <v>3</v>
       </c>
     </row>
@@ -16333,7 +16359,7 @@
       <c r="C1064" t="s">
         <v>9</v>
       </c>
-      <c r="D1064" s="7">
+      <c r="D1064">
         <v>3</v>
       </c>
     </row>
@@ -16347,7 +16373,7 @@
       <c r="C1065" t="s">
         <v>10</v>
       </c>
-      <c r="D1065" s="7">
+      <c r="D1065">
         <v>2</v>
       </c>
     </row>
@@ -16378,7 +16404,7 @@
       <c r="C1067" t="s">
         <v>7</v>
       </c>
-      <c r="D1067" s="7">
+      <c r="D1067">
         <v>4</v>
       </c>
     </row>
@@ -16392,7 +16418,7 @@
       <c r="C1068" t="s">
         <v>8</v>
       </c>
-      <c r="D1068" s="7">
+      <c r="D1068">
         <v>4</v>
       </c>
     </row>
@@ -16406,7 +16432,7 @@
       <c r="C1069" t="s">
         <v>9</v>
       </c>
-      <c r="D1069" s="7">
+      <c r="D1069">
         <v>3</v>
       </c>
     </row>
@@ -16420,7 +16446,7 @@
       <c r="C1070" t="s">
         <v>10</v>
       </c>
-      <c r="D1070" s="7">
+      <c r="D1070">
         <v>4</v>
       </c>
     </row>
@@ -16451,7 +16477,7 @@
       <c r="C1072" t="s">
         <v>7</v>
       </c>
-      <c r="D1072" s="7">
+      <c r="D1072">
         <v>5</v>
       </c>
     </row>
@@ -16465,7 +16491,7 @@
       <c r="C1073" t="s">
         <v>8</v>
       </c>
-      <c r="D1073" s="7">
+      <c r="D1073">
         <v>3</v>
       </c>
     </row>
@@ -16479,7 +16505,7 @@
       <c r="C1074" t="s">
         <v>9</v>
       </c>
-      <c r="D1074" s="7">
+      <c r="D1074">
         <v>4</v>
       </c>
     </row>
@@ -16493,7 +16519,7 @@
       <c r="C1075" t="s">
         <v>10</v>
       </c>
-      <c r="D1075" s="7">
+      <c r="D1075">
         <v>4</v>
       </c>
     </row>
@@ -16524,7 +16550,7 @@
       <c r="C1077" t="s">
         <v>7</v>
       </c>
-      <c r="D1077" s="7">
+      <c r="D1077">
         <v>5</v>
       </c>
     </row>
@@ -16597,7 +16623,7 @@
       <c r="C1082" t="s">
         <v>7</v>
       </c>
-      <c r="D1082" s="7">
+      <c r="D1082">
         <v>3</v>
       </c>
     </row>
@@ -16611,7 +16637,7 @@
       <c r="C1083" t="s">
         <v>8</v>
       </c>
-      <c r="D1083" s="7">
+      <c r="D1083">
         <v>4</v>
       </c>
     </row>
@@ -16625,7 +16651,7 @@
       <c r="C1084" t="s">
         <v>9</v>
       </c>
-      <c r="D1084" s="7">
+      <c r="D1084">
         <v>4</v>
       </c>
     </row>
@@ -16639,7 +16665,7 @@
       <c r="C1085" t="s">
         <v>10</v>
       </c>
-      <c r="D1085" s="7">
+      <c r="D1085">
         <v>4</v>
       </c>
     </row>
@@ -16670,7 +16696,7 @@
       <c r="C1087" t="s">
         <v>7</v>
       </c>
-      <c r="D1087" s="7">
+      <c r="D1087">
         <v>3</v>
       </c>
     </row>
@@ -16684,7 +16710,7 @@
       <c r="C1088" t="s">
         <v>8</v>
       </c>
-      <c r="D1088" s="7">
+      <c r="D1088">
         <v>5</v>
       </c>
     </row>
@@ -16698,7 +16724,7 @@
       <c r="C1089" t="s">
         <v>9</v>
       </c>
-      <c r="D1089" s="7">
+      <c r="D1089">
         <v>2</v>
       </c>
     </row>
@@ -16712,7 +16738,7 @@
       <c r="C1090" t="s">
         <v>10</v>
       </c>
-      <c r="D1090" s="7">
+      <c r="D1090">
         <v>3</v>
       </c>
     </row>
@@ -16743,7 +16769,7 @@
       <c r="C1092" t="s">
         <v>7</v>
       </c>
-      <c r="D1092" s="7">
+      <c r="D1092">
         <v>5</v>
       </c>
     </row>
@@ -16757,7 +16783,7 @@
       <c r="C1093" t="s">
         <v>8</v>
       </c>
-      <c r="D1093" s="7">
+      <c r="D1093">
         <v>4</v>
       </c>
     </row>
@@ -16771,7 +16797,7 @@
       <c r="C1094" t="s">
         <v>9</v>
       </c>
-      <c r="D1094" s="7">
+      <c r="D1094">
         <v>3</v>
       </c>
     </row>
@@ -16785,7 +16811,7 @@
       <c r="C1095" t="s">
         <v>10</v>
       </c>
-      <c r="D1095" s="7">
+      <c r="D1095">
         <v>3</v>
       </c>
     </row>
@@ -16816,7 +16842,7 @@
       <c r="C1097" t="s">
         <v>7</v>
       </c>
-      <c r="D1097" s="7">
+      <c r="D1097">
         <v>5</v>
       </c>
     </row>
@@ -16830,7 +16856,7 @@
       <c r="C1098" t="s">
         <v>8</v>
       </c>
-      <c r="D1098" s="7">
+      <c r="D1098">
         <v>4</v>
       </c>
     </row>
@@ -16844,7 +16870,7 @@
       <c r="C1099" t="s">
         <v>9</v>
       </c>
-      <c r="D1099" s="7">
+      <c r="D1099">
         <v>2</v>
       </c>
     </row>
@@ -16858,7 +16884,7 @@
       <c r="C1100" t="s">
         <v>10</v>
       </c>
-      <c r="D1100" s="7">
+      <c r="D1100">
         <v>3</v>
       </c>
     </row>
@@ -16889,7 +16915,7 @@
       <c r="C1102" t="s">
         <v>7</v>
       </c>
-      <c r="D1102" s="7">
+      <c r="D1102">
         <v>5</v>
       </c>
     </row>
@@ -16903,7 +16929,7 @@
       <c r="C1103" t="s">
         <v>8</v>
       </c>
-      <c r="D1103" s="7">
+      <c r="D1103">
         <v>4</v>
       </c>
     </row>
@@ -16917,7 +16943,7 @@
       <c r="C1104" t="s">
         <v>9</v>
       </c>
-      <c r="D1104" s="7">
+      <c r="D1104">
         <v>4</v>
       </c>
     </row>
@@ -16931,7 +16957,7 @@
       <c r="C1105" t="s">
         <v>10</v>
       </c>
-      <c r="D1105" s="7">
+      <c r="D1105">
         <v>4</v>
       </c>
     </row>
@@ -16962,7 +16988,7 @@
       <c r="C1107" t="s">
         <v>7</v>
       </c>
-      <c r="D1107" s="7">
+      <c r="D1107">
         <v>5</v>
       </c>
     </row>
@@ -16976,7 +17002,7 @@
       <c r="C1108" t="s">
         <v>8</v>
       </c>
-      <c r="D1108" s="7">
+      <c r="D1108">
         <v>4</v>
       </c>
     </row>
@@ -16990,7 +17016,7 @@
       <c r="C1109" t="s">
         <v>9</v>
       </c>
-      <c r="D1109" s="7">
+      <c r="D1109">
         <v>4</v>
       </c>
     </row>
@@ -17004,7 +17030,7 @@
       <c r="C1110" t="s">
         <v>10</v>
       </c>
-      <c r="D1110" s="7">
+      <c r="D1110">
         <v>3</v>
       </c>
     </row>
@@ -17035,7 +17061,7 @@
       <c r="C1112" t="s">
         <v>7</v>
       </c>
-      <c r="D1112" s="7">
+      <c r="D1112">
         <v>5</v>
       </c>
     </row>
@@ -17049,7 +17075,7 @@
       <c r="C1113" t="s">
         <v>8</v>
       </c>
-      <c r="D1113" s="7">
+      <c r="D1113">
         <v>3</v>
       </c>
     </row>
@@ -17063,7 +17089,7 @@
       <c r="C1114" t="s">
         <v>9</v>
       </c>
-      <c r="D1114" s="7">
+      <c r="D1114">
         <v>3</v>
       </c>
     </row>
@@ -17077,7 +17103,7 @@
       <c r="C1115" t="s">
         <v>10</v>
       </c>
-      <c r="D1115" s="7">
+      <c r="D1115">
         <v>5</v>
       </c>
     </row>
@@ -17108,7 +17134,7 @@
       <c r="C1117" t="s">
         <v>7</v>
       </c>
-      <c r="D1117" s="7">
+      <c r="D1117">
         <v>4</v>
       </c>
     </row>
@@ -17122,7 +17148,7 @@
       <c r="C1118" t="s">
         <v>8</v>
       </c>
-      <c r="D1118" s="7">
+      <c r="D1118">
         <v>3</v>
       </c>
     </row>
@@ -17136,7 +17162,7 @@
       <c r="C1119" t="s">
         <v>9</v>
       </c>
-      <c r="D1119" s="7">
+      <c r="D1119">
         <v>4</v>
       </c>
     </row>
@@ -17150,7 +17176,7 @@
       <c r="C1120" t="s">
         <v>10</v>
       </c>
-      <c r="D1120" s="7">
+      <c r="D1120">
         <v>5</v>
       </c>
     </row>
@@ -17181,7 +17207,7 @@
       <c r="C1122" t="s">
         <v>7</v>
       </c>
-      <c r="D1122" s="7">
+      <c r="D1122">
         <v>5</v>
       </c>
     </row>
@@ -17195,7 +17221,7 @@
       <c r="C1123" t="s">
         <v>8</v>
       </c>
-      <c r="D1123" s="7">
+      <c r="D1123">
         <v>3</v>
       </c>
     </row>
@@ -17209,7 +17235,7 @@
       <c r="C1124" t="s">
         <v>9</v>
       </c>
-      <c r="D1124" s="7">
+      <c r="D1124">
         <v>3</v>
       </c>
     </row>
@@ -17223,7 +17249,7 @@
       <c r="C1125" t="s">
         <v>10</v>
       </c>
-      <c r="D1125" s="7">
+      <c r="D1125">
         <v>5</v>
       </c>
     </row>
@@ -17254,7 +17280,7 @@
       <c r="C1127" t="s">
         <v>7</v>
       </c>
-      <c r="D1127" s="7">
+      <c r="D1127">
         <v>5</v>
       </c>
     </row>
@@ -17268,7 +17294,7 @@
       <c r="C1128" t="s">
         <v>8</v>
       </c>
-      <c r="D1128" s="7">
+      <c r="D1128">
         <v>4</v>
       </c>
     </row>
@@ -17282,7 +17308,7 @@
       <c r="C1129" t="s">
         <v>9</v>
       </c>
-      <c r="D1129" s="7">
+      <c r="D1129">
         <v>3</v>
       </c>
     </row>
@@ -17296,7 +17322,7 @@
       <c r="C1130" t="s">
         <v>10</v>
       </c>
-      <c r="D1130" s="7">
+      <c r="D1130">
         <v>3</v>
       </c>
     </row>
@@ -17327,7 +17353,7 @@
       <c r="C1132" t="s">
         <v>7</v>
       </c>
-      <c r="D1132" s="7">
+      <c r="D1132">
         <v>5</v>
       </c>
     </row>
@@ -17341,7 +17367,7 @@
       <c r="C1133" t="s">
         <v>8</v>
       </c>
-      <c r="D1133" s="7">
+      <c r="D1133">
         <v>3</v>
       </c>
     </row>
@@ -17355,7 +17381,7 @@
       <c r="C1134" t="s">
         <v>9</v>
       </c>
-      <c r="D1134" s="7">
+      <c r="D1134">
         <v>4</v>
       </c>
     </row>
@@ -17369,7 +17395,7 @@
       <c r="C1135" t="s">
         <v>10</v>
       </c>
-      <c r="D1135" s="7">
+      <c r="D1135">
         <v>4</v>
       </c>
     </row>
@@ -17400,7 +17426,7 @@
       <c r="C1137" t="s">
         <v>7</v>
       </c>
-      <c r="D1137" s="7">
+      <c r="D1137">
         <v>5</v>
       </c>
     </row>
@@ -17414,7 +17440,7 @@
       <c r="C1138" t="s">
         <v>8</v>
       </c>
-      <c r="D1138" s="7">
+      <c r="D1138">
         <v>4</v>
       </c>
     </row>
@@ -17428,7 +17454,7 @@
       <c r="C1139" t="s">
         <v>9</v>
       </c>
-      <c r="D1139" s="7">
+      <c r="D1139">
         <v>3</v>
       </c>
     </row>
@@ -17442,7 +17468,7 @@
       <c r="C1140" t="s">
         <v>10</v>
       </c>
-      <c r="D1140" s="7">
+      <c r="D1140">
         <v>4</v>
       </c>
     </row>
@@ -17473,7 +17499,7 @@
       <c r="C1142" t="s">
         <v>7</v>
       </c>
-      <c r="D1142" s="7">
+      <c r="D1142">
         <v>5</v>
       </c>
     </row>
@@ -17487,7 +17513,7 @@
       <c r="C1143" t="s">
         <v>8</v>
       </c>
-      <c r="D1143" s="7">
+      <c r="D1143">
         <v>4</v>
       </c>
     </row>
@@ -17501,7 +17527,7 @@
       <c r="C1144" t="s">
         <v>9</v>
       </c>
-      <c r="D1144" s="7">
+      <c r="D1144">
         <v>4</v>
       </c>
     </row>
@@ -17515,7 +17541,7 @@
       <c r="C1145" t="s">
         <v>10</v>
       </c>
-      <c r="D1145" s="7">
+      <c r="D1145">
         <v>3</v>
       </c>
     </row>
@@ -17546,7 +17572,7 @@
       <c r="C1147" t="s">
         <v>7</v>
       </c>
-      <c r="D1147" s="7">
+      <c r="D1147">
         <v>5</v>
       </c>
     </row>
@@ -17560,7 +17586,7 @@
       <c r="C1148" t="s">
         <v>8</v>
       </c>
-      <c r="D1148" s="7">
+      <c r="D1148">
         <v>4</v>
       </c>
     </row>
@@ -17574,7 +17600,7 @@
       <c r="C1149" t="s">
         <v>9</v>
       </c>
-      <c r="D1149" s="7">
+      <c r="D1149">
         <v>2</v>
       </c>
     </row>
@@ -17588,7 +17614,7 @@
       <c r="C1150" t="s">
         <v>10</v>
       </c>
-      <c r="D1150" s="7">
+      <c r="D1150">
         <v>1</v>
       </c>
     </row>
@@ -17619,7 +17645,7 @@
       <c r="C1152" t="s">
         <v>7</v>
       </c>
-      <c r="D1152" s="7">
+      <c r="D1152">
         <v>5</v>
       </c>
     </row>
@@ -17633,7 +17659,7 @@
       <c r="C1153" t="s">
         <v>8</v>
       </c>
-      <c r="D1153" s="7">
+      <c r="D1153">
         <v>4</v>
       </c>
     </row>
@@ -17647,7 +17673,7 @@
       <c r="C1154" t="s">
         <v>9</v>
       </c>
-      <c r="D1154" s="7">
+      <c r="D1154">
         <v>3</v>
       </c>
     </row>
@@ -17661,7 +17687,7 @@
       <c r="C1155" t="s">
         <v>10</v>
       </c>
-      <c r="D1155" s="7">
+      <c r="D1155">
         <v>3</v>
       </c>
     </row>
@@ -17692,7 +17718,7 @@
       <c r="C1157" t="s">
         <v>7</v>
       </c>
-      <c r="D1157" s="7">
+      <c r="D1157">
         <v>5</v>
       </c>
     </row>
@@ -17706,7 +17732,7 @@
       <c r="C1158" t="s">
         <v>8</v>
       </c>
-      <c r="D1158" s="7">
+      <c r="D1158">
         <v>4</v>
       </c>
     </row>
@@ -17720,7 +17746,7 @@
       <c r="C1159" t="s">
         <v>9</v>
       </c>
-      <c r="D1159" s="7">
+      <c r="D1159">
         <v>1</v>
       </c>
     </row>
@@ -17734,7 +17760,7 @@
       <c r="C1160" t="s">
         <v>10</v>
       </c>
-      <c r="D1160" s="7">
+      <c r="D1160">
         <v>2</v>
       </c>
     </row>
@@ -17765,7 +17791,7 @@
       <c r="C1162" t="s">
         <v>7</v>
       </c>
-      <c r="D1162" s="7">
+      <c r="D1162">
         <v>5</v>
       </c>
     </row>
@@ -17779,7 +17805,7 @@
       <c r="C1163" t="s">
         <v>8</v>
       </c>
-      <c r="D1163" s="7">
+      <c r="D1163">
         <v>4</v>
       </c>
     </row>
@@ -17793,7 +17819,7 @@
       <c r="C1164" t="s">
         <v>9</v>
       </c>
-      <c r="D1164" s="7">
+      <c r="D1164">
         <v>4</v>
       </c>
     </row>
@@ -17807,7 +17833,7 @@
       <c r="C1165" t="s">
         <v>10</v>
       </c>
-      <c r="D1165" s="7">
+      <c r="D1165">
         <v>2</v>
       </c>
     </row>
@@ -17838,7 +17864,7 @@
       <c r="C1167" t="s">
         <v>7</v>
       </c>
-      <c r="D1167" s="7">
+      <c r="D1167">
         <v>4</v>
       </c>
     </row>
@@ -17852,7 +17878,7 @@
       <c r="C1168" t="s">
         <v>8</v>
       </c>
-      <c r="D1168" s="7">
+      <c r="D1168">
         <v>3</v>
       </c>
     </row>
@@ -17866,7 +17892,7 @@
       <c r="C1169" t="s">
         <v>9</v>
       </c>
-      <c r="D1169" s="7">
+      <c r="D1169">
         <v>4</v>
       </c>
     </row>
@@ -17880,7 +17906,7 @@
       <c r="C1170" t="s">
         <v>10</v>
       </c>
-      <c r="D1170" s="7">
+      <c r="D1170">
         <v>4</v>
       </c>
     </row>
@@ -17911,7 +17937,7 @@
       <c r="C1172" t="s">
         <v>7</v>
       </c>
-      <c r="D1172" s="7">
+      <c r="D1172">
         <v>4</v>
       </c>
     </row>
@@ -17925,7 +17951,7 @@
       <c r="C1173" t="s">
         <v>8</v>
       </c>
-      <c r="D1173" s="7">
+      <c r="D1173">
         <v>4</v>
       </c>
     </row>
@@ -17939,7 +17965,7 @@
       <c r="C1174" t="s">
         <v>9</v>
       </c>
-      <c r="D1174" s="7">
+      <c r="D1174">
         <v>3</v>
       </c>
     </row>
@@ -17953,7 +17979,7 @@
       <c r="C1175" t="s">
         <v>10</v>
       </c>
-      <c r="D1175" s="7">
+      <c r="D1175">
         <v>4</v>
       </c>
     </row>
@@ -17984,7 +18010,7 @@
       <c r="C1177" t="s">
         <v>7</v>
       </c>
-      <c r="D1177" s="7">
+      <c r="D1177">
         <v>5</v>
       </c>
     </row>
@@ -17998,7 +18024,7 @@
       <c r="C1178" t="s">
         <v>8</v>
       </c>
-      <c r="D1178" s="7">
+      <c r="D1178">
         <v>5</v>
       </c>
     </row>
@@ -18012,7 +18038,7 @@
       <c r="C1179" t="s">
         <v>9</v>
       </c>
-      <c r="D1179" s="7">
+      <c r="D1179">
         <v>4</v>
       </c>
     </row>
@@ -18026,7 +18052,7 @@
       <c r="C1180" t="s">
         <v>10</v>
       </c>
-      <c r="D1180" s="7">
+      <c r="D1180">
         <v>3</v>
       </c>
     </row>
@@ -18057,7 +18083,7 @@
       <c r="C1182" t="s">
         <v>7</v>
       </c>
-      <c r="D1182" s="7">
+      <c r="D1182">
         <v>4</v>
       </c>
     </row>
@@ -18071,7 +18097,7 @@
       <c r="C1183" t="s">
         <v>8</v>
       </c>
-      <c r="D1183" s="7">
+      <c r="D1183">
         <v>4</v>
       </c>
     </row>
@@ -18130,7 +18156,7 @@
       <c r="C1187" t="s">
         <v>7</v>
       </c>
-      <c r="D1187" s="7">
+      <c r="D1187">
         <v>5</v>
       </c>
     </row>
@@ -18144,7 +18170,7 @@
       <c r="C1188" t="s">
         <v>8</v>
       </c>
-      <c r="D1188" s="7">
+      <c r="D1188">
         <v>4</v>
       </c>
     </row>
@@ -18158,7 +18184,7 @@
       <c r="C1189" t="s">
         <v>9</v>
       </c>
-      <c r="D1189" s="7">
+      <c r="D1189">
         <v>2</v>
       </c>
     </row>
@@ -18172,7 +18198,7 @@
       <c r="C1190" t="s">
         <v>10</v>
       </c>
-      <c r="D1190" s="7">
+      <c r="D1190">
         <v>4</v>
       </c>
     </row>
@@ -18203,7 +18229,7 @@
       <c r="C1192" t="s">
         <v>7</v>
       </c>
-      <c r="D1192" s="7">
+      <c r="D1192">
         <v>5</v>
       </c>
     </row>
@@ -18217,7 +18243,7 @@
       <c r="C1193" t="s">
         <v>8</v>
       </c>
-      <c r="D1193" s="7">
+      <c r="D1193">
         <v>5</v>
       </c>
     </row>
@@ -18231,7 +18257,7 @@
       <c r="C1194" t="s">
         <v>9</v>
       </c>
-      <c r="D1194" s="7">
+      <c r="D1194">
         <v>4</v>
       </c>
     </row>
@@ -18245,7 +18271,7 @@
       <c r="C1195" t="s">
         <v>10</v>
       </c>
-      <c r="D1195" s="7">
+      <c r="D1195">
         <v>3</v>
       </c>
     </row>
@@ -18276,7 +18302,7 @@
       <c r="C1197" t="s">
         <v>7</v>
       </c>
-      <c r="D1197" s="7">
+      <c r="D1197">
         <v>4</v>
       </c>
     </row>
@@ -18290,7 +18316,7 @@
       <c r="C1198" t="s">
         <v>8</v>
       </c>
-      <c r="D1198" s="7">
+      <c r="D1198">
         <v>5</v>
       </c>
     </row>
@@ -18304,7 +18330,7 @@
       <c r="C1199" t="s">
         <v>9</v>
       </c>
-      <c r="D1199" s="7">
+      <c r="D1199">
         <v>2</v>
       </c>
     </row>
@@ -18318,7 +18344,7 @@
       <c r="C1200" t="s">
         <v>10</v>
       </c>
-      <c r="D1200" s="7">
+      <c r="D1200">
         <v>3</v>
       </c>
     </row>
@@ -18349,7 +18375,7 @@
       <c r="C1202" t="s">
         <v>7</v>
       </c>
-      <c r="D1202" s="7">
+      <c r="D1202">
         <v>3</v>
       </c>
     </row>
@@ -18363,7 +18389,7 @@
       <c r="C1203" t="s">
         <v>8</v>
       </c>
-      <c r="D1203" s="7">
+      <c r="D1203">
         <v>3</v>
       </c>
     </row>
@@ -18377,7 +18403,7 @@
       <c r="C1204" t="s">
         <v>9</v>
       </c>
-      <c r="D1204" s="7">
+      <c r="D1204">
         <v>3</v>
       </c>
     </row>
@@ -18391,7 +18417,7 @@
       <c r="C1205" t="s">
         <v>10</v>
       </c>
-      <c r="D1205" s="7">
+      <c r="D1205">
         <v>3</v>
       </c>
     </row>
@@ -18422,7 +18448,7 @@
       <c r="C1207" t="s">
         <v>7</v>
       </c>
-      <c r="D1207" s="7">
+      <c r="D1207">
         <v>3</v>
       </c>
     </row>
@@ -18436,7 +18462,7 @@
       <c r="C1208" t="s">
         <v>8</v>
       </c>
-      <c r="D1208" s="7">
+      <c r="D1208">
         <v>2</v>
       </c>
     </row>
@@ -18450,7 +18476,7 @@
       <c r="C1209" t="s">
         <v>9</v>
       </c>
-      <c r="D1209" s="7">
+      <c r="D1209">
         <v>4</v>
       </c>
     </row>
@@ -18464,7 +18490,7 @@
       <c r="C1210" t="s">
         <v>10</v>
       </c>
-      <c r="D1210" s="7">
+      <c r="D1210">
         <v>2</v>
       </c>
     </row>
@@ -18495,7 +18521,7 @@
       <c r="C1212" t="s">
         <v>7</v>
       </c>
-      <c r="D1212" s="7">
+      <c r="D1212">
         <v>3</v>
       </c>
     </row>
@@ -18509,7 +18535,7 @@
       <c r="C1213" t="s">
         <v>8</v>
       </c>
-      <c r="D1213" s="7">
+      <c r="D1213">
         <v>3</v>
       </c>
     </row>
@@ -18523,7 +18549,7 @@
       <c r="C1214" t="s">
         <v>9</v>
       </c>
-      <c r="D1214" s="7">
+      <c r="D1214">
         <v>2</v>
       </c>
     </row>
@@ -18537,7 +18563,7 @@
       <c r="C1215" t="s">
         <v>10</v>
       </c>
-      <c r="D1215" s="7">
+      <c r="D1215">
         <v>3</v>
       </c>
     </row>
@@ -18568,7 +18594,7 @@
       <c r="C1217" t="s">
         <v>7</v>
       </c>
-      <c r="D1217" s="7">
+      <c r="D1217">
         <v>4</v>
       </c>
     </row>
@@ -18582,7 +18608,7 @@
       <c r="C1218" t="s">
         <v>8</v>
       </c>
-      <c r="D1218" s="7">
+      <c r="D1218">
         <v>5</v>
       </c>
     </row>
@@ -18596,7 +18622,7 @@
       <c r="C1219" t="s">
         <v>9</v>
       </c>
-      <c r="D1219" s="7">
+      <c r="D1219">
         <v>3</v>
       </c>
     </row>
@@ -18610,7 +18636,7 @@
       <c r="C1220" t="s">
         <v>10</v>
       </c>
-      <c r="D1220" s="7">
+      <c r="D1220">
         <v>3</v>
       </c>
     </row>
@@ -18641,7 +18667,7 @@
       <c r="C1222" t="s">
         <v>7</v>
       </c>
-      <c r="D1222" s="7">
+      <c r="D1222">
         <v>5</v>
       </c>
     </row>
@@ -18655,7 +18681,7 @@
       <c r="C1223" t="s">
         <v>8</v>
       </c>
-      <c r="D1223" s="7">
+      <c r="D1223">
         <v>5</v>
       </c>
     </row>
@@ -18669,7 +18695,7 @@
       <c r="C1224" t="s">
         <v>9</v>
       </c>
-      <c r="D1224" s="7">
+      <c r="D1224">
         <v>4</v>
       </c>
     </row>
@@ -18683,7 +18709,7 @@
       <c r="C1225" t="s">
         <v>10</v>
       </c>
-      <c r="D1225" s="7">
+      <c r="D1225">
         <v>2</v>
       </c>
     </row>
@@ -18714,7 +18740,7 @@
       <c r="C1227" t="s">
         <v>7</v>
       </c>
-      <c r="D1227" s="7">
+      <c r="D1227">
         <v>5</v>
       </c>
     </row>
@@ -18728,7 +18754,7 @@
       <c r="C1228" t="s">
         <v>8</v>
       </c>
-      <c r="D1228" s="7">
+      <c r="D1228">
         <v>5</v>
       </c>
     </row>
@@ -18742,7 +18768,7 @@
       <c r="C1229" t="s">
         <v>9</v>
       </c>
-      <c r="D1229" s="7">
+      <c r="D1229">
         <v>3</v>
       </c>
     </row>
@@ -18756,7 +18782,7 @@
       <c r="C1230" t="s">
         <v>10</v>
       </c>
-      <c r="D1230" s="7">
+      <c r="D1230">
         <v>2</v>
       </c>
     </row>
@@ -18787,7 +18813,7 @@
       <c r="C1232" t="s">
         <v>7</v>
       </c>
-      <c r="D1232" s="7">
+      <c r="D1232">
         <v>3</v>
       </c>
     </row>
@@ -18801,7 +18827,7 @@
       <c r="C1233" t="s">
         <v>8</v>
       </c>
-      <c r="D1233" s="7">
+      <c r="D1233">
         <v>4</v>
       </c>
     </row>
@@ -18815,7 +18841,7 @@
       <c r="C1234" t="s">
         <v>9</v>
       </c>
-      <c r="D1234" s="7">
+      <c r="D1234">
         <v>3</v>
       </c>
     </row>
@@ -18829,7 +18855,7 @@
       <c r="C1235" t="s">
         <v>10</v>
       </c>
-      <c r="D1235" s="7">
+      <c r="D1235">
         <v>3</v>
       </c>
     </row>
@@ -18860,7 +18886,7 @@
       <c r="C1237" t="s">
         <v>7</v>
       </c>
-      <c r="D1237" s="7">
+      <c r="D1237">
         <v>2</v>
       </c>
     </row>
@@ -18874,7 +18900,7 @@
       <c r="C1238" t="s">
         <v>8</v>
       </c>
-      <c r="D1238" s="7">
+      <c r="D1238">
         <v>4</v>
       </c>
     </row>
@@ -18888,7 +18914,7 @@
       <c r="C1239" t="s">
         <v>9</v>
       </c>
-      <c r="D1239" s="7">
+      <c r="D1239">
         <v>3</v>
       </c>
     </row>
@@ -18902,7 +18928,7 @@
       <c r="C1240" t="s">
         <v>10</v>
       </c>
-      <c r="D1240" s="7">
+      <c r="D1240">
         <v>3</v>
       </c>
     </row>
@@ -18933,7 +18959,7 @@
       <c r="C1242" t="s">
         <v>7</v>
       </c>
-      <c r="D1242" s="7">
+      <c r="D1242">
         <v>3</v>
       </c>
     </row>
@@ -18947,7 +18973,7 @@
       <c r="C1243" t="s">
         <v>8</v>
       </c>
-      <c r="D1243" s="7">
+      <c r="D1243">
         <v>3</v>
       </c>
     </row>
@@ -18961,7 +18987,7 @@
       <c r="C1244" t="s">
         <v>9</v>
       </c>
-      <c r="D1244" s="7">
+      <c r="D1244">
         <v>3</v>
       </c>
     </row>
@@ -18975,7 +19001,7 @@
       <c r="C1245" t="s">
         <v>10</v>
       </c>
-      <c r="D1245" s="7">
+      <c r="D1245">
         <v>3</v>
       </c>
     </row>
@@ -19006,7 +19032,7 @@
       <c r="C1247" t="s">
         <v>7</v>
       </c>
-      <c r="D1247" s="7">
+      <c r="D1247">
         <v>4</v>
       </c>
     </row>
@@ -19020,7 +19046,7 @@
       <c r="C1248" t="s">
         <v>8</v>
       </c>
-      <c r="D1248" s="7">
+      <c r="D1248">
         <v>4</v>
       </c>
     </row>
@@ -19034,7 +19060,7 @@
       <c r="C1249" t="s">
         <v>9</v>
       </c>
-      <c r="D1249" s="7">
+      <c r="D1249">
         <v>3</v>
       </c>
     </row>
@@ -19048,7 +19074,7 @@
       <c r="C1250" t="s">
         <v>10</v>
       </c>
-      <c r="D1250" s="7">
+      <c r="D1250">
         <v>4</v>
       </c>
     </row>
@@ -19079,7 +19105,7 @@
       <c r="C1252" t="s">
         <v>7</v>
       </c>
-      <c r="D1252" s="7">
+      <c r="D1252">
         <v>4</v>
       </c>
     </row>
@@ -19093,7 +19119,7 @@
       <c r="C1253" t="s">
         <v>8</v>
       </c>
-      <c r="D1253" s="7">
+      <c r="D1253">
         <v>4</v>
       </c>
     </row>
@@ -19107,7 +19133,7 @@
       <c r="C1254" t="s">
         <v>9</v>
       </c>
-      <c r="D1254" s="7">
+      <c r="D1254">
         <v>3</v>
       </c>
     </row>
@@ -19121,7 +19147,7 @@
       <c r="C1255" t="s">
         <v>10</v>
       </c>
-      <c r="D1255" s="7">
+      <c r="D1255">
         <v>2</v>
       </c>
     </row>
@@ -19152,7 +19178,7 @@
       <c r="C1257" t="s">
         <v>7</v>
       </c>
-      <c r="D1257" s="7">
+      <c r="D1257">
         <v>4</v>
       </c>
     </row>
@@ -19166,7 +19192,7 @@
       <c r="C1258" t="s">
         <v>8</v>
       </c>
-      <c r="D1258" s="7">
+      <c r="D1258">
         <v>4</v>
       </c>
     </row>
@@ -19180,7 +19206,7 @@
       <c r="C1259" t="s">
         <v>9</v>
       </c>
-      <c r="D1259" s="7">
+      <c r="D1259">
         <v>3</v>
       </c>
     </row>
@@ -19194,7 +19220,7 @@
       <c r="C1260" t="s">
         <v>10</v>
       </c>
-      <c r="D1260" s="7">
+      <c r="D1260">
         <v>2</v>
       </c>
     </row>
@@ -19225,7 +19251,7 @@
       <c r="C1262" t="s">
         <v>7</v>
       </c>
-      <c r="D1262" s="7">
+      <c r="D1262">
         <v>4</v>
       </c>
     </row>
@@ -19239,7 +19265,7 @@
       <c r="C1263" t="s">
         <v>8</v>
       </c>
-      <c r="D1263" s="7">
+      <c r="D1263">
         <v>5</v>
       </c>
     </row>
@@ -19253,7 +19279,7 @@
       <c r="C1264" t="s">
         <v>9</v>
       </c>
-      <c r="D1264" s="7">
+      <c r="D1264">
         <v>2</v>
       </c>
     </row>
@@ -19267,7 +19293,7 @@
       <c r="C1265" t="s">
         <v>10</v>
       </c>
-      <c r="D1265" s="7">
+      <c r="D1265">
         <v>4</v>
       </c>
     </row>
@@ -19298,7 +19324,7 @@
       <c r="C1267" t="s">
         <v>7</v>
       </c>
-      <c r="D1267" s="7">
+      <c r="D1267">
         <v>2</v>
       </c>
     </row>
@@ -19312,7 +19338,7 @@
       <c r="C1268" t="s">
         <v>8</v>
       </c>
-      <c r="D1268" s="7">
+      <c r="D1268">
         <v>2</v>
       </c>
     </row>
@@ -19326,7 +19352,7 @@
       <c r="C1269" t="s">
         <v>9</v>
       </c>
-      <c r="D1269" s="7">
+      <c r="D1269">
         <v>2</v>
       </c>
     </row>
@@ -19340,7 +19366,7 @@
       <c r="C1270" t="s">
         <v>10</v>
       </c>
-      <c r="D1270" s="7">
+      <c r="D1270">
         <v>3</v>
       </c>
     </row>
@@ -19371,7 +19397,7 @@
       <c r="C1272" t="s">
         <v>7</v>
       </c>
-      <c r="D1272" s="7">
+      <c r="D1272">
         <v>4</v>
       </c>
     </row>
@@ -19385,7 +19411,7 @@
       <c r="C1273" t="s">
         <v>8</v>
       </c>
-      <c r="D1273" s="7">
+      <c r="D1273">
         <v>1</v>
       </c>
     </row>
@@ -19399,7 +19425,7 @@
       <c r="C1274" t="s">
         <v>9</v>
       </c>
-      <c r="D1274" s="7">
+      <c r="D1274">
         <v>2</v>
       </c>
     </row>
@@ -19413,7 +19439,7 @@
       <c r="C1275" t="s">
         <v>10</v>
       </c>
-      <c r="D1275" s="7">
+      <c r="D1275">
         <v>4</v>
       </c>
     </row>
@@ -19444,7 +19470,7 @@
       <c r="C1277" t="s">
         <v>7</v>
       </c>
-      <c r="D1277" s="7">
+      <c r="D1277">
         <v>5</v>
       </c>
     </row>
@@ -19458,7 +19484,7 @@
       <c r="C1278" t="s">
         <v>8</v>
       </c>
-      <c r="D1278" s="7">
+      <c r="D1278">
         <v>5</v>
       </c>
     </row>
@@ -19472,7 +19498,7 @@
       <c r="C1279" t="s">
         <v>9</v>
       </c>
-      <c r="D1279" s="7">
+      <c r="D1279">
         <v>3</v>
       </c>
     </row>
@@ -19486,7 +19512,7 @@
       <c r="C1280" t="s">
         <v>10</v>
       </c>
-      <c r="D1280" s="7">
+      <c r="D1280">
         <v>3</v>
       </c>
     </row>
@@ -19517,7 +19543,7 @@
       <c r="C1282" t="s">
         <v>7</v>
       </c>
-      <c r="D1282" s="7">
+      <c r="D1282">
         <v>5</v>
       </c>
     </row>
@@ -19531,7 +19557,7 @@
       <c r="C1283" t="s">
         <v>8</v>
       </c>
-      <c r="D1283" s="7">
+      <c r="D1283">
         <v>4</v>
       </c>
     </row>
@@ -19545,7 +19571,7 @@
       <c r="C1284" t="s">
         <v>9</v>
       </c>
-      <c r="D1284" s="7">
+      <c r="D1284">
         <v>2</v>
       </c>
     </row>
@@ -19559,7 +19585,7 @@
       <c r="C1285" t="s">
         <v>10</v>
       </c>
-      <c r="D1285" s="7">
+      <c r="D1285">
         <v>2</v>
       </c>
     </row>
@@ -19590,7 +19616,7 @@
       <c r="C1287" t="s">
         <v>7</v>
       </c>
-      <c r="D1287" s="7">
+      <c r="D1287">
         <v>5</v>
       </c>
     </row>
@@ -19604,7 +19630,7 @@
       <c r="C1288" t="s">
         <v>8</v>
       </c>
-      <c r="D1288" s="7">
+      <c r="D1288">
         <v>4</v>
       </c>
     </row>
@@ -19618,7 +19644,7 @@
       <c r="C1289" t="s">
         <v>9</v>
       </c>
-      <c r="D1289" s="7">
+      <c r="D1289">
         <v>3</v>
       </c>
     </row>
@@ -19632,7 +19658,7 @@
       <c r="C1290" t="s">
         <v>10</v>
       </c>
-      <c r="D1290" s="7">
+      <c r="D1290">
         <v>3</v>
       </c>
     </row>
@@ -19663,7 +19689,7 @@
       <c r="C1292" t="s">
         <v>7</v>
       </c>
-      <c r="D1292" s="7">
+      <c r="D1292">
         <v>2</v>
       </c>
     </row>
@@ -19677,7 +19703,7 @@
       <c r="C1293" t="s">
         <v>8</v>
       </c>
-      <c r="D1293" s="7">
+      <c r="D1293">
         <v>2</v>
       </c>
     </row>
@@ -19691,7 +19717,7 @@
       <c r="C1294" t="s">
         <v>9</v>
       </c>
-      <c r="D1294" s="7">
+      <c r="D1294">
         <v>3</v>
       </c>
     </row>
@@ -19705,7 +19731,7 @@
       <c r="C1295" t="s">
         <v>10</v>
       </c>
-      <c r="D1295" s="7">
+      <c r="D1295">
         <v>2</v>
       </c>
     </row>
@@ -19736,7 +19762,7 @@
       <c r="C1297" t="s">
         <v>7</v>
       </c>
-      <c r="D1297" s="7">
+      <c r="D1297">
         <v>2</v>
       </c>
     </row>
@@ -19750,7 +19776,7 @@
       <c r="C1298" t="s">
         <v>8</v>
       </c>
-      <c r="D1298" s="7">
+      <c r="D1298">
         <v>3</v>
       </c>
     </row>
@@ -19764,7 +19790,7 @@
       <c r="C1299" t="s">
         <v>9</v>
       </c>
-      <c r="D1299" s="7">
+      <c r="D1299">
         <v>4</v>
       </c>
     </row>
@@ -19778,7 +19804,7 @@
       <c r="C1300" t="s">
         <v>10</v>
       </c>
-      <c r="D1300" s="7">
+      <c r="D1300">
         <v>3</v>
       </c>
     </row>
@@ -19809,7 +19835,7 @@
       <c r="C1302" t="s">
         <v>7</v>
       </c>
-      <c r="D1302" s="7">
+      <c r="D1302">
         <v>2</v>
       </c>
     </row>
@@ -19823,7 +19849,7 @@
       <c r="C1303" t="s">
         <v>8</v>
       </c>
-      <c r="D1303" s="7">
+      <c r="D1303">
         <v>3</v>
       </c>
     </row>
@@ -19837,7 +19863,7 @@
       <c r="C1304" t="s">
         <v>9</v>
       </c>
-      <c r="D1304" s="7">
+      <c r="D1304">
         <v>4</v>
       </c>
     </row>
@@ -19851,7 +19877,7 @@
       <c r="C1305" t="s">
         <v>10</v>
       </c>
-      <c r="D1305" s="7">
+      <c r="D1305">
         <v>3</v>
       </c>
     </row>
@@ -19882,7 +19908,7 @@
       <c r="C1307" t="s">
         <v>7</v>
       </c>
-      <c r="D1307" s="7">
+      <c r="D1307">
         <v>5</v>
       </c>
     </row>
@@ -19896,7 +19922,7 @@
       <c r="C1308" t="s">
         <v>8</v>
       </c>
-      <c r="D1308" s="7">
+      <c r="D1308">
         <v>2</v>
       </c>
     </row>
@@ -19910,7 +19936,7 @@
       <c r="C1309" t="s">
         <v>9</v>
       </c>
-      <c r="D1309" s="7">
+      <c r="D1309">
         <v>5</v>
       </c>
     </row>
@@ -19924,7 +19950,7 @@
       <c r="C1310" t="s">
         <v>10</v>
       </c>
-      <c r="D1310" s="7">
+      <c r="D1310">
         <v>3</v>
       </c>
     </row>
@@ -19955,7 +19981,7 @@
       <c r="C1312" t="s">
         <v>7</v>
       </c>
-      <c r="D1312" s="7">
+      <c r="D1312">
         <v>3</v>
       </c>
     </row>
@@ -19969,7 +19995,7 @@
       <c r="C1313" t="s">
         <v>8</v>
       </c>
-      <c r="D1313" s="7">
+      <c r="D1313">
         <v>5</v>
       </c>
     </row>
@@ -19983,7 +20009,7 @@
       <c r="C1314" t="s">
         <v>9</v>
       </c>
-      <c r="D1314" s="7">
+      <c r="D1314">
         <v>5</v>
       </c>
     </row>
@@ -19997,7 +20023,7 @@
       <c r="C1315" t="s">
         <v>10</v>
       </c>
-      <c r="D1315" s="7">
+      <c r="D1315">
         <v>4</v>
       </c>
     </row>
@@ -20028,7 +20054,7 @@
       <c r="C1317" t="s">
         <v>7</v>
       </c>
-      <c r="D1317" s="7">
+      <c r="D1317">
         <v>5</v>
       </c>
     </row>
@@ -20042,7 +20068,7 @@
       <c r="C1318" t="s">
         <v>8</v>
       </c>
-      <c r="D1318" s="7">
+      <c r="D1318">
         <v>4</v>
       </c>
     </row>
@@ -20056,7 +20082,7 @@
       <c r="C1319" t="s">
         <v>9</v>
       </c>
-      <c r="D1319" s="7">
+      <c r="D1319">
         <v>3</v>
       </c>
     </row>
@@ -20070,7 +20096,7 @@
       <c r="C1320" t="s">
         <v>10</v>
       </c>
-      <c r="D1320" s="7">
+      <c r="D1320">
         <v>3</v>
       </c>
     </row>
@@ -20101,7 +20127,7 @@
       <c r="C1322" t="s">
         <v>7</v>
       </c>
-      <c r="D1322" s="7">
+      <c r="D1322">
         <v>3</v>
       </c>
     </row>
@@ -20115,7 +20141,7 @@
       <c r="C1323" t="s">
         <v>8</v>
       </c>
-      <c r="D1323" s="7">
+      <c r="D1323">
         <v>4</v>
       </c>
     </row>
@@ -20129,7 +20155,7 @@
       <c r="C1324" t="s">
         <v>9</v>
       </c>
-      <c r="D1324" s="7">
+      <c r="D1324">
         <v>2</v>
       </c>
     </row>
@@ -20143,7 +20169,7 @@
       <c r="C1325" t="s">
         <v>10</v>
       </c>
-      <c r="D1325" s="7">
+      <c r="D1325">
         <v>3</v>
       </c>
     </row>
@@ -20174,7 +20200,7 @@
       <c r="C1327" t="s">
         <v>7</v>
       </c>
-      <c r="D1327" s="7">
+      <c r="D1327">
         <v>3</v>
       </c>
     </row>
@@ -20188,7 +20214,7 @@
       <c r="C1328" t="s">
         <v>8</v>
       </c>
-      <c r="D1328" s="7">
+      <c r="D1328">
         <v>3</v>
       </c>
     </row>
@@ -20202,7 +20228,7 @@
       <c r="C1329" t="s">
         <v>9</v>
       </c>
-      <c r="D1329" s="7">
+      <c r="D1329">
         <v>2</v>
       </c>
     </row>
@@ -20216,7 +20242,7 @@
       <c r="C1330" t="s">
         <v>10</v>
       </c>
-      <c r="D1330" s="7">
+      <c r="D1330">
         <v>3</v>
       </c>
     </row>
@@ -20247,7 +20273,7 @@
       <c r="C1332" t="s">
         <v>7</v>
       </c>
-      <c r="D1332" s="7">
+      <c r="D1332">
         <v>5</v>
       </c>
     </row>
@@ -20261,7 +20287,7 @@
       <c r="C1333" t="s">
         <v>8</v>
       </c>
-      <c r="D1333" s="7">
+      <c r="D1333">
         <v>2</v>
       </c>
     </row>
@@ -20275,7 +20301,7 @@
       <c r="C1334" t="s">
         <v>9</v>
       </c>
-      <c r="D1334" s="7">
+      <c r="D1334">
         <v>3</v>
       </c>
     </row>
@@ -20289,7 +20315,7 @@
       <c r="C1335" t="s">
         <v>10</v>
       </c>
-      <c r="D1335" s="7">
+      <c r="D1335">
         <v>3</v>
       </c>
     </row>
@@ -20320,7 +20346,7 @@
       <c r="C1337" t="s">
         <v>7</v>
       </c>
-      <c r="D1337" s="7">
+      <c r="D1337">
         <v>4</v>
       </c>
     </row>
@@ -20334,7 +20360,7 @@
       <c r="C1338" t="s">
         <v>8</v>
       </c>
-      <c r="D1338" s="7">
+      <c r="D1338">
         <v>4</v>
       </c>
     </row>
@@ -20348,7 +20374,7 @@
       <c r="C1339" t="s">
         <v>9</v>
       </c>
-      <c r="D1339" s="7">
+      <c r="D1339">
         <v>4</v>
       </c>
     </row>
@@ -20362,7 +20388,7 @@
       <c r="C1340" t="s">
         <v>10</v>
       </c>
-      <c r="D1340" s="7">
+      <c r="D1340">
         <v>3</v>
       </c>
     </row>
@@ -20393,7 +20419,7 @@
       <c r="C1342" t="s">
         <v>7</v>
       </c>
-      <c r="D1342" s="7">
+      <c r="D1342">
         <v>3</v>
       </c>
     </row>
@@ -20407,7 +20433,7 @@
       <c r="C1343" t="s">
         <v>8</v>
       </c>
-      <c r="D1343" s="7">
+      <c r="D1343">
         <v>4</v>
       </c>
     </row>
@@ -20421,7 +20447,7 @@
       <c r="C1344" t="s">
         <v>9</v>
       </c>
-      <c r="D1344" s="7">
+      <c r="D1344">
         <v>5</v>
       </c>
     </row>
@@ -20435,7 +20461,7 @@
       <c r="C1345" t="s">
         <v>10</v>
       </c>
-      <c r="D1345" s="7">
+      <c r="D1345">
         <v>4</v>
       </c>
     </row>
@@ -20466,7 +20492,7 @@
       <c r="C1347" t="s">
         <v>7</v>
       </c>
-      <c r="D1347" s="7">
+      <c r="D1347">
         <v>5</v>
       </c>
     </row>
@@ -20480,7 +20506,7 @@
       <c r="C1348" t="s">
         <v>8</v>
       </c>
-      <c r="D1348" s="7">
+      <c r="D1348">
         <v>5</v>
       </c>
     </row>
@@ -20494,7 +20520,7 @@
       <c r="C1349" t="s">
         <v>9</v>
       </c>
-      <c r="D1349" s="7">
+      <c r="D1349">
         <v>4</v>
       </c>
     </row>
@@ -20508,7 +20534,7 @@
       <c r="C1350" t="s">
         <v>10</v>
       </c>
-      <c r="D1350" s="7">
+      <c r="D1350">
         <v>3</v>
       </c>
     </row>
@@ -20539,7 +20565,7 @@
       <c r="C1352" t="s">
         <v>7</v>
       </c>
-      <c r="D1352" s="7">
+      <c r="D1352">
         <v>3</v>
       </c>
     </row>
@@ -20553,7 +20579,7 @@
       <c r="C1353" t="s">
         <v>8</v>
       </c>
-      <c r="D1353" s="7">
+      <c r="D1353">
         <v>5</v>
       </c>
     </row>
@@ -20567,7 +20593,7 @@
       <c r="C1354" t="s">
         <v>9</v>
       </c>
-      <c r="D1354" s="7">
+      <c r="D1354">
         <v>2</v>
       </c>
     </row>
@@ -20581,7 +20607,7 @@
       <c r="C1355" t="s">
         <v>10</v>
       </c>
-      <c r="D1355" s="7">
+      <c r="D1355">
         <v>4</v>
       </c>
     </row>
@@ -20612,7 +20638,7 @@
       <c r="C1357" t="s">
         <v>7</v>
       </c>
-      <c r="D1357" s="7">
+      <c r="D1357">
         <v>3</v>
       </c>
     </row>
@@ -20626,7 +20652,7 @@
       <c r="C1358" t="s">
         <v>8</v>
       </c>
-      <c r="D1358" s="7">
+      <c r="D1358">
         <v>4</v>
       </c>
     </row>
@@ -20640,7 +20666,7 @@
       <c r="C1359" t="s">
         <v>9</v>
       </c>
-      <c r="D1359" s="7">
+      <c r="D1359">
         <v>2</v>
       </c>
     </row>
@@ -20654,7 +20680,7 @@
       <c r="C1360" t="s">
         <v>10</v>
       </c>
-      <c r="D1360" s="7">
+      <c r="D1360">
         <v>4</v>
       </c>
     </row>
@@ -20685,7 +20711,7 @@
       <c r="C1362" t="s">
         <v>7</v>
       </c>
-      <c r="D1362" s="7">
+      <c r="D1362">
         <v>4</v>
       </c>
     </row>
@@ -20699,7 +20725,7 @@
       <c r="C1363" t="s">
         <v>8</v>
       </c>
-      <c r="D1363" s="7">
+      <c r="D1363">
         <v>3</v>
       </c>
     </row>
@@ -20713,7 +20739,7 @@
       <c r="C1364" t="s">
         <v>9</v>
       </c>
-      <c r="D1364" s="7">
+      <c r="D1364">
         <v>3</v>
       </c>
     </row>
@@ -20727,7 +20753,7 @@
       <c r="C1365" t="s">
         <v>10</v>
       </c>
-      <c r="D1365" s="7">
+      <c r="D1365">
         <v>4</v>
       </c>
     </row>
@@ -20758,7 +20784,7 @@
       <c r="C1367" t="s">
         <v>7</v>
       </c>
-      <c r="D1367" s="7">
+      <c r="D1367">
         <v>5</v>
       </c>
     </row>
@@ -20772,7 +20798,7 @@
       <c r="C1368" t="s">
         <v>8</v>
       </c>
-      <c r="D1368" s="7">
+      <c r="D1368">
         <v>5</v>
       </c>
     </row>
@@ -20786,7 +20812,7 @@
       <c r="C1369" t="s">
         <v>9</v>
       </c>
-      <c r="D1369" s="7">
+      <c r="D1369">
         <v>3</v>
       </c>
     </row>
@@ -20800,7 +20826,7 @@
       <c r="C1370" t="s">
         <v>10</v>
       </c>
-      <c r="D1370" s="7">
+      <c r="D1370">
         <v>4</v>
       </c>
     </row>
@@ -20831,7 +20857,7 @@
       <c r="C1372" t="s">
         <v>7</v>
       </c>
-      <c r="D1372" s="7">
+      <c r="D1372">
         <v>3</v>
       </c>
     </row>
@@ -20845,7 +20871,7 @@
       <c r="C1373" t="s">
         <v>8</v>
       </c>
-      <c r="D1373" s="7">
+      <c r="D1373">
         <v>3</v>
       </c>
     </row>
@@ -20859,7 +20885,7 @@
       <c r="C1374" t="s">
         <v>9</v>
       </c>
-      <c r="D1374" s="7">
+      <c r="D1374">
         <v>3</v>
       </c>
     </row>
@@ -20873,7 +20899,7 @@
       <c r="C1375" t="s">
         <v>10</v>
       </c>
-      <c r="D1375" s="7">
+      <c r="D1375">
         <v>4</v>
       </c>
     </row>
@@ -20904,7 +20930,7 @@
       <c r="C1377" t="s">
         <v>7</v>
       </c>
-      <c r="D1377" s="7">
+      <c r="D1377">
         <v>5</v>
       </c>
     </row>
@@ -20918,7 +20944,7 @@
       <c r="C1378" t="s">
         <v>8</v>
       </c>
-      <c r="D1378" s="7">
+      <c r="D1378">
         <v>5</v>
       </c>
     </row>
@@ -20932,7 +20958,7 @@
       <c r="C1379" t="s">
         <v>9</v>
       </c>
-      <c r="D1379" s="7">
+      <c r="D1379">
         <v>3</v>
       </c>
     </row>
@@ -20946,7 +20972,7 @@
       <c r="C1380" t="s">
         <v>10</v>
       </c>
-      <c r="D1380" s="7">
+      <c r="D1380">
         <v>4</v>
       </c>
     </row>

--- a/Human_anno/humananno_res/lsy_oc.xlsx
+++ b/Human_anno/humananno_res/lsy_oc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AStudying\AI\Niii_1\hopes\HighlyHumanLikeVEB\Human_anno\humananno_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAA721-175D-43A5-B355-A77D6812B2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED811ED-7049-4272-BAE8-1651A05F5939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5772" yWindow="3648" windowWidth="23040" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="103">
   <si>
     <t>Prompt</t>
   </si>
@@ -709,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1381"/>
+  <dimension ref="A1:G1366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A746" workbookViewId="0">
+      <selection activeCell="D760" sqref="D760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15901,7 +15901,7 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B752">
         <v>0</v>
@@ -15921,7 +15921,7 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B753">
         <v>0</v>
@@ -15930,7 +15930,7 @@
         <v>9</v>
       </c>
       <c r="D753">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E753">
         <v>0</v>
@@ -15941,7 +15941,7 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B754">
         <v>0</v>
@@ -15950,7 +15950,7 @@
         <v>10</v>
       </c>
       <c r="D754">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E754">
         <v>0</v>
@@ -15961,7 +15961,7 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B755">
         <v>0</v>
@@ -15981,7 +15981,7 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B756" s="2">
         <v>0</v>
@@ -15990,7 +15990,7 @@
         <v>12</v>
       </c>
       <c r="D756" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E756" s="2">
         <v>0</v>
@@ -16002,7 +16002,7 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B757">
         <v>1</v>
@@ -16011,7 +16011,7 @@
         <v>8</v>
       </c>
       <c r="D757">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E757">
         <v>0</v>
@@ -16022,7 +16022,7 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B758">
         <v>1</v>
@@ -16031,7 +16031,7 @@
         <v>9</v>
       </c>
       <c r="D758">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E758">
         <v>0</v>
@@ -16042,7 +16042,7 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B759">
         <v>1</v>
@@ -16051,7 +16051,7 @@
         <v>10</v>
       </c>
       <c r="D759">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E759">
         <v>0</v>
@@ -16062,7 +16062,7 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B760">
         <v>1</v>
@@ -16071,7 +16071,7 @@
         <v>11</v>
       </c>
       <c r="D760">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E760">
         <v>0</v>
@@ -16082,7 +16082,7 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B761" s="2">
         <v>1</v>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B762">
         <v>2</v>
@@ -16123,7 +16123,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B763">
         <v>2</v>
@@ -16132,7 +16132,7 @@
         <v>9</v>
       </c>
       <c r="D763">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E763">
         <v>0</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B764">
         <v>2</v>
@@ -16152,7 +16152,7 @@
         <v>10</v>
       </c>
       <c r="D764">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E764">
         <v>0</v>
@@ -16163,7 +16163,7 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B765">
         <v>2</v>
@@ -16183,7 +16183,7 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B766" s="2">
         <v>2</v>
@@ -16192,7 +16192,7 @@
         <v>12</v>
       </c>
       <c r="D766" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E766" s="2">
         <v>0</v>
@@ -16204,7 +16204,7 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B767">
         <v>0</v>
@@ -16213,7 +16213,7 @@
         <v>8</v>
       </c>
       <c r="D767">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E767">
         <v>0</v>
@@ -16224,7 +16224,7 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B768">
         <v>0</v>
@@ -16233,7 +16233,7 @@
         <v>9</v>
       </c>
       <c r="D768">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E768">
         <v>0</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B769">
         <v>0</v>
@@ -16253,7 +16253,7 @@
         <v>10</v>
       </c>
       <c r="D769">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E769">
         <v>0</v>
@@ -16264,7 +16264,7 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B770">
         <v>0</v>
@@ -16284,7 +16284,7 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B771" s="2">
         <v>0</v>
@@ -16293,7 +16293,7 @@
         <v>12</v>
       </c>
       <c r="D771" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E771" s="2">
         <v>0</v>
@@ -16305,7 +16305,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B772">
         <v>1</v>
@@ -16314,7 +16314,7 @@
         <v>8</v>
       </c>
       <c r="D772">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E772">
         <v>0</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B773">
         <v>1</v>
@@ -16334,7 +16334,7 @@
         <v>9</v>
       </c>
       <c r="D773">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E773">
         <v>0</v>
@@ -16345,7 +16345,7 @@
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B774">
         <v>1</v>
@@ -16354,7 +16354,7 @@
         <v>10</v>
       </c>
       <c r="D774">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E774">
         <v>0</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B775">
         <v>1</v>
@@ -16374,7 +16374,7 @@
         <v>11</v>
       </c>
       <c r="D775">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E775">
         <v>0</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B776" s="2">
         <v>1</v>
@@ -16394,7 +16394,7 @@
         <v>12</v>
       </c>
       <c r="D776" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E776" s="2">
         <v>0</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B777">
         <v>2</v>
@@ -16426,7 +16426,7 @@
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B778">
         <v>2</v>
@@ -16435,7 +16435,7 @@
         <v>9</v>
       </c>
       <c r="D778">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E778">
         <v>0</v>
@@ -16446,7 +16446,7 @@
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B779">
         <v>2</v>
@@ -16455,7 +16455,7 @@
         <v>10</v>
       </c>
       <c r="D779">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E779">
         <v>0</v>
@@ -16466,7 +16466,7 @@
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B780">
         <v>2</v>
@@ -16475,7 +16475,7 @@
         <v>11</v>
       </c>
       <c r="D780">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E780">
         <v>0</v>
@@ -16486,7 +16486,7 @@
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B781" s="2">
         <v>2</v>
@@ -16495,7 +16495,7 @@
         <v>12</v>
       </c>
       <c r="D781" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E781" s="2">
         <v>0</v>
@@ -16507,7 +16507,7 @@
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B782">
         <v>0</v>
@@ -16516,7 +16516,7 @@
         <v>8</v>
       </c>
       <c r="D782">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E782">
         <v>0</v>
@@ -16527,7 +16527,7 @@
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B783">
         <v>0</v>
@@ -16536,7 +16536,7 @@
         <v>9</v>
       </c>
       <c r="D783">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E783">
         <v>0</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B784">
         <v>0</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B785">
         <v>0</v>
@@ -16576,7 +16576,7 @@
         <v>11</v>
       </c>
       <c r="D785">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E785">
         <v>0</v>
@@ -16587,7 +16587,7 @@
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B786" s="2">
         <v>0</v>
@@ -16608,7 +16608,7 @@
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B787">
         <v>1</v>
@@ -16617,7 +16617,7 @@
         <v>8</v>
       </c>
       <c r="D787">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E787">
         <v>0</v>
@@ -16628,7 +16628,7 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B788">
         <v>1</v>
@@ -16648,7 +16648,7 @@
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B789">
         <v>1</v>
@@ -16668,7 +16668,7 @@
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B790">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         <v>11</v>
       </c>
       <c r="D790">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E790">
         <v>0</v>
@@ -16688,7 +16688,7 @@
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B791" s="2">
         <v>1</v>
@@ -16697,7 +16697,7 @@
         <v>12</v>
       </c>
       <c r="D791" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E791" s="2">
         <v>0</v>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B792">
         <v>2</v>
@@ -16718,7 +16718,7 @@
         <v>8</v>
       </c>
       <c r="D792">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E792">
         <v>0</v>
@@ -16729,7 +16729,7 @@
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B793">
         <v>2</v>
@@ -16738,7 +16738,7 @@
         <v>9</v>
       </c>
       <c r="D793">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E793">
         <v>0</v>
@@ -16749,7 +16749,7 @@
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B794">
         <v>2</v>
@@ -16758,7 +16758,7 @@
         <v>10</v>
       </c>
       <c r="D794">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E794">
         <v>0</v>
@@ -16769,7 +16769,7 @@
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B795">
         <v>2</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B796" s="2">
         <v>2</v>
@@ -16810,7 +16810,7 @@
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B797">
         <v>0</v>
@@ -16830,7 +16830,7 @@
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B798">
         <v>0</v>
@@ -16839,7 +16839,7 @@
         <v>9</v>
       </c>
       <c r="D798">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E798">
         <v>0</v>
@@ -16850,7 +16850,7 @@
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B799">
         <v>0</v>
@@ -16859,7 +16859,7 @@
         <v>10</v>
       </c>
       <c r="D799">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E799">
         <v>0</v>
@@ -16870,7 +16870,7 @@
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B800">
         <v>0</v>
@@ -16890,7 +16890,7 @@
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B801" s="2">
         <v>0</v>
@@ -16899,7 +16899,7 @@
         <v>12</v>
       </c>
       <c r="D801" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E801" s="2">
         <v>0</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B802">
         <v>1</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B803">
         <v>1</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B804">
         <v>1</v>
@@ -16971,7 +16971,7 @@
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B805">
         <v>1</v>
@@ -16991,7 +16991,7 @@
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B806" s="2">
         <v>1</v>
@@ -17012,7 +17012,7 @@
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B807">
         <v>2</v>
@@ -17021,7 +17021,7 @@
         <v>8</v>
       </c>
       <c r="D807">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E807">
         <v>0</v>
@@ -17032,7 +17032,7 @@
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B808">
         <v>2</v>
@@ -17041,7 +17041,7 @@
         <v>9</v>
       </c>
       <c r="D808">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E808">
         <v>0</v>
@@ -17052,7 +17052,7 @@
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B809">
         <v>2</v>
@@ -17072,7 +17072,7 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B810">
         <v>2</v>
@@ -17081,7 +17081,7 @@
         <v>11</v>
       </c>
       <c r="D810">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E810">
         <v>0</v>
@@ -17092,7 +17092,7 @@
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B811" s="2">
         <v>2</v>
@@ -17113,7 +17113,7 @@
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B812">
         <v>0</v>
@@ -17133,7 +17133,7 @@
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B813">
         <v>0</v>
@@ -17142,7 +17142,7 @@
         <v>9</v>
       </c>
       <c r="D813">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E813">
         <v>0</v>
@@ -17153,7 +17153,7 @@
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B814">
         <v>0</v>
@@ -17162,7 +17162,7 @@
         <v>10</v>
       </c>
       <c r="D814">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E814">
         <v>0</v>
@@ -17173,7 +17173,7 @@
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B815">
         <v>0</v>
@@ -17182,7 +17182,7 @@
         <v>11</v>
       </c>
       <c r="D815">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E815">
         <v>0</v>
@@ -17193,7 +17193,7 @@
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B816" s="2">
         <v>0</v>
@@ -17202,7 +17202,7 @@
         <v>12</v>
       </c>
       <c r="D816" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E816" s="2">
         <v>0</v>
@@ -17214,7 +17214,7 @@
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B817">
         <v>1</v>
@@ -17234,7 +17234,7 @@
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B818">
         <v>1</v>
@@ -17243,7 +17243,7 @@
         <v>9</v>
       </c>
       <c r="D818">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E818">
         <v>0</v>
@@ -17254,7 +17254,7 @@
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B819">
         <v>1</v>
@@ -17263,7 +17263,7 @@
         <v>10</v>
       </c>
       <c r="D819">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E819">
         <v>0</v>
@@ -17274,7 +17274,7 @@
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B820">
         <v>1</v>
@@ -17294,7 +17294,7 @@
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B821" s="2">
         <v>1</v>
@@ -17315,7 +17315,7 @@
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B822">
         <v>2</v>
@@ -17324,7 +17324,7 @@
         <v>8</v>
       </c>
       <c r="D822">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E822">
         <v>0</v>
@@ -17335,7 +17335,7 @@
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B823">
         <v>2</v>
@@ -17344,7 +17344,7 @@
         <v>9</v>
       </c>
       <c r="D823">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E823">
         <v>0</v>
@@ -17355,7 +17355,7 @@
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B824">
         <v>2</v>
@@ -17364,7 +17364,7 @@
         <v>10</v>
       </c>
       <c r="D824">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E824">
         <v>0</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B825">
         <v>2</v>
@@ -17384,7 +17384,7 @@
         <v>11</v>
       </c>
       <c r="D825">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E825">
         <v>0</v>
@@ -17395,7 +17395,7 @@
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B826" s="2">
         <v>2</v>
@@ -17404,7 +17404,7 @@
         <v>12</v>
       </c>
       <c r="D826" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E826" s="2">
         <v>0</v>
@@ -17416,7 +17416,7 @@
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B827">
         <v>0</v>
@@ -17436,7 +17436,7 @@
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B828">
         <v>0</v>
@@ -17445,7 +17445,7 @@
         <v>9</v>
       </c>
       <c r="D828">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E828">
         <v>0</v>
@@ -17456,7 +17456,7 @@
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B829">
         <v>0</v>
@@ -17476,7 +17476,7 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B830">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v>11</v>
       </c>
       <c r="D830">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E830">
         <v>0</v>
@@ -17496,7 +17496,7 @@
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B831" s="2">
         <v>0</v>
@@ -17505,7 +17505,7 @@
         <v>12</v>
       </c>
       <c r="D831" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E831" s="2">
         <v>0</v>
@@ -17517,7 +17517,7 @@
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B832">
         <v>1</v>
@@ -17526,7 +17526,7 @@
         <v>8</v>
       </c>
       <c r="D832">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E832">
         <v>0</v>
@@ -17537,7 +17537,7 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B833">
         <v>1</v>
@@ -17546,7 +17546,7 @@
         <v>9</v>
       </c>
       <c r="D833">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E833">
         <v>0</v>
@@ -17557,7 +17557,7 @@
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B834">
         <v>1</v>
@@ -17566,7 +17566,7 @@
         <v>10</v>
       </c>
       <c r="D834">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E834">
         <v>0</v>
@@ -17577,7 +17577,7 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B835">
         <v>1</v>
@@ -17597,7 +17597,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B836" s="2">
         <v>1</v>
@@ -17606,7 +17606,7 @@
         <v>12</v>
       </c>
       <c r="D836" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E836" s="2">
         <v>0</v>
@@ -17618,7 +17618,7 @@
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B837">
         <v>2</v>
@@ -17627,7 +17627,7 @@
         <v>8</v>
       </c>
       <c r="D837">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E837">
         <v>0</v>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B838">
         <v>2</v>
@@ -17658,7 +17658,7 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B839">
         <v>2</v>
@@ -17667,7 +17667,7 @@
         <v>10</v>
       </c>
       <c r="D839">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E839">
         <v>0</v>
@@ -17678,7 +17678,7 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B840">
         <v>2</v>
@@ -17687,7 +17687,7 @@
         <v>11</v>
       </c>
       <c r="D840">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E840">
         <v>0</v>
@@ -17698,7 +17698,7 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B841" s="2">
         <v>2</v>
@@ -17707,7 +17707,7 @@
         <v>12</v>
       </c>
       <c r="D841" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E841" s="2">
         <v>0</v>
@@ -17719,7 +17719,7 @@
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B842">
         <v>0</v>
@@ -17739,7 +17739,7 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B843">
         <v>0</v>
@@ -17748,7 +17748,7 @@
         <v>9</v>
       </c>
       <c r="D843">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E843">
         <v>0</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B844">
         <v>0</v>
@@ -17768,7 +17768,7 @@
         <v>10</v>
       </c>
       <c r="D844">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E844">
         <v>0</v>
@@ -17779,7 +17779,7 @@
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B845">
         <v>0</v>
@@ -17799,7 +17799,7 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B846" s="2">
         <v>0</v>
@@ -17808,7 +17808,7 @@
         <v>12</v>
       </c>
       <c r="D846" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E846" s="2">
         <v>0</v>
@@ -17820,7 +17820,7 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B847">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         <v>8</v>
       </c>
       <c r="D847">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E847">
         <v>0</v>
@@ -17840,7 +17840,7 @@
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B848">
         <v>1</v>
@@ -17860,7 +17860,7 @@
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B849">
         <v>1</v>
@@ -17869,7 +17869,7 @@
         <v>10</v>
       </c>
       <c r="D849">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E849">
         <v>0</v>
@@ -17880,7 +17880,7 @@
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B850">
         <v>1</v>
@@ -17889,7 +17889,7 @@
         <v>11</v>
       </c>
       <c r="D850">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E850">
         <v>0</v>
@@ -17900,7 +17900,7 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B851" s="2">
         <v>1</v>
@@ -17909,7 +17909,7 @@
         <v>12</v>
       </c>
       <c r="D851" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E851" s="2">
         <v>0</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B852">
         <v>2</v>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B853">
         <v>2</v>
@@ -17950,7 +17950,7 @@
         <v>9</v>
       </c>
       <c r="D853">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E853">
         <v>0</v>
@@ -17961,7 +17961,7 @@
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B854">
         <v>2</v>
@@ -17970,7 +17970,7 @@
         <v>10</v>
       </c>
       <c r="D854">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E854">
         <v>0</v>
@@ -17981,7 +17981,7 @@
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B855">
         <v>2</v>
@@ -18001,7 +18001,7 @@
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B856" s="2">
         <v>2</v>
@@ -18010,7 +18010,7 @@
         <v>12</v>
       </c>
       <c r="D856" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E856" s="2">
         <v>0</v>
@@ -18022,7 +18022,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B857">
         <v>0</v>
@@ -18042,7 +18042,7 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B858">
         <v>0</v>
@@ -18051,7 +18051,7 @@
         <v>9</v>
       </c>
       <c r="D858">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E858">
         <v>0</v>
@@ -18062,7 +18062,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B859">
         <v>0</v>
@@ -18071,7 +18071,7 @@
         <v>10</v>
       </c>
       <c r="D859">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E859">
         <v>0</v>
@@ -18082,7 +18082,7 @@
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B860">
         <v>0</v>
@@ -18091,7 +18091,7 @@
         <v>11</v>
       </c>
       <c r="D860">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E860">
         <v>0</v>
@@ -18102,7 +18102,7 @@
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B861" s="2">
         <v>0</v>
@@ -18111,7 +18111,7 @@
         <v>12</v>
       </c>
       <c r="D861" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E861" s="2">
         <v>0</v>
@@ -18123,7 +18123,7 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B862">
         <v>1</v>
@@ -18143,7 +18143,7 @@
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B863">
         <v>1</v>
@@ -18152,7 +18152,7 @@
         <v>9</v>
       </c>
       <c r="D863">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E863">
         <v>0</v>
@@ -18163,7 +18163,7 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B864">
         <v>1</v>
@@ -18172,7 +18172,7 @@
         <v>10</v>
       </c>
       <c r="D864">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E864">
         <v>0</v>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B865">
         <v>1</v>
@@ -18192,7 +18192,7 @@
         <v>11</v>
       </c>
       <c r="D865">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E865">
         <v>0</v>
@@ -18203,7 +18203,7 @@
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B866" s="2">
         <v>1</v>
@@ -18212,7 +18212,7 @@
         <v>12</v>
       </c>
       <c r="D866" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E866" s="2">
         <v>0</v>
@@ -18224,7 +18224,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B867">
         <v>2</v>
@@ -18244,7 +18244,7 @@
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B868">
         <v>2</v>
@@ -18253,7 +18253,7 @@
         <v>9</v>
       </c>
       <c r="D868">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E868">
         <v>0</v>
@@ -18264,7 +18264,7 @@
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B869">
         <v>2</v>
@@ -18273,7 +18273,7 @@
         <v>10</v>
       </c>
       <c r="D869">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E869">
         <v>0</v>
@@ -18284,7 +18284,7 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B870">
         <v>2</v>
@@ -18304,7 +18304,7 @@
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B871" s="2">
         <v>2</v>
@@ -18313,7 +18313,7 @@
         <v>12</v>
       </c>
       <c r="D871" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E871" s="2">
         <v>0</v>
@@ -18325,7 +18325,7 @@
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B872">
         <v>0</v>
@@ -18334,7 +18334,7 @@
         <v>8</v>
       </c>
       <c r="D872">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E872">
         <v>0</v>
@@ -18345,7 +18345,7 @@
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B873">
         <v>0</v>
@@ -18365,7 +18365,7 @@
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B874">
         <v>0</v>
@@ -18385,7 +18385,7 @@
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B875">
         <v>0</v>
@@ -18405,7 +18405,7 @@
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B876" s="2">
         <v>0</v>
@@ -18414,7 +18414,7 @@
         <v>12</v>
       </c>
       <c r="D876" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E876" s="2">
         <v>0</v>
@@ -18426,7 +18426,7 @@
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B877">
         <v>1</v>
@@ -18435,7 +18435,7 @@
         <v>8</v>
       </c>
       <c r="D877">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E877">
         <v>0</v>
@@ -18446,7 +18446,7 @@
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B878">
         <v>1</v>
@@ -18466,7 +18466,7 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B879">
         <v>1</v>
@@ -18475,7 +18475,7 @@
         <v>10</v>
       </c>
       <c r="D879">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E879">
         <v>0</v>
@@ -18486,7 +18486,7 @@
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B880">
         <v>1</v>
@@ -18495,7 +18495,7 @@
         <v>11</v>
       </c>
       <c r="D880">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E880">
         <v>0</v>
@@ -18506,7 +18506,7 @@
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B881" s="2">
         <v>1</v>
@@ -18515,7 +18515,7 @@
         <v>12</v>
       </c>
       <c r="D881" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E881" s="2">
         <v>0</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B882">
         <v>2</v>
@@ -18536,7 +18536,7 @@
         <v>8</v>
       </c>
       <c r="D882">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E882">
         <v>0</v>
@@ -18547,7 +18547,7 @@
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B883">
         <v>2</v>
@@ -18556,7 +18556,7 @@
         <v>9</v>
       </c>
       <c r="D883">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E883">
         <v>0</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B884">
         <v>2</v>
@@ -18576,7 +18576,7 @@
         <v>10</v>
       </c>
       <c r="D884">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E884">
         <v>0</v>
@@ -18587,7 +18587,7 @@
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B885">
         <v>2</v>
@@ -18596,7 +18596,7 @@
         <v>11</v>
       </c>
       <c r="D885">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E885">
         <v>0</v>
@@ -18607,7 +18607,7 @@
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B886" s="2">
         <v>2</v>
@@ -18616,7 +18616,7 @@
         <v>12</v>
       </c>
       <c r="D886" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E886" s="2">
         <v>0</v>
@@ -18628,7 +18628,7 @@
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B887">
         <v>0</v>
@@ -18637,7 +18637,7 @@
         <v>8</v>
       </c>
       <c r="D887">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E887">
         <v>0</v>
@@ -18648,7 +18648,7 @@
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B888">
         <v>0</v>
@@ -18668,7 +18668,7 @@
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B889">
         <v>0</v>
@@ -18688,7 +18688,7 @@
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B890">
         <v>0</v>
@@ -18697,7 +18697,7 @@
         <v>11</v>
       </c>
       <c r="D890">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E890">
         <v>0</v>
@@ -18708,7 +18708,7 @@
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B891" s="2">
         <v>0</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B892">
         <v>1</v>
@@ -18738,7 +18738,7 @@
         <v>8</v>
       </c>
       <c r="D892">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E892">
         <v>0</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B893">
         <v>1</v>
@@ -18758,7 +18758,7 @@
         <v>9</v>
       </c>
       <c r="D893">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E893">
         <v>0</v>
@@ -18769,7 +18769,7 @@
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B894">
         <v>1</v>
@@ -18778,7 +18778,7 @@
         <v>10</v>
       </c>
       <c r="D894">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E894">
         <v>0</v>
@@ -18789,7 +18789,7 @@
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B895">
         <v>1</v>
@@ -18798,7 +18798,7 @@
         <v>11</v>
       </c>
       <c r="D895">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E895">
         <v>0</v>
@@ -18809,7 +18809,7 @@
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B896" s="2">
         <v>1</v>
@@ -18830,7 +18830,7 @@
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B897">
         <v>2</v>
@@ -18850,7 +18850,7 @@
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B898">
         <v>2</v>
@@ -18859,7 +18859,7 @@
         <v>9</v>
       </c>
       <c r="D898">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E898">
         <v>0</v>
@@ -18870,7 +18870,7 @@
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B899">
         <v>2</v>
@@ -18879,7 +18879,7 @@
         <v>10</v>
       </c>
       <c r="D899">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E899">
         <v>0</v>
@@ -18890,7 +18890,7 @@
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B900">
         <v>2</v>
@@ -18910,7 +18910,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B901" s="2">
         <v>2</v>
@@ -18931,7 +18931,7 @@
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B902">
         <v>0</v>
@@ -18940,7 +18940,7 @@
         <v>8</v>
       </c>
       <c r="D902">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E902">
         <v>0</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B903">
         <v>0</v>
@@ -18971,7 +18971,7 @@
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B904">
         <v>0</v>
@@ -18980,7 +18980,7 @@
         <v>10</v>
       </c>
       <c r="D904">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E904">
         <v>0</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B905">
         <v>0</v>
@@ -19000,7 +19000,7 @@
         <v>11</v>
       </c>
       <c r="D905">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E905">
         <v>0</v>
@@ -19011,7 +19011,7 @@
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B906" s="2">
         <v>0</v>
@@ -19032,7 +19032,7 @@
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B907">
         <v>1</v>
@@ -19052,7 +19052,7 @@
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B908">
         <v>1</v>
@@ -19072,7 +19072,7 @@
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B909">
         <v>1</v>
@@ -19081,7 +19081,7 @@
         <v>10</v>
       </c>
       <c r="D909">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E909">
         <v>0</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B910">
         <v>1</v>
@@ -19101,7 +19101,7 @@
         <v>11</v>
       </c>
       <c r="D910">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E910">
         <v>0</v>
@@ -19112,7 +19112,7 @@
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B911" s="2">
         <v>1</v>
@@ -19121,7 +19121,7 @@
         <v>12</v>
       </c>
       <c r="D911" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E911" s="2">
         <v>0</v>
@@ -19133,7 +19133,7 @@
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B912">
         <v>2</v>
@@ -19153,7 +19153,7 @@
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B913">
         <v>2</v>
@@ -19162,7 +19162,7 @@
         <v>9</v>
       </c>
       <c r="D913">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E913">
         <v>0</v>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B914">
         <v>2</v>
@@ -19182,7 +19182,7 @@
         <v>10</v>
       </c>
       <c r="D914">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E914">
         <v>0</v>
@@ -19193,7 +19193,7 @@
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B915">
         <v>2</v>
@@ -19202,7 +19202,7 @@
         <v>11</v>
       </c>
       <c r="D915">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E915">
         <v>0</v>
@@ -19213,7 +19213,7 @@
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B916" s="2">
         <v>2</v>
@@ -19234,7 +19234,7 @@
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B917">
         <v>0</v>
@@ -19243,7 +19243,7 @@
         <v>8</v>
       </c>
       <c r="D917">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E917">
         <v>0</v>
@@ -19254,7 +19254,7 @@
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B918">
         <v>0</v>
@@ -19263,7 +19263,7 @@
         <v>9</v>
       </c>
       <c r="D918">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E918">
         <v>0</v>
@@ -19274,7 +19274,7 @@
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B919">
         <v>0</v>
@@ -19283,7 +19283,7 @@
         <v>10</v>
       </c>
       <c r="D919">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E919">
         <v>0</v>
@@ -19294,7 +19294,7 @@
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B920">
         <v>0</v>
@@ -19303,7 +19303,7 @@
         <v>11</v>
       </c>
       <c r="D920">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E920">
         <v>0</v>
@@ -19314,7 +19314,7 @@
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B921" s="2">
         <v>0</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B922">
         <v>1</v>
@@ -19344,7 +19344,7 @@
         <v>8</v>
       </c>
       <c r="D922">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E922">
         <v>0</v>
@@ -19355,7 +19355,7 @@
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B923">
         <v>1</v>
@@ -19364,7 +19364,7 @@
         <v>9</v>
       </c>
       <c r="D923">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E923">
         <v>0</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B924">
         <v>1</v>
@@ -19384,7 +19384,7 @@
         <v>10</v>
       </c>
       <c r="D924">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E924">
         <v>0</v>
@@ -19395,7 +19395,7 @@
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B925">
         <v>1</v>
@@ -19404,7 +19404,7 @@
         <v>11</v>
       </c>
       <c r="D925">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E925">
         <v>0</v>
@@ -19415,7 +19415,7 @@
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B926" s="2">
         <v>1</v>
@@ -19424,7 +19424,7 @@
         <v>12</v>
       </c>
       <c r="D926" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E926" s="2">
         <v>0</v>
@@ -19436,7 +19436,7 @@
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B927">
         <v>2</v>
@@ -19445,7 +19445,7 @@
         <v>8</v>
       </c>
       <c r="D927">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E927">
         <v>0</v>
@@ -19456,7 +19456,7 @@
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B928">
         <v>2</v>
@@ -19476,7 +19476,7 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B929">
         <v>2</v>
@@ -19496,7 +19496,7 @@
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B930">
         <v>2</v>
@@ -19516,7 +19516,7 @@
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B931" s="2">
         <v>2</v>
@@ -19525,7 +19525,7 @@
         <v>12</v>
       </c>
       <c r="D931" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E931" s="2">
         <v>0</v>
@@ -19537,7 +19537,7 @@
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B932">
         <v>0</v>
@@ -19557,7 +19557,7 @@
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B933">
         <v>0</v>
@@ -19566,7 +19566,7 @@
         <v>9</v>
       </c>
       <c r="D933">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E933">
         <v>0</v>
@@ -19577,7 +19577,7 @@
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B934">
         <v>0</v>
@@ -19586,7 +19586,7 @@
         <v>10</v>
       </c>
       <c r="D934">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E934">
         <v>0</v>
@@ -19597,7 +19597,7 @@
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B935">
         <v>0</v>
@@ -19606,7 +19606,7 @@
         <v>11</v>
       </c>
       <c r="D935">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E935">
         <v>0</v>
@@ -19617,7 +19617,7 @@
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B936" s="2">
         <v>0</v>
@@ -19638,7 +19638,7 @@
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B937">
         <v>1</v>
@@ -19647,7 +19647,7 @@
         <v>8</v>
       </c>
       <c r="D937">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E937">
         <v>0</v>
@@ -19658,7 +19658,7 @@
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B938">
         <v>1</v>
@@ -19678,7 +19678,7 @@
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B939">
         <v>1</v>
@@ -19698,7 +19698,7 @@
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B940">
         <v>1</v>
@@ -19707,7 +19707,7 @@
         <v>11</v>
       </c>
       <c r="D940">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E940">
         <v>0</v>
@@ -19718,7 +19718,7 @@
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B941" s="2">
         <v>1</v>
@@ -19727,7 +19727,7 @@
         <v>12</v>
       </c>
       <c r="D941" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E941" s="2">
         <v>0</v>
@@ -19739,7 +19739,7 @@
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B942">
         <v>2</v>
@@ -19748,7 +19748,7 @@
         <v>8</v>
       </c>
       <c r="D942">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E942">
         <v>0</v>
@@ -19759,7 +19759,7 @@
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B943">
         <v>2</v>
@@ -19768,7 +19768,7 @@
         <v>9</v>
       </c>
       <c r="D943">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E943">
         <v>0</v>
@@ -19779,7 +19779,7 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B944">
         <v>2</v>
@@ -19799,7 +19799,7 @@
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B945">
         <v>2</v>
@@ -19808,7 +19808,7 @@
         <v>11</v>
       </c>
       <c r="D945">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E945">
         <v>0</v>
@@ -19819,7 +19819,7 @@
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B946" s="2">
         <v>2</v>
@@ -19828,7 +19828,7 @@
         <v>12</v>
       </c>
       <c r="D946" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E946" s="2">
         <v>0</v>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B947">
         <v>0</v>
@@ -19849,7 +19849,7 @@
         <v>8</v>
       </c>
       <c r="D947">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E947">
         <v>0</v>
@@ -19860,7 +19860,7 @@
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B948">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>9</v>
       </c>
       <c r="D948">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E948">
         <v>0</v>
@@ -19880,7 +19880,7 @@
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B949">
         <v>0</v>
@@ -19889,7 +19889,7 @@
         <v>10</v>
       </c>
       <c r="D949">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E949">
         <v>0</v>
@@ -19900,7 +19900,7 @@
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B950">
         <v>0</v>
@@ -19909,7 +19909,7 @@
         <v>11</v>
       </c>
       <c r="D950">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E950">
         <v>0</v>
@@ -19920,7 +19920,7 @@
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B951" s="2">
         <v>0</v>
@@ -19941,7 +19941,7 @@
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B952">
         <v>1</v>
@@ -19950,7 +19950,7 @@
         <v>8</v>
       </c>
       <c r="D952">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E952">
         <v>0</v>
@@ -19961,7 +19961,7 @@
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B953">
         <v>1</v>
@@ -19970,7 +19970,7 @@
         <v>9</v>
       </c>
       <c r="D953">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E953">
         <v>0</v>
@@ -19981,7 +19981,7 @@
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B954">
         <v>1</v>
@@ -20001,7 +20001,7 @@
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B955">
         <v>1</v>
@@ -20021,7 +20021,7 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B956" s="2">
         <v>1</v>
@@ -20042,7 +20042,7 @@
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B957">
         <v>2</v>
@@ -20051,7 +20051,7 @@
         <v>8</v>
       </c>
       <c r="D957">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E957">
         <v>0</v>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B958">
         <v>2</v>
@@ -20071,7 +20071,7 @@
         <v>9</v>
       </c>
       <c r="D958">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E958">
         <v>0</v>
@@ -20082,7 +20082,7 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B959">
         <v>2</v>
@@ -20102,7 +20102,7 @@
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B960">
         <v>2</v>
@@ -20111,7 +20111,7 @@
         <v>11</v>
       </c>
       <c r="D960">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E960">
         <v>0</v>
@@ -20122,7 +20122,7 @@
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B961" s="2">
         <v>2</v>
@@ -20143,7 +20143,7 @@
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B962">
         <v>0</v>
@@ -20163,7 +20163,7 @@
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B963">
         <v>0</v>
@@ -20183,7 +20183,7 @@
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B964">
         <v>0</v>
@@ -20192,7 +20192,7 @@
         <v>10</v>
       </c>
       <c r="D964">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E964">
         <v>0</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B965">
         <v>0</v>
@@ -20212,7 +20212,7 @@
         <v>11</v>
       </c>
       <c r="D965">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E965">
         <v>0</v>
@@ -20223,7 +20223,7 @@
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B966" s="2">
         <v>0</v>
@@ -20244,7 +20244,7 @@
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B967">
         <v>1</v>
@@ -20264,7 +20264,7 @@
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B968">
         <v>1</v>
@@ -20273,7 +20273,7 @@
         <v>9</v>
       </c>
       <c r="D968">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E968">
         <v>0</v>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B969">
         <v>1</v>
@@ -20293,7 +20293,7 @@
         <v>10</v>
       </c>
       <c r="D969">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E969">
         <v>0</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B970">
         <v>1</v>
@@ -20313,7 +20313,7 @@
         <v>11</v>
       </c>
       <c r="D970">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E970">
         <v>0</v>
@@ -20324,7 +20324,7 @@
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B971" s="2">
         <v>1</v>
@@ -20345,7 +20345,7 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B972">
         <v>2</v>
@@ -20365,7 +20365,7 @@
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B973">
         <v>2</v>
@@ -20385,7 +20385,7 @@
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B974">
         <v>2</v>
@@ -20394,7 +20394,7 @@
         <v>10</v>
       </c>
       <c r="D974">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E974">
         <v>0</v>
@@ -20405,7 +20405,7 @@
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B975">
         <v>2</v>
@@ -20414,7 +20414,7 @@
         <v>11</v>
       </c>
       <c r="D975">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E975">
         <v>0</v>
@@ -20425,7 +20425,7 @@
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B976" s="2">
         <v>2</v>
@@ -20446,7 +20446,7 @@
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B977">
         <v>0</v>
@@ -20455,7 +20455,7 @@
         <v>8</v>
       </c>
       <c r="D977">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E977">
         <v>0</v>
@@ -20466,7 +20466,7 @@
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B978">
         <v>0</v>
@@ -20475,7 +20475,7 @@
         <v>9</v>
       </c>
       <c r="D978">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E978">
         <v>0</v>
@@ -20486,7 +20486,7 @@
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B979">
         <v>0</v>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B980">
         <v>0</v>
@@ -20515,7 +20515,7 @@
         <v>11</v>
       </c>
       <c r="D980">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E980">
         <v>0</v>
@@ -20526,7 +20526,7 @@
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B981" s="2">
         <v>0</v>
@@ -20547,7 +20547,7 @@
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B982">
         <v>1</v>
@@ -20556,7 +20556,7 @@
         <v>8</v>
       </c>
       <c r="D982">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E982">
         <v>0</v>
@@ -20567,7 +20567,7 @@
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B983">
         <v>1</v>
@@ -20576,7 +20576,7 @@
         <v>9</v>
       </c>
       <c r="D983">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E983">
         <v>0</v>
@@ -20587,7 +20587,7 @@
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B984">
         <v>1</v>
@@ -20596,7 +20596,7 @@
         <v>10</v>
       </c>
       <c r="D984">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E984">
         <v>0</v>
@@ -20607,7 +20607,7 @@
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B985">
         <v>1</v>
@@ -20616,7 +20616,7 @@
         <v>11</v>
       </c>
       <c r="D985">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E985">
         <v>0</v>
@@ -20627,7 +20627,7 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B986" s="2">
         <v>1</v>
@@ -20648,7 +20648,7 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B987">
         <v>2</v>
@@ -20657,7 +20657,7 @@
         <v>8</v>
       </c>
       <c r="D987">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E987">
         <v>0</v>
@@ -20668,7 +20668,7 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B988">
         <v>2</v>
@@ -20677,7 +20677,7 @@
         <v>9</v>
       </c>
       <c r="D988">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E988">
         <v>0</v>
@@ -20688,7 +20688,7 @@
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B989">
         <v>2</v>
@@ -20697,7 +20697,7 @@
         <v>10</v>
       </c>
       <c r="D989">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E989">
         <v>0</v>
@@ -20708,7 +20708,7 @@
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B990">
         <v>2</v>
@@ -20717,7 +20717,7 @@
         <v>11</v>
       </c>
       <c r="D990">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E990">
         <v>0</v>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B991" s="2">
         <v>2</v>
@@ -20749,7 +20749,7 @@
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B992">
         <v>0</v>
@@ -20758,7 +20758,7 @@
         <v>8</v>
       </c>
       <c r="D992">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E992">
         <v>0</v>
@@ -20769,7 +20769,7 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B993">
         <v>0</v>
@@ -20789,7 +20789,7 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B994">
         <v>0</v>
@@ -20798,7 +20798,7 @@
         <v>10</v>
       </c>
       <c r="D994">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E994">
         <v>0</v>
@@ -20809,7 +20809,7 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B995">
         <v>0</v>
@@ -20818,7 +20818,7 @@
         <v>11</v>
       </c>
       <c r="D995">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E995">
         <v>0</v>
@@ -20829,7 +20829,7 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B996" s="2">
         <v>0</v>
@@ -20850,7 +20850,7 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B997">
         <v>1</v>
@@ -20859,7 +20859,7 @@
         <v>8</v>
       </c>
       <c r="D997">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E997">
         <v>0</v>
@@ -20870,7 +20870,7 @@
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B998">
         <v>1</v>
@@ -20879,7 +20879,7 @@
         <v>9</v>
       </c>
       <c r="D998">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E998">
         <v>0</v>
@@ -20890,7 +20890,7 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B999">
         <v>1</v>
@@ -20899,7 +20899,7 @@
         <v>10</v>
       </c>
       <c r="D999">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E999">
         <v>0</v>
@@ -20910,7 +20910,7 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1000">
         <v>1</v>
@@ -20919,7 +20919,7 @@
         <v>11</v>
       </c>
       <c r="D1000">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1000">
         <v>0</v>
@@ -20930,7 +20930,7 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1001" s="2">
         <v>1</v>
@@ -20939,7 +20939,7 @@
         <v>12</v>
       </c>
       <c r="D1001" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1001" s="2">
         <v>0</v>
@@ -20951,7 +20951,7 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1002">
         <v>2</v>
@@ -20960,7 +20960,7 @@
         <v>8</v>
       </c>
       <c r="D1002">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1002">
         <v>0</v>
@@ -20971,7 +20971,7 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1003">
         <v>2</v>
@@ -20991,7 +20991,7 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1004">
         <v>2</v>
@@ -21000,7 +21000,7 @@
         <v>10</v>
       </c>
       <c r="D1004">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1004">
         <v>0</v>
@@ -21011,7 +21011,7 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1005">
         <v>2</v>
@@ -21020,7 +21020,7 @@
         <v>11</v>
       </c>
       <c r="D1005">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1005">
         <v>0</v>
@@ -21031,7 +21031,7 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1006" s="2">
         <v>2</v>
@@ -21040,7 +21040,7 @@
         <v>12</v>
       </c>
       <c r="D1006" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1006" s="2">
         <v>0</v>
@@ -21052,7 +21052,7 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1007">
         <v>0</v>
@@ -21061,7 +21061,7 @@
         <v>8</v>
       </c>
       <c r="D1007">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1007">
         <v>0</v>
@@ -21072,7 +21072,7 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1008">
         <v>0</v>
@@ -21092,7 +21092,7 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1009">
         <v>0</v>
@@ -21101,7 +21101,7 @@
         <v>10</v>
       </c>
       <c r="D1009">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1009">
         <v>0</v>
@@ -21112,7 +21112,7 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1010">
         <v>0</v>
@@ -21121,7 +21121,7 @@
         <v>11</v>
       </c>
       <c r="D1010">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1010">
         <v>0</v>
@@ -21132,7 +21132,7 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1011" s="2">
         <v>0</v>
@@ -21141,7 +21141,7 @@
         <v>12</v>
       </c>
       <c r="D1011" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1011" s="2">
         <v>0</v>
@@ -21153,7 +21153,7 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1012">
         <v>1</v>
@@ -21162,7 +21162,7 @@
         <v>8</v>
       </c>
       <c r="D1012">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1012">
         <v>0</v>
@@ -21173,7 +21173,7 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1013">
         <v>1</v>
@@ -21193,7 +21193,7 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1014">
         <v>1</v>
@@ -21202,7 +21202,7 @@
         <v>10</v>
       </c>
       <c r="D1014">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1014">
         <v>0</v>
@@ -21213,7 +21213,7 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1015">
         <v>1</v>
@@ -21222,7 +21222,7 @@
         <v>11</v>
       </c>
       <c r="D1015">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1015">
         <v>0</v>
@@ -21233,7 +21233,7 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1016" s="2">
         <v>1</v>
@@ -21242,7 +21242,7 @@
         <v>12</v>
       </c>
       <c r="D1016" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1016" s="2">
         <v>0</v>
@@ -21254,7 +21254,7 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1017">
         <v>2</v>
@@ -21263,7 +21263,7 @@
         <v>8</v>
       </c>
       <c r="D1017">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1017">
         <v>0</v>
@@ -21274,7 +21274,7 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1018">
         <v>2</v>
@@ -21294,7 +21294,7 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1019">
         <v>2</v>
@@ -21303,7 +21303,7 @@
         <v>10</v>
       </c>
       <c r="D1019">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1019">
         <v>0</v>
@@ -21314,7 +21314,7 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1020">
         <v>2</v>
@@ -21323,7 +21323,7 @@
         <v>11</v>
       </c>
       <c r="D1020">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1020">
         <v>0</v>
@@ -21334,7 +21334,7 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1021" s="2">
         <v>2</v>
@@ -21343,7 +21343,7 @@
         <v>12</v>
       </c>
       <c r="D1021" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1021" s="2">
         <v>0</v>
@@ -21355,7 +21355,7 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1022">
         <v>0</v>
@@ -21375,7 +21375,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1023">
         <v>0</v>
@@ -21384,7 +21384,7 @@
         <v>9</v>
       </c>
       <c r="D1023">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1023">
         <v>0</v>
@@ -21395,7 +21395,7 @@
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1024">
         <v>0</v>
@@ -21404,7 +21404,7 @@
         <v>10</v>
       </c>
       <c r="D1024">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1024">
         <v>0</v>
@@ -21415,7 +21415,7 @@
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1025">
         <v>0</v>
@@ -21424,7 +21424,7 @@
         <v>11</v>
       </c>
       <c r="D1025">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1025">
         <v>0</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1026" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1026" s="2">
         <v>0</v>
@@ -21456,7 +21456,7 @@
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1027">
         <v>1</v>
@@ -21476,7 +21476,7 @@
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1028">
         <v>1</v>
@@ -21485,7 +21485,7 @@
         <v>9</v>
       </c>
       <c r="D1028">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1028">
         <v>0</v>
@@ -21496,7 +21496,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1029">
         <v>1</v>
@@ -21516,7 +21516,7 @@
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1030">
         <v>1</v>
@@ -21536,7 +21536,7 @@
     </row>
     <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1031" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1031" s="2">
         <v>1</v>
@@ -21545,7 +21545,7 @@
         <v>12</v>
       </c>
       <c r="D1031" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1031" s="2">
         <v>0</v>
@@ -21557,7 +21557,7 @@
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1032">
         <v>2</v>
@@ -21577,7 +21577,7 @@
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1033">
         <v>2</v>
@@ -21586,7 +21586,7 @@
         <v>9</v>
       </c>
       <c r="D1033">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1033">
         <v>0</v>
@@ -21597,7 +21597,7 @@
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1034">
         <v>2</v>
@@ -21617,7 +21617,7 @@
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1035">
         <v>2</v>
@@ -21626,7 +21626,7 @@
         <v>11</v>
       </c>
       <c r="D1035">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1035">
         <v>0</v>
@@ -21637,7 +21637,7 @@
     </row>
     <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1036" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1036" s="2">
         <v>2</v>
@@ -21646,7 +21646,7 @@
         <v>12</v>
       </c>
       <c r="D1036" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1036" s="2">
         <v>0</v>
@@ -21658,7 +21658,7 @@
     </row>
     <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1037">
         <v>0</v>
@@ -21667,7 +21667,7 @@
         <v>8</v>
       </c>
       <c r="D1037">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1037">
         <v>0</v>
@@ -21678,7 +21678,7 @@
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1038">
         <v>0</v>
@@ -21687,7 +21687,7 @@
         <v>9</v>
       </c>
       <c r="D1038">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1038">
         <v>0</v>
@@ -21698,7 +21698,7 @@
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1039">
         <v>0</v>
@@ -21707,7 +21707,7 @@
         <v>10</v>
       </c>
       <c r="D1039">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1039">
         <v>0</v>
@@ -21718,7 +21718,7 @@
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1040">
         <v>0</v>
@@ -21738,7 +21738,7 @@
     </row>
     <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1041" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1041" s="2">
         <v>0</v>
@@ -21747,7 +21747,7 @@
         <v>12</v>
       </c>
       <c r="D1041" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1041" s="2">
         <v>0</v>
@@ -21759,7 +21759,7 @@
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1042">
         <v>1</v>
@@ -21768,7 +21768,7 @@
         <v>8</v>
       </c>
       <c r="D1042">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1042">
         <v>0</v>
@@ -21779,7 +21779,7 @@
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1043">
         <v>1</v>
@@ -21799,7 +21799,7 @@
     </row>
     <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1044">
         <v>1</v>
@@ -21808,7 +21808,7 @@
         <v>10</v>
       </c>
       <c r="D1044">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1044">
         <v>0</v>
@@ -21819,7 +21819,7 @@
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1045">
         <v>1</v>
@@ -21839,7 +21839,7 @@
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1046" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1046" s="2">
         <v>1</v>
@@ -21848,7 +21848,7 @@
         <v>12</v>
       </c>
       <c r="D1046" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1046" s="2">
         <v>0</v>
@@ -21860,7 +21860,7 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1047">
         <v>2</v>
@@ -21869,7 +21869,7 @@
         <v>8</v>
       </c>
       <c r="D1047">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1047">
         <v>0</v>
@@ -21880,7 +21880,7 @@
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1048">
         <v>2</v>
@@ -21889,7 +21889,7 @@
         <v>9</v>
       </c>
       <c r="D1048">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1048">
         <v>0</v>
@@ -21900,7 +21900,7 @@
     </row>
     <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1049">
         <v>2</v>
@@ -21920,7 +21920,7 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1050">
         <v>2</v>
@@ -21929,7 +21929,7 @@
         <v>11</v>
       </c>
       <c r="D1050">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1050">
         <v>0</v>
@@ -21940,7 +21940,7 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1051" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1051" s="2">
         <v>2</v>
@@ -21949,7 +21949,7 @@
         <v>12</v>
       </c>
       <c r="D1051" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1051" s="2">
         <v>0</v>
@@ -21961,7 +21961,7 @@
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1052">
         <v>0</v>
@@ -21981,7 +21981,7 @@
     </row>
     <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1053">
         <v>0</v>
@@ -21990,7 +21990,7 @@
         <v>9</v>
       </c>
       <c r="D1053">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1053">
         <v>0</v>
@@ -22001,7 +22001,7 @@
     </row>
     <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1054">
         <v>0</v>
@@ -22021,7 +22021,7 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1055">
         <v>0</v>
@@ -22030,7 +22030,7 @@
         <v>11</v>
       </c>
       <c r="D1055">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1055">
         <v>0</v>
@@ -22041,7 +22041,7 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1056" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1056" s="2">
         <v>0</v>
@@ -22050,7 +22050,7 @@
         <v>12</v>
       </c>
       <c r="D1056" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1056" s="2">
         <v>0</v>
@@ -22062,7 +22062,7 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1057">
         <v>1</v>
@@ -22071,7 +22071,7 @@
         <v>8</v>
       </c>
       <c r="D1057">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1057">
         <v>0</v>
@@ -22082,7 +22082,7 @@
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1058">
         <v>1</v>
@@ -22102,7 +22102,7 @@
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1059">
         <v>1</v>
@@ -22111,7 +22111,7 @@
         <v>10</v>
       </c>
       <c r="D1059">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1059">
         <v>0</v>
@@ -22122,7 +22122,7 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1060">
         <v>1</v>
@@ -22131,7 +22131,7 @@
         <v>11</v>
       </c>
       <c r="D1060">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1060">
         <v>0</v>
@@ -22142,7 +22142,7 @@
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1061" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1061" s="2">
         <v>1</v>
@@ -22151,7 +22151,7 @@
         <v>12</v>
       </c>
       <c r="D1061" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1061" s="2">
         <v>0</v>
@@ -22163,7 +22163,7 @@
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1062">
         <v>2</v>
@@ -22172,7 +22172,7 @@
         <v>8</v>
       </c>
       <c r="D1062">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1062">
         <v>0</v>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1063">
         <v>2</v>
@@ -22192,7 +22192,7 @@
         <v>9</v>
       </c>
       <c r="D1063">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1063">
         <v>0</v>
@@ -22203,7 +22203,7 @@
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1064">
         <v>2</v>
@@ -22223,7 +22223,7 @@
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1065">
         <v>2</v>
@@ -22232,7 +22232,7 @@
         <v>11</v>
       </c>
       <c r="D1065">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1065">
         <v>0</v>
@@ -22243,7 +22243,7 @@
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1066" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1066" s="2">
         <v>2</v>
@@ -22252,7 +22252,7 @@
         <v>12</v>
       </c>
       <c r="D1066" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1066" s="2">
         <v>0</v>
@@ -22264,7 +22264,7 @@
     </row>
     <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1067">
         <v>0</v>
@@ -22273,7 +22273,7 @@
         <v>8</v>
       </c>
       <c r="D1067">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1067">
         <v>0</v>
@@ -22284,7 +22284,7 @@
     </row>
     <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1068">
         <v>0</v>
@@ -22304,7 +22304,7 @@
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1069">
         <v>0</v>
@@ -22313,7 +22313,7 @@
         <v>10</v>
       </c>
       <c r="D1069">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1069">
         <v>0</v>
@@ -22324,7 +22324,7 @@
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1070">
         <v>0</v>
@@ -22344,7 +22344,7 @@
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1071" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1071" s="2">
         <v>0</v>
@@ -22365,7 +22365,7 @@
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1072">
         <v>1</v>
@@ -22374,7 +22374,7 @@
         <v>8</v>
       </c>
       <c r="D1072">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1072">
         <v>0</v>
@@ -22385,7 +22385,7 @@
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1073">
         <v>1</v>
@@ -22394,7 +22394,7 @@
         <v>9</v>
       </c>
       <c r="D1073">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1073">
         <v>0</v>
@@ -22405,7 +22405,7 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1074">
         <v>1</v>
@@ -22414,7 +22414,7 @@
         <v>10</v>
       </c>
       <c r="D1074">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1074">
         <v>0</v>
@@ -22425,7 +22425,7 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1075">
         <v>1</v>
@@ -22434,7 +22434,7 @@
         <v>11</v>
       </c>
       <c r="D1075">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1075">
         <v>0</v>
@@ -22445,7 +22445,7 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1076" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1076" s="2">
         <v>1</v>
@@ -22454,7 +22454,7 @@
         <v>12</v>
       </c>
       <c r="D1076" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1076" s="2">
         <v>0</v>
@@ -22466,7 +22466,7 @@
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1077">
         <v>2</v>
@@ -22486,7 +22486,7 @@
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1078">
         <v>2</v>
@@ -22506,7 +22506,7 @@
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1079">
         <v>2</v>
@@ -22526,7 +22526,7 @@
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1080">
         <v>2</v>
@@ -22546,7 +22546,7 @@
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1081" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1081" s="2">
         <v>2</v>
@@ -22555,7 +22555,7 @@
         <v>12</v>
       </c>
       <c r="D1081" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1081" s="2">
         <v>0</v>
@@ -22567,7 +22567,7 @@
     </row>
     <row r="1082" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1082">
         <v>0</v>
@@ -22576,7 +22576,7 @@
         <v>8</v>
       </c>
       <c r="D1082">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1082">
         <v>0</v>
@@ -22587,7 +22587,7 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1083">
         <v>0</v>
@@ -22607,7 +22607,7 @@
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1084">
         <v>0</v>
@@ -22616,7 +22616,7 @@
         <v>10</v>
       </c>
       <c r="D1084">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1084">
         <v>0</v>
@@ -22627,7 +22627,7 @@
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1085">
         <v>0</v>
@@ -22636,7 +22636,7 @@
         <v>11</v>
       </c>
       <c r="D1085">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1085">
         <v>0</v>
@@ -22647,7 +22647,7 @@
     </row>
     <row r="1086" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1086" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1086" s="2">
         <v>0</v>
@@ -22668,7 +22668,7 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1087">
         <v>1</v>
@@ -22677,7 +22677,7 @@
         <v>8</v>
       </c>
       <c r="D1087">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1087">
         <v>0</v>
@@ -22688,7 +22688,7 @@
     </row>
     <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1088">
         <v>1</v>
@@ -22697,7 +22697,7 @@
         <v>9</v>
       </c>
       <c r="D1088">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1088">
         <v>0</v>
@@ -22708,7 +22708,7 @@
     </row>
     <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1089">
         <v>1</v>
@@ -22717,7 +22717,7 @@
         <v>10</v>
       </c>
       <c r="D1089">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1089">
         <v>0</v>
@@ -22728,7 +22728,7 @@
     </row>
     <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1090">
         <v>1</v>
@@ -22737,7 +22737,7 @@
         <v>11</v>
       </c>
       <c r="D1090">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1090">
         <v>0</v>
@@ -22748,7 +22748,7 @@
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1091" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1091" s="2">
         <v>1</v>
@@ -22769,7 +22769,7 @@
     </row>
     <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1092">
         <v>2</v>
@@ -22789,7 +22789,7 @@
     </row>
     <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1093">
         <v>2</v>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1094">
         <v>2</v>
@@ -22818,7 +22818,7 @@
         <v>10</v>
       </c>
       <c r="D1094">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1094">
         <v>0</v>
@@ -22829,7 +22829,7 @@
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1095">
         <v>2</v>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1096" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1096" s="2">
         <v>2</v>
@@ -22858,7 +22858,7 @@
         <v>12</v>
       </c>
       <c r="D1096" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1096" s="2">
         <v>0</v>
@@ -22870,7 +22870,7 @@
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1097">
         <v>0</v>
@@ -22890,7 +22890,7 @@
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1098">
         <v>0</v>
@@ -22899,7 +22899,7 @@
         <v>9</v>
       </c>
       <c r="D1098">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1098">
         <v>0</v>
@@ -22910,7 +22910,7 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1099">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>10</v>
       </c>
       <c r="D1099">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1099">
         <v>0</v>
@@ -22930,7 +22930,7 @@
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1100">
         <v>0</v>
@@ -22939,7 +22939,7 @@
         <v>11</v>
       </c>
       <c r="D1100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1100">
         <v>0</v>
@@ -22950,7 +22950,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1101" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1101" s="2">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>12</v>
       </c>
       <c r="D1101" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1101" s="2">
         <v>0</v>
@@ -22971,7 +22971,7 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1102">
         <v>1</v>
@@ -22980,7 +22980,7 @@
         <v>8</v>
       </c>
       <c r="D1102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1102">
         <v>0</v>
@@ -22991,7 +22991,7 @@
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1103">
         <v>1</v>
@@ -23000,7 +23000,7 @@
         <v>9</v>
       </c>
       <c r="D1103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1103">
         <v>0</v>
@@ -23011,7 +23011,7 @@
     </row>
     <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1104">
         <v>1</v>
@@ -23031,7 +23031,7 @@
     </row>
     <row r="1105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1105">
         <v>1</v>
@@ -23040,7 +23040,7 @@
         <v>11</v>
       </c>
       <c r="D1105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1105">
         <v>0</v>
@@ -23051,7 +23051,7 @@
     </row>
     <row r="1106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1106" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1106" s="2">
         <v>1</v>
@@ -23060,7 +23060,7 @@
         <v>12</v>
       </c>
       <c r="D1106" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1106" s="2">
         <v>0</v>
@@ -23072,7 +23072,7 @@
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1107">
         <v>2</v>
@@ -23092,7 +23092,7 @@
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1108">
         <v>2</v>
@@ -23101,7 +23101,7 @@
         <v>9</v>
       </c>
       <c r="D1108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1108">
         <v>0</v>
@@ -23112,7 +23112,7 @@
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1109">
         <v>2</v>
@@ -23121,7 +23121,7 @@
         <v>10</v>
       </c>
       <c r="D1109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1109">
         <v>0</v>
@@ -23132,7 +23132,7 @@
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1110">
         <v>2</v>
@@ -23141,7 +23141,7 @@
         <v>11</v>
       </c>
       <c r="D1110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1110">
         <v>0</v>
@@ -23152,7 +23152,7 @@
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1111" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1111" s="2">
         <v>2</v>
@@ -23161,7 +23161,7 @@
         <v>12</v>
       </c>
       <c r="D1111" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1111" s="2">
         <v>0</v>
@@ -23173,7 +23173,7 @@
     </row>
     <row r="1112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1112">
         <v>0</v>
@@ -23193,7 +23193,7 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1113">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>9</v>
       </c>
       <c r="D1113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1113">
         <v>0</v>
@@ -23213,7 +23213,7 @@
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1114">
         <v>0</v>
@@ -23233,7 +23233,7 @@
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1115">
         <v>0</v>
@@ -23242,7 +23242,7 @@
         <v>11</v>
       </c>
       <c r="D1115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1115">
         <v>0</v>
@@ -23253,7 +23253,7 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1116" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1116" s="2">
         <v>0</v>
@@ -23274,7 +23274,7 @@
     </row>
     <row r="1117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1117">
         <v>1</v>
@@ -23283,7 +23283,7 @@
         <v>8</v>
       </c>
       <c r="D1117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1117">
         <v>0</v>
@@ -23294,7 +23294,7 @@
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1118">
         <v>1</v>
@@ -23314,7 +23314,7 @@
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1119">
         <v>1</v>
@@ -23334,7 +23334,7 @@
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1120">
         <v>1</v>
@@ -23343,7 +23343,7 @@
         <v>11</v>
       </c>
       <c r="D1120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1120">
         <v>0</v>
@@ -23354,7 +23354,7 @@
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1121" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1121" s="2">
         <v>1</v>
@@ -23363,7 +23363,7 @@
         <v>12</v>
       </c>
       <c r="D1121" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1121" s="2">
         <v>0</v>
@@ -23375,7 +23375,7 @@
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1122">
         <v>2</v>
@@ -23395,7 +23395,7 @@
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1123">
         <v>2</v>
@@ -23404,7 +23404,7 @@
         <v>9</v>
       </c>
       <c r="D1123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1123">
         <v>0</v>
@@ -23415,7 +23415,7 @@
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1124">
         <v>2</v>
@@ -23435,7 +23435,7 @@
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1125">
         <v>2</v>
@@ -23444,7 +23444,7 @@
         <v>11</v>
       </c>
       <c r="D1125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1125">
         <v>0</v>
@@ -23455,7 +23455,7 @@
     </row>
     <row r="1126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1126" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1126" s="2">
         <v>2</v>
@@ -23464,7 +23464,7 @@
         <v>12</v>
       </c>
       <c r="D1126" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1126" s="2">
         <v>0</v>
@@ -23476,7 +23476,7 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1127">
         <v>0</v>
@@ -23496,7 +23496,7 @@
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1128">
         <v>0</v>
@@ -23516,7 +23516,7 @@
     </row>
     <row r="1129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1129">
         <v>0</v>
@@ -23525,7 +23525,7 @@
         <v>10</v>
       </c>
       <c r="D1129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1129">
         <v>0</v>
@@ -23536,7 +23536,7 @@
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1130">
         <v>0</v>
@@ -23556,7 +23556,7 @@
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1131" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1131" s="2">
         <v>0</v>
@@ -23577,7 +23577,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1132">
         <v>1</v>
@@ -23597,7 +23597,7 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1133">
         <v>1</v>
@@ -23606,7 +23606,7 @@
         <v>9</v>
       </c>
       <c r="D1133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1133">
         <v>0</v>
@@ -23617,7 +23617,7 @@
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1134">
         <v>1</v>
@@ -23626,7 +23626,7 @@
         <v>10</v>
       </c>
       <c r="D1134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1134">
         <v>0</v>
@@ -23637,7 +23637,7 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1135">
         <v>1</v>
@@ -23646,7 +23646,7 @@
         <v>11</v>
       </c>
       <c r="D1135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1135">
         <v>0</v>
@@ -23657,7 +23657,7 @@
     </row>
     <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1136" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1136" s="2">
         <v>1</v>
@@ -23666,7 +23666,7 @@
         <v>12</v>
       </c>
       <c r="D1136" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1136" s="2">
         <v>0</v>
@@ -23678,7 +23678,7 @@
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1137">
         <v>2</v>
@@ -23698,7 +23698,7 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1138">
         <v>2</v>
@@ -23718,7 +23718,7 @@
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1139">
         <v>2</v>
@@ -23738,7 +23738,7 @@
     </row>
     <row r="1140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1140">
         <v>2</v>
@@ -23747,7 +23747,7 @@
         <v>11</v>
       </c>
       <c r="D1140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1140">
         <v>0</v>
@@ -23758,7 +23758,7 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1141" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1141" s="2">
         <v>2</v>
@@ -23767,7 +23767,7 @@
         <v>12</v>
       </c>
       <c r="D1141" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1141" s="2">
         <v>0</v>
@@ -23779,7 +23779,7 @@
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1142">
         <v>0</v>
@@ -23799,7 +23799,7 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1143">
         <v>0</v>
@@ -23819,7 +23819,7 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1144">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>10</v>
       </c>
       <c r="D1144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1144">
         <v>0</v>
@@ -23839,7 +23839,7 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1145">
         <v>0</v>
@@ -23848,7 +23848,7 @@
         <v>11</v>
       </c>
       <c r="D1145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1145">
         <v>0</v>
@@ -23859,7 +23859,7 @@
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1146" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1146" s="2">
         <v>0</v>
@@ -23868,7 +23868,7 @@
         <v>12</v>
       </c>
       <c r="D1146" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1146" s="2">
         <v>0</v>
@@ -23880,7 +23880,7 @@
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1147">
         <v>1</v>
@@ -23900,7 +23900,7 @@
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1148">
         <v>1</v>
@@ -23920,7 +23920,7 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1149">
         <v>1</v>
@@ -23929,7 +23929,7 @@
         <v>10</v>
       </c>
       <c r="D1149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1149">
         <v>0</v>
@@ -23940,7 +23940,7 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1150">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         <v>11</v>
       </c>
       <c r="D1150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1150">
         <v>0</v>
@@ -23960,7 +23960,7 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1151" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1151" s="2">
         <v>1</v>
@@ -23981,7 +23981,7 @@
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1152">
         <v>2</v>
@@ -23990,7 +23990,7 @@
         <v>8</v>
       </c>
       <c r="D1152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1152">
         <v>0</v>
@@ -24001,7 +24001,7 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1153">
         <v>2</v>
@@ -24010,7 +24010,7 @@
         <v>9</v>
       </c>
       <c r="D1153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1153">
         <v>0</v>
@@ -24021,7 +24021,7 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1154">
         <v>2</v>
@@ -24030,7 +24030,7 @@
         <v>10</v>
       </c>
       <c r="D1154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1154">
         <v>0</v>
@@ -24041,7 +24041,7 @@
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1155">
         <v>2</v>
@@ -24050,7 +24050,7 @@
         <v>11</v>
       </c>
       <c r="D1155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1155">
         <v>0</v>
@@ -24061,7 +24061,7 @@
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1156" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1156" s="2">
         <v>2</v>
@@ -24070,7 +24070,7 @@
         <v>12</v>
       </c>
       <c r="D1156" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1156" s="2">
         <v>0</v>
@@ -24082,7 +24082,7 @@
     </row>
     <row r="1157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1157">
         <v>0</v>
@@ -24091,7 +24091,7 @@
         <v>8</v>
       </c>
       <c r="D1157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1157">
         <v>0</v>
@@ -24102,7 +24102,7 @@
     </row>
     <row r="1158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1158">
         <v>0</v>
@@ -24122,7 +24122,7 @@
     </row>
     <row r="1159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1159">
         <v>0</v>
@@ -24131,7 +24131,7 @@
         <v>10</v>
       </c>
       <c r="D1159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1159">
         <v>0</v>
@@ -24142,7 +24142,7 @@
     </row>
     <row r="1160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1160">
         <v>0</v>
@@ -24151,7 +24151,7 @@
         <v>11</v>
       </c>
       <c r="D1160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1160">
         <v>0</v>
@@ -24162,7 +24162,7 @@
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1161" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1161" s="2">
         <v>0</v>
@@ -24183,7 +24183,7 @@
     </row>
     <row r="1162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1162">
         <v>1</v>
@@ -24203,7 +24203,7 @@
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1163">
         <v>1</v>
@@ -24212,7 +24212,7 @@
         <v>9</v>
       </c>
       <c r="D1163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1163">
         <v>0</v>
@@ -24223,7 +24223,7 @@
     </row>
     <row r="1164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1164">
         <v>1</v>
@@ -24243,7 +24243,7 @@
     </row>
     <row r="1165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1165">
         <v>1</v>
@@ -24252,7 +24252,7 @@
         <v>11</v>
       </c>
       <c r="D1165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1165">
         <v>0</v>
@@ -24263,7 +24263,7 @@
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1166" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1166" s="2">
         <v>1</v>
@@ -24284,7 +24284,7 @@
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1167">
         <v>2</v>
@@ -24304,7 +24304,7 @@
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1168">
         <v>2</v>
@@ -24313,7 +24313,7 @@
         <v>9</v>
       </c>
       <c r="D1168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1168">
         <v>0</v>
@@ -24324,7 +24324,7 @@
     </row>
     <row r="1169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1169">
         <v>2</v>
@@ -24333,7 +24333,7 @@
         <v>10</v>
       </c>
       <c r="D1169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1169">
         <v>0</v>
@@ -24344,7 +24344,7 @@
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1170">
         <v>2</v>
@@ -24353,7 +24353,7 @@
         <v>11</v>
       </c>
       <c r="D1170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1170">
         <v>0</v>
@@ -24364,7 +24364,7 @@
     </row>
     <row r="1171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1171" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1171" s="2">
         <v>2</v>
@@ -24385,7 +24385,7 @@
     </row>
     <row r="1172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1172">
         <v>0</v>
@@ -24394,7 +24394,7 @@
         <v>8</v>
       </c>
       <c r="D1172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1172">
         <v>0</v>
@@ -24405,7 +24405,7 @@
     </row>
     <row r="1173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1173">
         <v>0</v>
@@ -24425,7 +24425,7 @@
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1174">
         <v>0</v>
@@ -24434,7 +24434,7 @@
         <v>10</v>
       </c>
       <c r="D1174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1174">
         <v>0</v>
@@ -24445,7 +24445,7 @@
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1175">
         <v>0</v>
@@ -24465,7 +24465,7 @@
     </row>
     <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1176" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1176" s="2">
         <v>0</v>
@@ -24474,7 +24474,7 @@
         <v>12</v>
       </c>
       <c r="D1176" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1176" s="2">
         <v>0</v>
@@ -24486,7 +24486,7 @@
     </row>
     <row r="1177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1177">
         <v>1</v>
@@ -24506,7 +24506,7 @@
     </row>
     <row r="1178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1178">
         <v>1</v>
@@ -24526,7 +24526,7 @@
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1179">
         <v>1</v>
@@ -24546,7 +24546,7 @@
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1180">
         <v>1</v>
@@ -24566,7 +24566,7 @@
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1181" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1181" s="2">
         <v>1</v>
@@ -24575,7 +24575,7 @@
         <v>12</v>
       </c>
       <c r="D1181" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1181" s="2">
         <v>0</v>
@@ -24587,7 +24587,7 @@
     </row>
     <row r="1182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1182">
         <v>2</v>
@@ -24607,7 +24607,7 @@
     </row>
     <row r="1183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1183">
         <v>2</v>
@@ -24616,7 +24616,7 @@
         <v>9</v>
       </c>
       <c r="D1183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1183">
         <v>0</v>
@@ -24627,7 +24627,7 @@
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1184">
         <v>2</v>
@@ -24636,7 +24636,7 @@
         <v>10</v>
       </c>
       <c r="D1184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1184">
         <v>0</v>
@@ -24647,7 +24647,7 @@
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1185">
         <v>2</v>
@@ -24656,7 +24656,7 @@
         <v>11</v>
       </c>
       <c r="D1185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1185">
         <v>0</v>
@@ -24667,7 +24667,7 @@
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1186" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1186" s="2">
         <v>2</v>
@@ -24688,7 +24688,7 @@
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1187">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>8</v>
       </c>
       <c r="D1187">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1187">
         <v>0</v>
@@ -24708,7 +24708,7 @@
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1188">
         <v>0</v>
@@ -24717,7 +24717,7 @@
         <v>9</v>
       </c>
       <c r="D1188">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1188">
         <v>0</v>
@@ -24728,7 +24728,7 @@
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1189">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>10</v>
       </c>
       <c r="D1189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1189">
         <v>0</v>
@@ -24748,7 +24748,7 @@
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1190">
         <v>0</v>
@@ -24757,7 +24757,7 @@
         <v>11</v>
       </c>
       <c r="D1190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1190">
         <v>0</v>
@@ -24768,7 +24768,7 @@
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1191" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1191" s="2">
         <v>0</v>
@@ -24777,7 +24777,7 @@
         <v>12</v>
       </c>
       <c r="D1191" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1191" s="2">
         <v>0</v>
@@ -24789,7 +24789,7 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1192">
         <v>1</v>
@@ -24798,7 +24798,7 @@
         <v>8</v>
       </c>
       <c r="D1192">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1192">
         <v>0</v>
@@ -24809,7 +24809,7 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1193">
         <v>1</v>
@@ -24818,7 +24818,7 @@
         <v>9</v>
       </c>
       <c r="D1193">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1193">
         <v>0</v>
@@ -24829,7 +24829,7 @@
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1194">
         <v>1</v>
@@ -24849,7 +24849,7 @@
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1195">
         <v>1</v>
@@ -24858,7 +24858,7 @@
         <v>11</v>
       </c>
       <c r="D1195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1195">
         <v>0</v>
@@ -24869,7 +24869,7 @@
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1196" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1196" s="2">
         <v>1</v>
@@ -24878,7 +24878,7 @@
         <v>12</v>
       </c>
       <c r="D1196" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1196" s="2">
         <v>0</v>
@@ -24890,7 +24890,7 @@
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1197">
         <v>2</v>
@@ -24899,7 +24899,7 @@
         <v>8</v>
       </c>
       <c r="D1197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1197">
         <v>0</v>
@@ -24910,7 +24910,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1198">
         <v>2</v>
@@ -24919,7 +24919,7 @@
         <v>9</v>
       </c>
       <c r="D1198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1198">
         <v>0</v>
@@ -24930,7 +24930,7 @@
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1199">
         <v>2</v>
@@ -24950,7 +24950,7 @@
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1200">
         <v>2</v>
@@ -24970,7 +24970,7 @@
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1201" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1201" s="2">
         <v>2</v>
@@ -24979,7 +24979,7 @@
         <v>12</v>
       </c>
       <c r="D1201" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1201" s="2">
         <v>0</v>
@@ -24991,7 +24991,7 @@
     </row>
     <row r="1202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1202">
         <v>0</v>
@@ -25000,7 +25000,7 @@
         <v>8</v>
       </c>
       <c r="D1202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1202">
         <v>0</v>
@@ -25011,7 +25011,7 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1203">
         <v>0</v>
@@ -25020,7 +25020,7 @@
         <v>9</v>
       </c>
       <c r="D1203">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1203">
         <v>0</v>
@@ -25031,7 +25031,7 @@
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1204">
         <v>0</v>
@@ -25051,7 +25051,7 @@
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1205">
         <v>0</v>
@@ -25071,7 +25071,7 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1206" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1206" s="2">
         <v>0</v>
@@ -25092,7 +25092,7 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1207">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         <v>8</v>
       </c>
       <c r="D1207">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1207">
         <v>0</v>
@@ -25112,7 +25112,7 @@
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1208">
         <v>1</v>
@@ -25121,7 +25121,7 @@
         <v>9</v>
       </c>
       <c r="D1208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1208">
         <v>0</v>
@@ -25132,7 +25132,7 @@
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1209">
         <v>1</v>
@@ -25152,7 +25152,7 @@
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1210">
         <v>1</v>
@@ -25172,7 +25172,7 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1211" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1211" s="2">
         <v>1</v>
@@ -25181,7 +25181,7 @@
         <v>12</v>
       </c>
       <c r="D1211" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1211" s="2">
         <v>0</v>
@@ -25193,7 +25193,7 @@
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1212">
         <v>2</v>
@@ -25202,7 +25202,7 @@
         <v>8</v>
       </c>
       <c r="D1212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1212">
         <v>0</v>
@@ -25213,7 +25213,7 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1213">
         <v>2</v>
@@ -25222,7 +25222,7 @@
         <v>9</v>
       </c>
       <c r="D1213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1213">
         <v>0</v>
@@ -25233,7 +25233,7 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1214">
         <v>2</v>
@@ -25242,7 +25242,7 @@
         <v>10</v>
       </c>
       <c r="D1214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1214">
         <v>0</v>
@@ -25253,7 +25253,7 @@
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1215">
         <v>2</v>
@@ -25262,7 +25262,7 @@
         <v>11</v>
       </c>
       <c r="D1215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1215">
         <v>0</v>
@@ -25273,7 +25273,7 @@
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1216" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1216" s="2">
         <v>2</v>
@@ -25282,7 +25282,7 @@
         <v>12</v>
       </c>
       <c r="D1216" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1216" s="2">
         <v>0</v>
@@ -25294,7 +25294,7 @@
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1217">
         <v>0</v>
@@ -25303,7 +25303,7 @@
         <v>8</v>
       </c>
       <c r="D1217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1217">
         <v>0</v>
@@ -25314,7 +25314,7 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1218">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>9</v>
       </c>
       <c r="D1218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1218">
         <v>0</v>
@@ -25334,7 +25334,7 @@
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1219">
         <v>0</v>
@@ -25354,7 +25354,7 @@
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1220">
         <v>0</v>
@@ -25374,7 +25374,7 @@
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1221" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1221" s="2">
         <v>0</v>
@@ -25383,7 +25383,7 @@
         <v>12</v>
       </c>
       <c r="D1221" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1221" s="2">
         <v>0</v>
@@ -25395,7 +25395,7 @@
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1222">
         <v>1</v>
@@ -25404,7 +25404,7 @@
         <v>8</v>
       </c>
       <c r="D1222">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1222">
         <v>0</v>
@@ -25415,7 +25415,7 @@
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1223">
         <v>1</v>
@@ -25424,7 +25424,7 @@
         <v>9</v>
       </c>
       <c r="D1223">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1223">
         <v>0</v>
@@ -25435,7 +25435,7 @@
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1224">
         <v>1</v>
@@ -25444,7 +25444,7 @@
         <v>10</v>
       </c>
       <c r="D1224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1224">
         <v>0</v>
@@ -25455,7 +25455,7 @@
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1225">
         <v>1</v>
@@ -25464,7 +25464,7 @@
         <v>11</v>
       </c>
       <c r="D1225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1225">
         <v>0</v>
@@ -25475,7 +25475,7 @@
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1226" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1226" s="2">
         <v>1</v>
@@ -25484,7 +25484,7 @@
         <v>12</v>
       </c>
       <c r="D1226" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1226" s="2">
         <v>0</v>
@@ -25496,7 +25496,7 @@
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1227">
         <v>2</v>
@@ -25505,7 +25505,7 @@
         <v>8</v>
       </c>
       <c r="D1227">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1227">
         <v>0</v>
@@ -25516,7 +25516,7 @@
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1228">
         <v>2</v>
@@ -25525,7 +25525,7 @@
         <v>9</v>
       </c>
       <c r="D1228">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1228">
         <v>0</v>
@@ -25536,7 +25536,7 @@
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1229">
         <v>2</v>
@@ -25556,7 +25556,7 @@
     </row>
     <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1230">
         <v>2</v>
@@ -25565,7 +25565,7 @@
         <v>11</v>
       </c>
       <c r="D1230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1230">
         <v>0</v>
@@ -25576,7 +25576,7 @@
     </row>
     <row r="1231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1231" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1231" s="2">
         <v>2</v>
@@ -25585,7 +25585,7 @@
         <v>12</v>
       </c>
       <c r="D1231" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1231" s="2">
         <v>0</v>
@@ -25597,7 +25597,7 @@
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1232">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>8</v>
       </c>
       <c r="D1232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1232">
         <v>0</v>
@@ -25617,7 +25617,7 @@
     </row>
     <row r="1233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1233">
         <v>0</v>
@@ -25637,7 +25637,7 @@
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1234">
         <v>0</v>
@@ -25657,7 +25657,7 @@
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1235">
         <v>0</v>
@@ -25666,7 +25666,7 @@
         <v>11</v>
       </c>
       <c r="D1235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1235">
         <v>0</v>
@@ -25677,7 +25677,7 @@
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1236" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1236" s="2">
         <v>0</v>
@@ -25686,7 +25686,7 @@
         <v>12</v>
       </c>
       <c r="D1236" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1236" s="2">
         <v>0</v>
@@ -25698,7 +25698,7 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1237">
         <v>1</v>
@@ -25707,7 +25707,7 @@
         <v>8</v>
       </c>
       <c r="D1237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1237">
         <v>0</v>
@@ -25718,7 +25718,7 @@
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1238">
         <v>1</v>
@@ -25738,7 +25738,7 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1239">
         <v>1</v>
@@ -25758,7 +25758,7 @@
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1240">
         <v>1</v>
@@ -25767,7 +25767,7 @@
         <v>11</v>
       </c>
       <c r="D1240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1240">
         <v>0</v>
@@ -25778,7 +25778,7 @@
     </row>
     <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1241" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1241" s="2">
         <v>1</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1242">
         <v>2</v>
@@ -25808,7 +25808,7 @@
         <v>8</v>
       </c>
       <c r="D1242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1242">
         <v>0</v>
@@ -25819,7 +25819,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1243">
         <v>2</v>
@@ -25828,7 +25828,7 @@
         <v>9</v>
       </c>
       <c r="D1243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1243">
         <v>0</v>
@@ -25839,7 +25839,7 @@
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1244">
         <v>2</v>
@@ -25859,7 +25859,7 @@
     </row>
     <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1245">
         <v>2</v>
@@ -25868,7 +25868,7 @@
         <v>11</v>
       </c>
       <c r="D1245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1245">
         <v>0</v>
@@ -25879,7 +25879,7 @@
     </row>
     <row r="1246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1246" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1246" s="2">
         <v>2</v>
@@ -25888,7 +25888,7 @@
         <v>12</v>
       </c>
       <c r="D1246" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1246" s="2">
         <v>0</v>
@@ -25900,7 +25900,7 @@
     </row>
     <row r="1247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1247">
         <v>0</v>
@@ -25920,7 +25920,7 @@
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1248">
         <v>0</v>
@@ -25929,7 +25929,7 @@
         <v>9</v>
       </c>
       <c r="D1248">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1248">
         <v>0</v>
@@ -25940,7 +25940,7 @@
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1249">
         <v>0</v>
@@ -25949,7 +25949,7 @@
         <v>10</v>
       </c>
       <c r="D1249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1249">
         <v>0</v>
@@ -25960,7 +25960,7 @@
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1250">
         <v>0</v>
@@ -25980,7 +25980,7 @@
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1251" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1251" s="2">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>12</v>
       </c>
       <c r="D1251" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1251" s="2">
         <v>0</v>
@@ -26001,7 +26001,7 @@
     </row>
     <row r="1252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1252">
         <v>1</v>
@@ -26010,7 +26010,7 @@
         <v>8</v>
       </c>
       <c r="D1252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1252">
         <v>0</v>
@@ -26021,7 +26021,7 @@
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1253">
         <v>1</v>
@@ -26030,7 +26030,7 @@
         <v>9</v>
       </c>
       <c r="D1253">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1253">
         <v>0</v>
@@ -26041,7 +26041,7 @@
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1254">
         <v>1</v>
@@ -26050,7 +26050,7 @@
         <v>10</v>
       </c>
       <c r="D1254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1254">
         <v>0</v>
@@ -26061,7 +26061,7 @@
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1255">
         <v>1</v>
@@ -26070,7 +26070,7 @@
         <v>11</v>
       </c>
       <c r="D1255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1255">
         <v>0</v>
@@ -26081,7 +26081,7 @@
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1256" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1256" s="2">
         <v>1</v>
@@ -26090,7 +26090,7 @@
         <v>12</v>
       </c>
       <c r="D1256" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1256" s="2">
         <v>0</v>
@@ -26102,7 +26102,7 @@
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1257">
         <v>2</v>
@@ -26122,7 +26122,7 @@
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1258">
         <v>2</v>
@@ -26131,7 +26131,7 @@
         <v>9</v>
       </c>
       <c r="D1258">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1258">
         <v>0</v>
@@ -26142,7 +26142,7 @@
     </row>
     <row r="1259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1259">
         <v>2</v>
@@ -26151,7 +26151,7 @@
         <v>10</v>
       </c>
       <c r="D1259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1259">
         <v>0</v>
@@ -26162,7 +26162,7 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1260">
         <v>2</v>
@@ -26171,7 +26171,7 @@
         <v>11</v>
       </c>
       <c r="D1260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1260">
         <v>0</v>
@@ -26182,7 +26182,7 @@
     </row>
     <row r="1261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1261" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1261" s="2">
         <v>2</v>
@@ -26191,7 +26191,7 @@
         <v>12</v>
       </c>
       <c r="D1261" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1261" s="2">
         <v>0</v>
@@ -26203,7 +26203,7 @@
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1262">
         <v>0</v>
@@ -26212,7 +26212,7 @@
         <v>8</v>
       </c>
       <c r="D1262">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1262">
         <v>0</v>
@@ -26223,7 +26223,7 @@
     </row>
     <row r="1263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1263">
         <v>0</v>
@@ -26243,7 +26243,7 @@
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1264">
         <v>0</v>
@@ -26252,7 +26252,7 @@
         <v>10</v>
       </c>
       <c r="D1264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1264">
         <v>0</v>
@@ -26263,7 +26263,7 @@
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1265">
         <v>0</v>
@@ -26272,7 +26272,7 @@
         <v>11</v>
       </c>
       <c r="D1265">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1265">
         <v>0</v>
@@ -26283,7 +26283,7 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1266" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1266" s="2">
         <v>0</v>
@@ -26292,7 +26292,7 @@
         <v>12</v>
       </c>
       <c r="D1266" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1266" s="2">
         <v>0</v>
@@ -26304,7 +26304,7 @@
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1267">
         <v>1</v>
@@ -26313,7 +26313,7 @@
         <v>8</v>
       </c>
       <c r="D1267">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1267">
         <v>0</v>
@@ -26324,7 +26324,7 @@
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1268">
         <v>1</v>
@@ -26333,7 +26333,7 @@
         <v>9</v>
       </c>
       <c r="D1268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1268">
         <v>0</v>
@@ -26344,7 +26344,7 @@
     </row>
     <row r="1269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1269">
         <v>1</v>
@@ -26364,7 +26364,7 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1270">
         <v>1</v>
@@ -26373,7 +26373,7 @@
         <v>11</v>
       </c>
       <c r="D1270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1270">
         <v>0</v>
@@ -26384,7 +26384,7 @@
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1271" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1271" s="2">
         <v>1</v>
@@ -26393,7 +26393,7 @@
         <v>12</v>
       </c>
       <c r="D1271" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1271" s="2">
         <v>0</v>
@@ -26405,7 +26405,7 @@
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1272">
         <v>2</v>
@@ -26414,7 +26414,7 @@
         <v>8</v>
       </c>
       <c r="D1272">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1272">
         <v>0</v>
@@ -26425,7 +26425,7 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1273">
         <v>2</v>
@@ -26434,7 +26434,7 @@
         <v>9</v>
       </c>
       <c r="D1273">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1273">
         <v>0</v>
@@ -26445,7 +26445,7 @@
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1274">
         <v>2</v>
@@ -26454,7 +26454,7 @@
         <v>10</v>
       </c>
       <c r="D1274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1274">
         <v>0</v>
@@ -26465,7 +26465,7 @@
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1275">
         <v>2</v>
@@ -26474,7 +26474,7 @@
         <v>11</v>
       </c>
       <c r="D1275">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1275">
         <v>0</v>
@@ -26485,7 +26485,7 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1276" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1276" s="2">
         <v>2</v>
@@ -26494,7 +26494,7 @@
         <v>12</v>
       </c>
       <c r="D1276" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1276" s="2">
         <v>0</v>
@@ -26506,7 +26506,7 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1277">
         <v>0</v>
@@ -26515,7 +26515,7 @@
         <v>8</v>
       </c>
       <c r="D1277">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1277">
         <v>0</v>
@@ -26526,7 +26526,7 @@
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1278">
         <v>0</v>
@@ -26535,7 +26535,7 @@
         <v>9</v>
       </c>
       <c r="D1278">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1278">
         <v>0</v>
@@ -26546,7 +26546,7 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1279">
         <v>0</v>
@@ -26566,7 +26566,7 @@
     </row>
     <row r="1280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1280">
         <v>0</v>
@@ -26575,7 +26575,7 @@
         <v>11</v>
       </c>
       <c r="D1280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1280">
         <v>0</v>
@@ -26586,7 +26586,7 @@
     </row>
     <row r="1281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1281" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1281" s="2">
         <v>0</v>
@@ -26595,7 +26595,7 @@
         <v>12</v>
       </c>
       <c r="D1281" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1281" s="2">
         <v>0</v>
@@ -26607,7 +26607,7 @@
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1282">
         <v>1</v>
@@ -26616,7 +26616,7 @@
         <v>8</v>
       </c>
       <c r="D1282">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1282">
         <v>0</v>
@@ -26627,7 +26627,7 @@
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1283">
         <v>1</v>
@@ -26636,7 +26636,7 @@
         <v>9</v>
       </c>
       <c r="D1283">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1283">
         <v>0</v>
@@ -26647,7 +26647,7 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1284">
         <v>1</v>
@@ -26656,7 +26656,7 @@
         <v>10</v>
       </c>
       <c r="D1284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1284">
         <v>0</v>
@@ -26667,7 +26667,7 @@
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1285">
         <v>1</v>
@@ -26676,7 +26676,7 @@
         <v>11</v>
       </c>
       <c r="D1285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1285">
         <v>0</v>
@@ -26687,7 +26687,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1286" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1286" s="2">
         <v>1</v>
@@ -26696,7 +26696,7 @@
         <v>12</v>
       </c>
       <c r="D1286" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1286" s="2">
         <v>0</v>
@@ -26708,7 +26708,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1287">
         <v>2</v>
@@ -26717,7 +26717,7 @@
         <v>8</v>
       </c>
       <c r="D1287">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1287">
         <v>0</v>
@@ -26728,7 +26728,7 @@
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1288">
         <v>2</v>
@@ -26737,7 +26737,7 @@
         <v>9</v>
       </c>
       <c r="D1288">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1288">
         <v>0</v>
@@ -26748,7 +26748,7 @@
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1289">
         <v>2</v>
@@ -26757,7 +26757,7 @@
         <v>10</v>
       </c>
       <c r="D1289">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1289">
         <v>0</v>
@@ -26768,7 +26768,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1290">
         <v>2</v>
@@ -26788,7 +26788,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1291" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1291" s="2">
         <v>2</v>
@@ -26797,7 +26797,7 @@
         <v>12</v>
       </c>
       <c r="D1291" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1291" s="2">
         <v>0</v>
@@ -26809,7 +26809,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1292">
         <v>0</v>
@@ -26818,7 +26818,7 @@
         <v>8</v>
       </c>
       <c r="D1292">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1292">
         <v>0</v>
@@ -26829,7 +26829,7 @@
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1293">
         <v>0</v>
@@ -26849,7 +26849,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1294">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>10</v>
       </c>
       <c r="D1294">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1294">
         <v>0</v>
@@ -26869,7 +26869,7 @@
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1295">
         <v>0</v>
@@ -26878,7 +26878,7 @@
         <v>11</v>
       </c>
       <c r="D1295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1295">
         <v>0</v>
@@ -26889,7 +26889,7 @@
     </row>
     <row r="1296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1296" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1296" s="2">
         <v>0</v>
@@ -26898,7 +26898,7 @@
         <v>12</v>
       </c>
       <c r="D1296" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1296" s="2">
         <v>0</v>
@@ -26910,7 +26910,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1297">
         <v>1</v>
@@ -26919,7 +26919,7 @@
         <v>8</v>
       </c>
       <c r="D1297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1297">
         <v>0</v>
@@ -26930,7 +26930,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1298">
         <v>1</v>
@@ -26939,7 +26939,7 @@
         <v>9</v>
       </c>
       <c r="D1298">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1298">
         <v>0</v>
@@ -26950,7 +26950,7 @@
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1299">
         <v>1</v>
@@ -26959,7 +26959,7 @@
         <v>10</v>
       </c>
       <c r="D1299">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1299">
         <v>0</v>
@@ -26970,7 +26970,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1300">
         <v>1</v>
@@ -26979,7 +26979,7 @@
         <v>11</v>
       </c>
       <c r="D1300">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1300">
         <v>0</v>
@@ -26990,7 +26990,7 @@
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1301" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1301" s="2">
         <v>1</v>
@@ -27011,7 +27011,7 @@
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1302">
         <v>2</v>
@@ -27020,7 +27020,7 @@
         <v>8</v>
       </c>
       <c r="D1302">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1302">
         <v>0</v>
@@ -27031,7 +27031,7 @@
     </row>
     <row r="1303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1303">
         <v>2</v>
@@ -27040,7 +27040,7 @@
         <v>9</v>
       </c>
       <c r="D1303">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1303">
         <v>0</v>
@@ -27051,7 +27051,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1304">
         <v>2</v>
@@ -27060,7 +27060,7 @@
         <v>10</v>
       </c>
       <c r="D1304">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1304">
         <v>0</v>
@@ -27071,7 +27071,7 @@
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1305">
         <v>2</v>
@@ -27091,7 +27091,7 @@
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1306" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1306" s="2">
         <v>2</v>
@@ -27100,7 +27100,7 @@
         <v>12</v>
       </c>
       <c r="D1306" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1306" s="2">
         <v>0</v>
@@ -27112,7 +27112,7 @@
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1307">
         <v>0</v>
@@ -27121,7 +27121,7 @@
         <v>8</v>
       </c>
       <c r="D1307">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1307">
         <v>0</v>
@@ -27132,7 +27132,7 @@
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1308">
         <v>0</v>
@@ -27141,7 +27141,7 @@
         <v>9</v>
       </c>
       <c r="D1308">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1308">
         <v>0</v>
@@ -27152,7 +27152,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1309">
         <v>0</v>
@@ -27161,7 +27161,7 @@
         <v>10</v>
       </c>
       <c r="D1309">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1309">
         <v>0</v>
@@ -27172,7 +27172,7 @@
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1310">
         <v>0</v>
@@ -27192,7 +27192,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1311" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1311" s="2">
         <v>0</v>
@@ -27201,7 +27201,7 @@
         <v>12</v>
       </c>
       <c r="D1311" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1311" s="2">
         <v>0</v>
@@ -27213,7 +27213,7 @@
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1312">
         <v>1</v>
@@ -27233,7 +27233,7 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1313">
         <v>1</v>
@@ -27242,7 +27242,7 @@
         <v>9</v>
       </c>
       <c r="D1313">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1313">
         <v>0</v>
@@ -27253,7 +27253,7 @@
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1314">
         <v>1</v>
@@ -27262,7 +27262,7 @@
         <v>10</v>
       </c>
       <c r="D1314">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1314">
         <v>0</v>
@@ -27273,7 +27273,7 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1315">
         <v>1</v>
@@ -27282,7 +27282,7 @@
         <v>11</v>
       </c>
       <c r="D1315">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1315">
         <v>0</v>
@@ -27293,7 +27293,7 @@
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1316" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1316" s="2">
         <v>1</v>
@@ -27314,7 +27314,7 @@
     </row>
     <row r="1317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1317">
         <v>2</v>
@@ -27334,7 +27334,7 @@
     </row>
     <row r="1318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1318">
         <v>2</v>
@@ -27343,7 +27343,7 @@
         <v>9</v>
       </c>
       <c r="D1318">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1318">
         <v>0</v>
@@ -27354,7 +27354,7 @@
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1319">
         <v>2</v>
@@ -27374,7 +27374,7 @@
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1320">
         <v>2</v>
@@ -27394,7 +27394,7 @@
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1321" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1321" s="2">
         <v>2</v>
@@ -27403,7 +27403,7 @@
         <v>12</v>
       </c>
       <c r="D1321" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1321" s="2">
         <v>0</v>
@@ -27415,7 +27415,7 @@
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1322">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>8</v>
       </c>
       <c r="D1322">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1322">
         <v>0</v>
@@ -27435,7 +27435,7 @@
     </row>
     <row r="1323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1323">
         <v>0</v>
@@ -27455,7 +27455,7 @@
     </row>
     <row r="1324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1324">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>10</v>
       </c>
       <c r="D1324">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1324">
         <v>0</v>
@@ -27475,7 +27475,7 @@
     </row>
     <row r="1325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1325">
         <v>0</v>
@@ -27495,7 +27495,7 @@
     </row>
     <row r="1326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1326" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1326" s="2">
         <v>0</v>
@@ -27504,7 +27504,7 @@
         <v>12</v>
       </c>
       <c r="D1326" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1326" s="2">
         <v>0</v>
@@ -27516,7 +27516,7 @@
     </row>
     <row r="1327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1327">
         <v>1</v>
@@ -27536,7 +27536,7 @@
     </row>
     <row r="1328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1328">
         <v>1</v>
@@ -27545,7 +27545,7 @@
         <v>9</v>
       </c>
       <c r="D1328">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1328">
         <v>0</v>
@@ -27556,7 +27556,7 @@
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1329">
         <v>1</v>
@@ -27565,7 +27565,7 @@
         <v>10</v>
       </c>
       <c r="D1329">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1329">
         <v>0</v>
@@ -27576,7 +27576,7 @@
     </row>
     <row r="1330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1330">
         <v>1</v>
@@ -27585,7 +27585,7 @@
         <v>11</v>
       </c>
       <c r="D1330">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1330">
         <v>0</v>
@@ -27596,7 +27596,7 @@
     </row>
     <row r="1331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1331" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1331" s="2">
         <v>1</v>
@@ -27605,7 +27605,7 @@
         <v>12</v>
       </c>
       <c r="D1331" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1331" s="2">
         <v>0</v>
@@ -27617,7 +27617,7 @@
     </row>
     <row r="1332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1332">
         <v>2</v>
@@ -27637,7 +27637,7 @@
     </row>
     <row r="1333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1333">
         <v>2</v>
@@ -27646,7 +27646,7 @@
         <v>9</v>
       </c>
       <c r="D1333">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1333">
         <v>0</v>
@@ -27657,7 +27657,7 @@
     </row>
     <row r="1334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1334">
         <v>2</v>
@@ -27666,7 +27666,7 @@
         <v>10</v>
       </c>
       <c r="D1334">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1334">
         <v>0</v>
@@ -27677,7 +27677,7 @@
     </row>
     <row r="1335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1335">
         <v>2</v>
@@ -27697,7 +27697,7 @@
     </row>
     <row r="1336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1336" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1336" s="2">
         <v>2</v>
@@ -27706,7 +27706,7 @@
         <v>12</v>
       </c>
       <c r="D1336" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1336" s="2">
         <v>0</v>
@@ -27718,7 +27718,7 @@
     </row>
     <row r="1337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1337">
         <v>0</v>
@@ -27727,7 +27727,7 @@
         <v>8</v>
       </c>
       <c r="D1337">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1337">
         <v>0</v>
@@ -27738,7 +27738,7 @@
     </row>
     <row r="1338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1338">
         <v>0</v>
@@ -27747,7 +27747,7 @@
         <v>9</v>
       </c>
       <c r="D1338">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1338">
         <v>0</v>
@@ -27758,7 +27758,7 @@
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1339">
         <v>0</v>
@@ -27767,7 +27767,7 @@
         <v>10</v>
       </c>
       <c r="D1339">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1339">
         <v>0</v>
@@ -27778,7 +27778,7 @@
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1340">
         <v>0</v>
@@ -27787,7 +27787,7 @@
         <v>11</v>
       </c>
       <c r="D1340">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1340">
         <v>0</v>
@@ -27798,7 +27798,7 @@
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1341" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1341" s="2">
         <v>0</v>
@@ -27807,7 +27807,7 @@
         <v>12</v>
       </c>
       <c r="D1341" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1341" s="2">
         <v>0</v>
@@ -27819,7 +27819,7 @@
     </row>
     <row r="1342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1342">
         <v>1</v>
@@ -27839,7 +27839,7 @@
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1343">
         <v>1</v>
@@ -27859,7 +27859,7 @@
     </row>
     <row r="1344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1344">
         <v>1</v>
@@ -27868,7 +27868,7 @@
         <v>10</v>
       </c>
       <c r="D1344">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1344">
         <v>0</v>
@@ -27879,7 +27879,7 @@
     </row>
     <row r="1345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1345">
         <v>1</v>
@@ -27899,7 +27899,7 @@
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1346" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1346" s="2">
         <v>1</v>
@@ -27908,7 +27908,7 @@
         <v>12</v>
       </c>
       <c r="D1346" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1346" s="2">
         <v>0</v>
@@ -27920,7 +27920,7 @@
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1347">
         <v>2</v>
@@ -27929,7 +27929,7 @@
         <v>8</v>
       </c>
       <c r="D1347">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1347">
         <v>0</v>
@@ -27940,7 +27940,7 @@
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1348">
         <v>2</v>
@@ -27949,7 +27949,7 @@
         <v>9</v>
       </c>
       <c r="D1348">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1348">
         <v>0</v>
@@ -27960,7 +27960,7 @@
     </row>
     <row r="1349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1349">
         <v>2</v>
@@ -27969,7 +27969,7 @@
         <v>10</v>
       </c>
       <c r="D1349">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1349">
         <v>0</v>
@@ -27980,7 +27980,7 @@
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1350">
         <v>2</v>
@@ -27989,7 +27989,7 @@
         <v>11</v>
       </c>
       <c r="D1350">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1350">
         <v>0</v>
@@ -28000,7 +28000,7 @@
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1351" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1351" s="2">
         <v>2</v>
@@ -28021,7 +28021,7 @@
     </row>
     <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1352">
         <v>0</v>
@@ -28030,7 +28030,7 @@
         <v>8</v>
       </c>
       <c r="D1352">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1352">
         <v>0</v>
@@ -28041,7 +28041,7 @@
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1353">
         <v>0</v>
@@ -28061,7 +28061,7 @@
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1354">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>10</v>
       </c>
       <c r="D1354">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1354">
         <v>0</v>
@@ -28081,7 +28081,7 @@
     </row>
     <row r="1355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1355">
         <v>0</v>
@@ -28101,7 +28101,7 @@
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1356" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1356" s="2">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>12</v>
       </c>
       <c r="D1356" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1356" s="2">
         <v>0</v>
@@ -28122,7 +28122,7 @@
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1357">
         <v>1</v>
@@ -28142,7 +28142,7 @@
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1358">
         <v>1</v>
@@ -28151,7 +28151,7 @@
         <v>9</v>
       </c>
       <c r="D1358">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1358">
         <v>0</v>
@@ -28162,7 +28162,7 @@
     </row>
     <row r="1359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1359">
         <v>1</v>
@@ -28171,7 +28171,7 @@
         <v>10</v>
       </c>
       <c r="D1359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1359">
         <v>0</v>
@@ -28182,7 +28182,7 @@
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1360">
         <v>1</v>
@@ -28202,7 +28202,7 @@
     </row>
     <row r="1361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1361" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1361" s="2">
         <v>1</v>
@@ -28211,7 +28211,7 @@
         <v>12</v>
       </c>
       <c r="D1361" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1361" s="2">
         <v>0</v>
@@ -28223,7 +28223,7 @@
     </row>
     <row r="1362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1362">
         <v>2</v>
@@ -28232,7 +28232,7 @@
         <v>8</v>
       </c>
       <c r="D1362">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1362">
         <v>0</v>
@@ -28243,7 +28243,7 @@
     </row>
     <row r="1363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1363">
         <v>2</v>
@@ -28252,7 +28252,7 @@
         <v>9</v>
       </c>
       <c r="D1363">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1363">
         <v>0</v>
@@ -28263,7 +28263,7 @@
     </row>
     <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1364">
         <v>2</v>
@@ -28283,7 +28283,7 @@
     </row>
     <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1365">
         <v>2</v>
@@ -28303,7 +28303,7 @@
     </row>
     <row r="1366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1366" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1366" s="2">
         <v>2</v>
@@ -28312,7 +28312,7 @@
         <v>12</v>
       </c>
       <c r="D1366" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1366" s="2">
         <v>0</v>
@@ -28321,309 +28321,6 @@
         <v>0</v>
       </c>
       <c r="G1366" s="2"/>
-    </row>
-    <row r="1367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1367" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1367">
-        <v>0</v>
-      </c>
-      <c r="C1367" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1367">
-        <v>5</v>
-      </c>
-      <c r="E1367">
-        <v>0</v>
-      </c>
-      <c r="F1367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1368" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1368">
-        <v>0</v>
-      </c>
-      <c r="C1368" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1368">
-        <v>5</v>
-      </c>
-      <c r="E1368">
-        <v>0</v>
-      </c>
-      <c r="F1368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1369" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1369">
-        <v>0</v>
-      </c>
-      <c r="C1369" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1369">
-        <v>3</v>
-      </c>
-      <c r="E1369">
-        <v>0</v>
-      </c>
-      <c r="F1369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1370" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1370">
-        <v>0</v>
-      </c>
-      <c r="C1370" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1370">
-        <v>4</v>
-      </c>
-      <c r="E1370">
-        <v>0</v>
-      </c>
-      <c r="F1370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1371" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1371" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1371" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1371" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1371" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1371" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1371" s="2"/>
-    </row>
-    <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1372" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1372">
-        <v>1</v>
-      </c>
-      <c r="C1372" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1372">
-        <v>3</v>
-      </c>
-      <c r="E1372">
-        <v>0</v>
-      </c>
-      <c r="F1372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1373" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1373">
-        <v>1</v>
-      </c>
-      <c r="C1373" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1373">
-        <v>3</v>
-      </c>
-      <c r="E1373">
-        <v>0</v>
-      </c>
-      <c r="F1373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1374" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1374">
-        <v>1</v>
-      </c>
-      <c r="C1374" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1374">
-        <v>3</v>
-      </c>
-      <c r="E1374">
-        <v>0</v>
-      </c>
-      <c r="F1374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1375" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1375">
-        <v>1</v>
-      </c>
-      <c r="C1375" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1375">
-        <v>4</v>
-      </c>
-      <c r="E1375">
-        <v>0</v>
-      </c>
-      <c r="F1375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1376" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1376" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1376" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1376" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1376" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1376" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1376" s="2"/>
-    </row>
-    <row r="1377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1377" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1377">
-        <v>2</v>
-      </c>
-      <c r="C1377" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1377">
-        <v>5</v>
-      </c>
-      <c r="E1377">
-        <v>0</v>
-      </c>
-      <c r="F1377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1378" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1378">
-        <v>2</v>
-      </c>
-      <c r="C1378" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1378">
-        <v>5</v>
-      </c>
-      <c r="E1378">
-        <v>0</v>
-      </c>
-      <c r="F1378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1379" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1379">
-        <v>2</v>
-      </c>
-      <c r="C1379" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1379">
-        <v>3</v>
-      </c>
-      <c r="E1379">
-        <v>0</v>
-      </c>
-      <c r="F1379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1380" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1380">
-        <v>2</v>
-      </c>
-      <c r="C1380" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1380">
-        <v>4</v>
-      </c>
-      <c r="E1380">
-        <v>0</v>
-      </c>
-      <c r="F1380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1381" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1381" s="2">
-        <v>2</v>
-      </c>
-      <c r="C1381" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1381" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1381" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1381" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1381" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
